--- a/right_shoulder_Data_Variable.xlsx
+++ b/right_shoulder_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HU4"/>
+  <dimension ref="A1:NM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,2072 +1121,3848 @@
       <c r="HU1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>169.1920623779297</v>
+        <v>253.5798950195312</v>
       </c>
       <c r="B2" t="n">
-        <v>176.4353942871094</v>
+        <v>263.2553405761719</v>
       </c>
       <c r="C2" t="n">
-        <v>178.5350189208984</v>
+        <v>268.3399353027344</v>
       </c>
       <c r="D2" t="n">
-        <v>185.1839904785156</v>
+        <v>274.3922729492188</v>
       </c>
       <c r="E2" t="n">
-        <v>194.0263061523438</v>
+        <v>283.9774780273438</v>
       </c>
       <c r="F2" t="n">
-        <v>202.4013519287109</v>
+        <v>295.307373046875</v>
       </c>
       <c r="G2" t="n">
-        <v>210.5124053955078</v>
+        <v>305.5327453613281</v>
       </c>
       <c r="H2" t="n">
-        <v>218.246337890625</v>
+        <v>316.3704833984375</v>
       </c>
       <c r="I2" t="n">
-        <v>228.4388580322266</v>
+        <v>325.48974609375</v>
       </c>
       <c r="J2" t="n">
-        <v>234.870361328125</v>
+        <v>334.3545837402344</v>
       </c>
       <c r="K2" t="n">
-        <v>245.8312225341797</v>
+        <v>343.4378356933594</v>
       </c>
       <c r="L2" t="n">
-        <v>250.3634338378906</v>
+        <v>349.4653930664062</v>
       </c>
       <c r="M2" t="n">
-        <v>256.4881591796875</v>
+        <v>381.7380981445312</v>
       </c>
       <c r="N2" t="n">
-        <v>260.3799133300781</v>
+        <v>382.219970703125</v>
       </c>
       <c r="O2" t="n">
-        <v>266.4294128417969</v>
+        <v>383.8265991210938</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5082092285156</v>
+        <v>381.3074340820312</v>
       </c>
       <c r="Q2" t="n">
-        <v>279.1950988769531</v>
+        <v>380.6408386230469</v>
       </c>
       <c r="R2" t="n">
-        <v>284.4915466308594</v>
+        <v>380.1523132324219</v>
       </c>
       <c r="S2" t="n">
-        <v>287.8105163574219</v>
+        <v>379.4656066894531</v>
       </c>
       <c r="T2" t="n">
-        <v>289.2731018066406</v>
+        <v>377.1837768554688</v>
       </c>
       <c r="U2" t="n">
-        <v>289.7648010253906</v>
+        <v>373.8031616210938</v>
       </c>
       <c r="V2" t="n">
-        <v>289.5391235351562</v>
+        <v>367.9370422363281</v>
       </c>
       <c r="W2" t="n">
-        <v>289.5394897460938</v>
+        <v>362.4913940429688</v>
       </c>
       <c r="X2" t="n">
-        <v>289.9329833984375</v>
+        <v>358.5160522460938</v>
       </c>
       <c r="Y2" t="n">
-        <v>290.9017639160156</v>
+        <v>356.1157531738281</v>
       </c>
       <c r="Z2" t="n">
-        <v>290.7073669433594</v>
+        <v>353.5784606933594</v>
       </c>
       <c r="AA2" t="n">
-        <v>291.3873596191406</v>
+        <v>348.7225646972656</v>
       </c>
       <c r="AB2" t="n">
-        <v>290.4341125488281</v>
+        <v>345.3173217773438</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.8860778808594</v>
+        <v>341.8102416992188</v>
       </c>
       <c r="AD2" t="n">
-        <v>290.0336608886719</v>
+        <v>339.3747253417969</v>
       </c>
       <c r="AE2" t="n">
-        <v>291.1480102539062</v>
+        <v>337.4812316894531</v>
       </c>
       <c r="AF2" t="n">
-        <v>291.4387817382812</v>
+        <v>335.7430725097656</v>
       </c>
       <c r="AG2" t="n">
-        <v>292.5382690429688</v>
+        <v>333.4056396484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>293.4137573242188</v>
+        <v>332.8148803710938</v>
       </c>
       <c r="AI2" t="n">
-        <v>294.6775817871094</v>
+        <v>331.1750793457031</v>
       </c>
       <c r="AJ2" t="n">
-        <v>295.3576049804688</v>
+        <v>330.9982604980469</v>
       </c>
       <c r="AK2" t="n">
-        <v>296.2140197753906</v>
+        <v>329.7904663085938</v>
       </c>
       <c r="AL2" t="n">
-        <v>297.2637634277344</v>
+        <v>327.9771118164062</v>
       </c>
       <c r="AM2" t="n">
-        <v>297.8859558105469</v>
+        <v>325.990966796875</v>
       </c>
       <c r="AN2" t="n">
-        <v>300.2186279296875</v>
+        <v>325.1543579101562</v>
       </c>
       <c r="AO2" t="n">
-        <v>305.0427856445312</v>
+        <v>324.5718994140625</v>
       </c>
       <c r="AP2" t="n">
-        <v>306.7825622558594</v>
+        <v>323.99267578125</v>
       </c>
       <c r="AQ2" t="n">
-        <v>307.1448059082031</v>
+        <v>323.4844360351562</v>
       </c>
       <c r="AR2" t="n">
-        <v>308.6661682128906</v>
+        <v>322.8201904296875</v>
       </c>
       <c r="AS2" t="n">
-        <v>310.38623046875</v>
+        <v>321.8351745605469</v>
       </c>
       <c r="AT2" t="n">
-        <v>311.6531066894531</v>
+        <v>320.6517333984375</v>
       </c>
       <c r="AU2" t="n">
-        <v>313.3379821777344</v>
+        <v>320.3079833984375</v>
       </c>
       <c r="AV2" t="n">
-        <v>313.649169921875</v>
+        <v>319.9493408203125</v>
       </c>
       <c r="AW2" t="n">
-        <v>315.6766662597656</v>
+        <v>319.6566772460938</v>
       </c>
       <c r="AX2" t="n">
-        <v>314.5124206542969</v>
+        <v>319.0321044921875</v>
       </c>
       <c r="AY2" t="n">
-        <v>314.2492370605469</v>
+        <v>318.43115234375</v>
       </c>
       <c r="AZ2" t="n">
-        <v>314.3821716308594</v>
+        <v>317.8494262695312</v>
       </c>
       <c r="BA2" t="n">
-        <v>314.9228515625</v>
+        <v>317.3646240234375</v>
       </c>
       <c r="BB2" t="n">
-        <v>315.4454956054688</v>
+        <v>316.2529907226562</v>
       </c>
       <c r="BC2" t="n">
-        <v>315.1147155761719</v>
+        <v>314.8013916015625</v>
       </c>
       <c r="BD2" t="n">
-        <v>314.2870788574219</v>
+        <v>314.2484436035156</v>
       </c>
       <c r="BE2" t="n">
-        <v>312.1756286621094</v>
+        <v>313.3289489746094</v>
       </c>
       <c r="BF2" t="n">
-        <v>310.7902221679688</v>
+        <v>312.1449890136719</v>
       </c>
       <c r="BG2" t="n">
-        <v>309.4848327636719</v>
+        <v>311.1170349121094</v>
       </c>
       <c r="BH2" t="n">
-        <v>308.6766052246094</v>
+        <v>309.9083251953125</v>
       </c>
       <c r="BI2" t="n">
-        <v>306.8898620605469</v>
+        <v>307.300048828125</v>
       </c>
       <c r="BJ2" t="n">
-        <v>306.4693908691406</v>
+        <v>304.203369140625</v>
       </c>
       <c r="BK2" t="n">
-        <v>305.5060424804688</v>
+        <v>299.8767395019531</v>
       </c>
       <c r="BL2" t="n">
-        <v>304.656982421875</v>
+        <v>295.9706726074219</v>
       </c>
       <c r="BM2" t="n">
-        <v>303.9822387695312</v>
+        <v>291.656982421875</v>
       </c>
       <c r="BN2" t="n">
-        <v>303.3436889648438</v>
+        <v>287.8370056152344</v>
       </c>
       <c r="BO2" t="n">
-        <v>302.8996276855469</v>
+        <v>280.1627197265625</v>
       </c>
       <c r="BP2" t="n">
-        <v>302.1494445800781</v>
+        <v>276.6036987304688</v>
       </c>
       <c r="BQ2" t="n">
-        <v>302.6831665039062</v>
+        <v>273.5416564941406</v>
       </c>
       <c r="BR2" t="n">
-        <v>302.221435546875</v>
+        <v>270.5604858398438</v>
       </c>
       <c r="BS2" t="n">
-        <v>302.252197265625</v>
+        <v>268.5188293457031</v>
       </c>
       <c r="BT2" t="n">
-        <v>302.1903076171875</v>
+        <v>266.2850341796875</v>
       </c>
       <c r="BU2" t="n">
-        <v>301.6024475097656</v>
+        <v>264.9153137207031</v>
       </c>
       <c r="BV2" t="n">
-        <v>301.113525390625</v>
+        <v>263.4137268066406</v>
       </c>
       <c r="BW2" t="n">
-        <v>300.7101745605469</v>
+        <v>262.6477966308594</v>
       </c>
       <c r="BX2" t="n">
-        <v>301.418701171875</v>
+        <v>262.2552185058594</v>
       </c>
       <c r="BY2" t="n">
-        <v>301.1732177734375</v>
+        <v>262.17724609375</v>
       </c>
       <c r="BZ2" t="n">
-        <v>302.7930297851562</v>
+        <v>262.318603515625</v>
       </c>
       <c r="CA2" t="n">
-        <v>301.8854675292969</v>
+        <v>263.8619079589844</v>
       </c>
       <c r="CB2" t="n">
-        <v>304.0367431640625</v>
+        <v>266.00537109375</v>
       </c>
       <c r="CC2" t="n">
-        <v>301.9308166503906</v>
+        <v>270.4866943359375</v>
       </c>
       <c r="CD2" t="n">
-        <v>303.2324523925781</v>
+        <v>273.1872253417969</v>
       </c>
       <c r="CE2" t="n">
-        <v>303.7900390625</v>
+        <v>279.4435729980469</v>
       </c>
       <c r="CF2" t="n">
-        <v>305.3774108886719</v>
+        <v>283.1434631347656</v>
       </c>
       <c r="CG2" t="n">
-        <v>305.3955993652344</v>
+        <v>285.7237243652344</v>
       </c>
       <c r="CH2" t="n">
-        <v>305.4561462402344</v>
+        <v>292.2364807128906</v>
       </c>
       <c r="CI2" t="n">
-        <v>305.7870788574219</v>
+        <v>296.1177978515625</v>
       </c>
       <c r="CJ2" t="n">
-        <v>305.4827575683594</v>
+        <v>300.185791015625</v>
       </c>
       <c r="CK2" t="n">
-        <v>305.6112670898438</v>
+        <v>303.0440673828125</v>
       </c>
       <c r="CL2" t="n">
-        <v>305.3397521972656</v>
+        <v>306.2315673828125</v>
       </c>
       <c r="CM2" t="n">
-        <v>304.8320922851562</v>
+        <v>309.4992370605469</v>
       </c>
       <c r="CN2" t="n">
-        <v>304.301513671875</v>
+        <v>313.9865417480469</v>
       </c>
       <c r="CO2" t="n">
-        <v>303.1799011230469</v>
+        <v>316.2395629882812</v>
       </c>
       <c r="CP2" t="n">
-        <v>302.4502868652344</v>
+        <v>318.4704284667969</v>
       </c>
       <c r="CQ2" t="n">
-        <v>301.5487976074219</v>
+        <v>320.0475769042969</v>
       </c>
       <c r="CR2" t="n">
-        <v>300.6875305175781</v>
+        <v>321.1570434570312</v>
       </c>
       <c r="CS2" t="n">
-        <v>299.7876586914062</v>
+        <v>322.0132141113281</v>
       </c>
       <c r="CT2" t="n">
-        <v>298.2683715820312</v>
+        <v>322.1107482910156</v>
       </c>
       <c r="CU2" t="n">
-        <v>296.8954467773438</v>
+        <v>322.1248779296875</v>
       </c>
       <c r="CV2" t="n">
-        <v>296.6477355957031</v>
+        <v>321.0430603027344</v>
       </c>
       <c r="CW2" t="n">
-        <v>292.8367614746094</v>
+        <v>318.2848510742188</v>
       </c>
       <c r="CX2" t="n">
-        <v>290.4762573242188</v>
+        <v>312.7799987792969</v>
       </c>
       <c r="CY2" t="n">
-        <v>287.8018188476562</v>
+        <v>309.9899291992188</v>
       </c>
       <c r="CZ2" t="n">
-        <v>286.5572204589844</v>
+        <v>305.2050170898438</v>
       </c>
       <c r="DA2" t="n">
-        <v>283.6361389160156</v>
+        <v>302.9765625</v>
       </c>
       <c r="DB2" t="n">
-        <v>282.2862548828125</v>
+        <v>300.17919921875</v>
       </c>
       <c r="DC2" t="n">
-        <v>281.8193054199219</v>
+        <v>296.1329345703125</v>
       </c>
       <c r="DD2" t="n">
-        <v>280.9644775390625</v>
+        <v>291.7072448730469</v>
       </c>
       <c r="DE2" t="n">
-        <v>281.0698852539062</v>
+        <v>284.3155822753906</v>
       </c>
       <c r="DF2" t="n">
-        <v>280.4074096679688</v>
+        <v>279.179443359375</v>
       </c>
       <c r="DG2" t="n">
-        <v>281.1439514160156</v>
+        <v>276.1193542480469</v>
       </c>
       <c r="DH2" t="n">
-        <v>282.3204040527344</v>
+        <v>270.8378295898438</v>
       </c>
       <c r="DI2" t="n">
-        <v>281.2875366210938</v>
+        <v>268.3846435546875</v>
       </c>
       <c r="DJ2" t="n">
-        <v>281.375732421875</v>
+        <v>265.2395324707031</v>
       </c>
       <c r="DK2" t="n">
-        <v>283.3700561523438</v>
+        <v>262.8114013671875</v>
       </c>
       <c r="DL2" t="n">
-        <v>285.8879089355469</v>
+        <v>261.621826171875</v>
       </c>
       <c r="DM2" t="n">
-        <v>288.1639404296875</v>
+        <v>260.5389404296875</v>
       </c>
       <c r="DN2" t="n">
-        <v>290.6956787109375</v>
+        <v>259.5138549804688</v>
       </c>
       <c r="DO2" t="n">
-        <v>297.0029602050781</v>
+        <v>258.5855102539062</v>
       </c>
       <c r="DP2" t="n">
-        <v>298.9681091308594</v>
+        <v>257.9718933105469</v>
       </c>
       <c r="DQ2" t="n">
-        <v>300.9088439941406</v>
+        <v>257.2879943847656</v>
       </c>
       <c r="DR2" t="n">
-        <v>302.8741149902344</v>
+        <v>257.1056518554688</v>
       </c>
       <c r="DS2" t="n">
-        <v>308.8817749023438</v>
+        <v>257.1200866699219</v>
       </c>
       <c r="DT2" t="n">
-        <v>312.1992492675781</v>
+        <v>257.7393188476562</v>
       </c>
       <c r="DU2" t="n">
-        <v>316.0635681152344</v>
+        <v>259.0778503417969</v>
       </c>
       <c r="DV2" t="n">
-        <v>320.024169921875</v>
+        <v>260.1361694335938</v>
       </c>
       <c r="DW2" t="n">
-        <v>323.7614135742188</v>
+        <v>266.4501647949219</v>
       </c>
       <c r="DX2" t="n">
-        <v>322.5966796875</v>
+        <v>270.3214416503906</v>
       </c>
       <c r="DY2" t="n">
-        <v>324.4540710449219</v>
+        <v>274.907470703125</v>
       </c>
       <c r="DZ2" t="n">
-        <v>326.2528076171875</v>
+        <v>282.6063232421875</v>
       </c>
       <c r="EA2" t="n">
-        <v>326.1483154296875</v>
+        <v>286.4896240234375</v>
       </c>
       <c r="EB2" t="n">
-        <v>326.8123168945312</v>
+        <v>298.5017395019531</v>
       </c>
       <c r="EC2" t="n">
-        <v>326.4429321289062</v>
+        <v>305.4405822753906</v>
       </c>
       <c r="ED2" t="n">
-        <v>325.623779296875</v>
+        <v>312.9609680175781</v>
       </c>
       <c r="EE2" t="n">
-        <v>326.4276733398438</v>
+        <v>323.53955078125</v>
       </c>
       <c r="EF2" t="n">
-        <v>326.4925842285156</v>
+        <v>339.40966796875</v>
       </c>
       <c r="EG2" t="n">
-        <v>324.2793579101562</v>
+        <v>352.2982177734375</v>
       </c>
       <c r="EH2" t="n">
-        <v>320.984375</v>
+        <v>359.2647705078125</v>
       </c>
       <c r="EI2" t="n">
-        <v>319.2396240234375</v>
+        <v>371.1799926757812</v>
       </c>
       <c r="EJ2" t="n">
-        <v>316.4151306152344</v>
+        <v>376.2479248046875</v>
       </c>
       <c r="EK2" t="n">
-        <v>314.4629516601562</v>
+        <v>384.119873046875</v>
       </c>
       <c r="EL2" t="n">
-        <v>310.8537292480469</v>
+        <v>387.4730224609375</v>
       </c>
       <c r="EM2" t="n">
-        <v>305.4450378417969</v>
+        <v>392.4283142089844</v>
       </c>
       <c r="EN2" t="n">
-        <v>302.4367065429688</v>
+        <v>394.926025390625</v>
       </c>
       <c r="EO2" t="n">
-        <v>298.6679992675781</v>
+        <v>398.437255859375</v>
       </c>
       <c r="EP2" t="n">
-        <v>298.3783264160156</v>
+        <v>401.1470336914062</v>
       </c>
       <c r="EQ2" t="n">
-        <v>298.0831604003906</v>
+        <v>404.6065673828125</v>
       </c>
       <c r="ER2" t="n">
-        <v>296.7934265136719</v>
+        <v>405.1367492675781</v>
       </c>
       <c r="ES2" t="n">
-        <v>295.9417724609375</v>
+        <v>406.1065063476562</v>
       </c>
       <c r="ET2" t="n">
-        <v>295.9698181152344</v>
+        <v>408.4265441894531</v>
       </c>
       <c r="EU2" t="n">
-        <v>295.9375610351562</v>
+        <v>410.0777893066406</v>
       </c>
       <c r="EV2" t="n">
-        <v>295.7787170410156</v>
+        <v>410.9669799804688</v>
       </c>
       <c r="EW2" t="n">
-        <v>295.7539672851562</v>
+        <v>411.880615234375</v>
       </c>
       <c r="EX2" t="n">
-        <v>295.4191284179688</v>
+        <v>414.0920715332031</v>
       </c>
       <c r="EY2" t="n">
-        <v>295.9189147949219</v>
+        <v>414.8292846679688</v>
       </c>
       <c r="EZ2" t="n">
-        <v>296.9344482421875</v>
+        <v>415.9398803710938</v>
       </c>
       <c r="FA2" t="n">
-        <v>299.8312683105469</v>
+        <v>417.754150390625</v>
       </c>
       <c r="FB2" t="n">
-        <v>300.8659057617188</v>
+        <v>418.8821105957031</v>
       </c>
       <c r="FC2" t="n">
-        <v>302.6470947265625</v>
+        <v>417.2537231445312</v>
       </c>
       <c r="FD2" t="n">
-        <v>303.3775634765625</v>
+        <v>415.3934326171875</v>
       </c>
       <c r="FE2" t="n">
-        <v>303.5141296386719</v>
+        <v>415.13623046875</v>
       </c>
       <c r="FF2" t="n">
-        <v>304.3402404785156</v>
+        <v>415.2244567871094</v>
       </c>
       <c r="FG2" t="n">
-        <v>305.3119506835938</v>
+        <v>414.576416015625</v>
       </c>
       <c r="FH2" t="n">
-        <v>305.111328125</v>
+        <v>414.0543823242188</v>
       </c>
       <c r="FI2" t="n">
-        <v>304.6559448242188</v>
+        <v>413.1590270996094</v>
       </c>
       <c r="FJ2" t="n">
-        <v>304.8046264648438</v>
+        <v>412.4618835449219</v>
       </c>
       <c r="FK2" t="n">
-        <v>304.4619445800781</v>
+        <v>412.1932373046875</v>
       </c>
       <c r="FL2" t="n">
-        <v>301.9808959960938</v>
+        <v>411.4359741210938</v>
       </c>
       <c r="FM2" t="n">
-        <v>300.9801940917969</v>
+        <v>410.5862121582031</v>
       </c>
       <c r="FN2" t="n">
-        <v>298.8912658691406</v>
+        <v>409.9797058105469</v>
       </c>
       <c r="FO2" t="n">
-        <v>297.3561401367188</v>
+        <v>409.406494140625</v>
       </c>
       <c r="FP2" t="n">
-        <v>291.3330688476562</v>
+        <v>407.0389404296875</v>
       </c>
       <c r="FQ2" t="n">
-        <v>288.4403686523438</v>
+        <v>403.9187622070312</v>
       </c>
       <c r="FR2" t="n">
-        <v>284.3346557617188</v>
+        <v>401.0149841308594</v>
       </c>
       <c r="FS2" t="n">
-        <v>283.0220642089844</v>
+        <v>397.4500732421875</v>
       </c>
       <c r="FT2" t="n">
-        <v>281.253662109375</v>
+        <v>393.5416259765625</v>
       </c>
       <c r="FU2" t="n">
-        <v>283.8258666992188</v>
+        <v>390.9161682128906</v>
       </c>
       <c r="FV2" t="n">
-        <v>285.5729675292969</v>
+        <v>383.3736572265625</v>
       </c>
       <c r="FW2" t="n">
-        <v>283.6638793945312</v>
+        <v>376.8029174804688</v>
       </c>
       <c r="FX2" t="n">
-        <v>282.848876953125</v>
+        <v>374.6465454101562</v>
       </c>
       <c r="FY2" t="n">
-        <v>282.6169738769531</v>
+        <v>373.3453369140625</v>
       </c>
       <c r="FZ2" t="n">
-        <v>281.2881774902344</v>
+        <v>368.5789794921875</v>
       </c>
       <c r="GA2" t="n">
-        <v>280.4354553222656</v>
+        <v>367.0011596679688</v>
       </c>
       <c r="GB2" t="n">
-        <v>280.6636657714844</v>
+        <v>363.62109375</v>
       </c>
       <c r="GC2" t="n">
-        <v>280.6964721679688</v>
+        <v>362.831298828125</v>
       </c>
       <c r="GD2" t="n">
-        <v>280.7114868164062</v>
+        <v>362.1856079101562</v>
       </c>
       <c r="GE2" t="n">
-        <v>282.3221435546875</v>
+        <v>362.0079956054688</v>
       </c>
       <c r="GF2" t="n">
-        <v>281.2210998535156</v>
+        <v>361.4812622070312</v>
       </c>
       <c r="GG2" t="n">
-        <v>281.2809753417969</v>
+        <v>362.1558837890625</v>
       </c>
       <c r="GH2" t="n">
-        <v>281.3504943847656</v>
+        <v>363.0870971679688</v>
       </c>
       <c r="GI2" t="n">
-        <v>281.9485473632812</v>
+        <v>363.4954223632812</v>
       </c>
       <c r="GJ2" t="n">
-        <v>284.7248229980469</v>
+        <v>362.1578979492188</v>
       </c>
       <c r="GK2" t="n">
-        <v>287.6186828613281</v>
+        <v>360.78515625</v>
       </c>
       <c r="GL2" t="n">
-        <v>285.4519958496094</v>
+        <v>357.0036315917969</v>
       </c>
       <c r="GM2" t="n">
-        <v>285.255126953125</v>
+        <v>353.051025390625</v>
       </c>
       <c r="GN2" t="n">
-        <v>284.6078491210938</v>
+        <v>350.3662719726562</v>
       </c>
       <c r="GO2" t="n">
-        <v>282.4614562988281</v>
+        <v>344.5040893554688</v>
       </c>
       <c r="GP2" t="n">
-        <v>280.5364685058594</v>
+        <v>337.767578125</v>
       </c>
       <c r="GQ2" t="n">
-        <v>279.2770385742188</v>
+        <v>327.3454284667969</v>
       </c>
       <c r="GR2" t="n">
-        <v>277.7801513671875</v>
+        <v>320.731689453125</v>
       </c>
       <c r="GS2" t="n">
-        <v>275.683837890625</v>
+        <v>314.7628173828125</v>
       </c>
       <c r="GT2" t="n">
-        <v>274.8607482910156</v>
+        <v>312.69873046875</v>
       </c>
       <c r="GU2" t="n">
-        <v>271.5092163085938</v>
+        <v>306.5317077636719</v>
       </c>
       <c r="GV2" t="n">
-        <v>268.0533752441406</v>
+        <v>303.3493041992188</v>
       </c>
       <c r="GW2" t="n">
-        <v>264.9988403320312</v>
+        <v>301.8019714355469</v>
       </c>
       <c r="GX2" t="n">
-        <v>262.4387512207031</v>
+        <v>299.53515625</v>
       </c>
       <c r="GY2" t="n">
-        <v>260.6675720214844</v>
+        <v>297.6904602050781</v>
       </c>
       <c r="GZ2" t="n">
-        <v>258.2163696289062</v>
+        <v>297.0511779785156</v>
       </c>
       <c r="HA2" t="n">
-        <v>256.3137512207031</v>
+        <v>296.60009765625</v>
       </c>
       <c r="HB2" t="n">
-        <v>255.0083160400391</v>
+        <v>296.2110595703125</v>
       </c>
       <c r="HC2" t="n">
-        <v>254.0840759277344</v>
+        <v>296.3565368652344</v>
       </c>
       <c r="HD2" t="n">
-        <v>254.9523162841797</v>
+        <v>296.4443054199219</v>
       </c>
       <c r="HE2" t="n">
-        <v>255.0889892578125</v>
+        <v>296.6687622070312</v>
       </c>
       <c r="HF2" t="n">
-        <v>254.4728851318359</v>
+        <v>297.9688110351562</v>
       </c>
       <c r="HG2" t="n">
-        <v>253.5491638183594</v>
+        <v>301.2462463378906</v>
       </c>
       <c r="HH2" t="n">
-        <v>251.1637878417969</v>
+        <v>302.8489074707031</v>
       </c>
       <c r="HI2" t="n">
-        <v>247.3826599121094</v>
+        <v>304.7725219726562</v>
       </c>
       <c r="HJ2" t="n">
-        <v>243.2522888183594</v>
+        <v>308.884765625</v>
       </c>
       <c r="HK2" t="n">
-        <v>235.4627227783203</v>
+        <v>316.8988342285156</v>
       </c>
       <c r="HL2" t="n">
-        <v>224.4993896484375</v>
+        <v>325.4210815429688</v>
       </c>
       <c r="HM2" t="n">
-        <v>213.567138671875</v>
+        <v>332.3182373046875</v>
       </c>
       <c r="HN2" t="n">
-        <v>200.0202178955078</v>
+        <v>342.330078125</v>
       </c>
       <c r="HO2" t="n">
-        <v>193.4675903320312</v>
+        <v>357.4907836914062</v>
       </c>
       <c r="HP2" t="n">
-        <v>187.572265625</v>
+        <v>366.0474243164062</v>
       </c>
       <c r="HQ2" t="n">
-        <v>181.3197631835938</v>
+        <v>370.4132690429688</v>
       </c>
       <c r="HR2" t="n">
-        <v>177.25341796875</v>
+        <v>382.9276733398438</v>
       </c>
       <c r="HS2" t="n">
-        <v>171.8237609863281</v>
+        <v>388.52197265625</v>
       </c>
       <c r="HT2" t="n">
-        <v>166.3473815917969</v>
+        <v>393.2754211425781</v>
       </c>
       <c r="HU2" t="n">
-        <v>161.57080078125</v>
+        <v>396.8210144042969</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>400.5627136230469</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>403.5583801269531</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>407.0071716308594</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>408.1547241210938</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>409.3335571289062</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>409.86669921875</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>409.7010498046875</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>409.2908020019531</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>407.0038452148438</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>403.9743347167969</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>400.6279907226562</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>397.5006713867188</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>390.443603515625</v>
+      </c>
+      <c r="II2" t="n">
+        <v>384.68115234375</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>377.024169921875</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>364.459716796875</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>359.4771118164062</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>350.2670593261719</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>335.8574829101562</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>329.7203369140625</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>326.6800537109375</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>316.362060546875</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>310.1337585449219</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>308.6090087890625</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>302.6751098632812</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>299.7713928222656</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>299.0284118652344</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>299.2428283691406</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>298.362548828125</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>298.5507202148438</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>299.0482177734375</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>301.3555908203125</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>304.4440002441406</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>309.0496215820312</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>312.734130859375</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>320.6829223632812</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>326.91455078125</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>334.7522277832031</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>341.9085388183594</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>346.6048583984375</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>351.0675659179688</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>357.211669921875</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>363.7654418945312</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>367.7967834472656</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>371.7610473632812</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>375.7841491699219</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>377.7514343261719</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>379.5690307617188</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>381.0428161621094</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>382.662109375</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>384.2083129882812</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>385.012451171875</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>385.4741821289062</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>385.7206420898438</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>385.9936828613281</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>386.0401000976562</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>386.1855773925781</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>386.1605224609375</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>386.1367797851562</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>386.0987548828125</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>385.2667846679688</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>384.7549133300781</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>384.7364501953125</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>384.5832824707031</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>384.3434448242188</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>384.0257568359375</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>383.6287231445312</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>383.3661499023438</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>383.1029968261719</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>383.0528564453125</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>383.1151733398438</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>383.193359375</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>383.68603515625</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>384.9546813964844</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>385.8676147460938</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>386.4526672363281</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>386.6748352050781</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>386.8394775390625</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>387.1825866699219</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>387.24462890625</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>387.5015869140625</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>387.8153991699219</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>388.2743530273438</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>389.5005798339844</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>390.6920166015625</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>391.064697265625</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>392.30078125</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>393.4204406738281</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>394.4990539550781</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>395.9283447265625</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>397.6453247070312</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>401.5397644042969</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>403.4205322265625</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>405.877197265625</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>408.0615234375</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>406.9812316894531</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>408.45361328125</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>407.7840881347656</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>412.6400451660156</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>416.0562744140625</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>417.7908020019531</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>419.4293823242188</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>423.9493408203125</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>423.7999877929688</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>422.9768676757812</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>411.9369201660156</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>405.6421203613281</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>393.6398620605469</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>383.016845703125</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>357.09375</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>335.7324829101562</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>317.5265808105469</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>294.6690979003906</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>275.734130859375</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>264.8985290527344</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>261.3684692382812</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>261.2856140136719</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>265.9720458984375</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>276.1330871582031</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>289.1268920898438</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>303.1277160644531</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>314.7255554199219</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>322.986083984375</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>327.7869262695312</v>
+      </c>
+      <c r="MP2" t="n">
+        <v>330.04248046875</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>330.4741821289062</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>323.9077758789062</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>317.6264038085938</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>305.8760681152344</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>314.7727966308594</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>301.6565246582031</v>
+      </c>
+      <c r="MW2" t="n">
+        <v>282.0534057617188</v>
+      </c>
+      <c r="MX2" t="n">
+        <v>277.8780517578125</v>
+      </c>
+      <c r="MY2" t="n">
+        <v>272.9063110351562</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>269.6856994628906</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>263.2101135253906</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>263.0846252441406</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>263.9120483398438</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>265.7249145507812</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>272.1659240722656</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>279.0957946777344</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>285.1251525878906</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>288.0828857421875</v>
+      </c>
+      <c r="NI2" t="n">
+        <v>289.5184936523438</v>
+      </c>
+      <c r="NJ2" t="n">
+        <v>289.7688598632812</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>289.9174499511719</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>289.7631225585938</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>289.5580749511719</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>175.4131164550781</v>
+        <v>185.4189910888672</v>
       </c>
       <c r="B3" t="n">
-        <v>178.4582366943359</v>
+        <v>189.6234436035156</v>
       </c>
       <c r="C3" t="n">
-        <v>174.3936004638672</v>
+        <v>187.0162353515625</v>
       </c>
       <c r="D3" t="n">
-        <v>175.7574615478516</v>
+        <v>186.9100036621094</v>
       </c>
       <c r="E3" t="n">
-        <v>176.4299011230469</v>
+        <v>188.7848052978516</v>
       </c>
       <c r="F3" t="n">
-        <v>178.3832855224609</v>
+        <v>189.4958648681641</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1888732910156</v>
+        <v>188.2778472900391</v>
       </c>
       <c r="H3" t="n">
-        <v>187.1136016845703</v>
+        <v>191.8733520507812</v>
       </c>
       <c r="I3" t="n">
-        <v>194.3784942626953</v>
+        <v>194.4323577880859</v>
       </c>
       <c r="J3" t="n">
-        <v>196.4570159912109</v>
+        <v>196.9090881347656</v>
       </c>
       <c r="K3" t="n">
-        <v>206.9364776611328</v>
+        <v>197.4113311767578</v>
       </c>
       <c r="L3" t="n">
-        <v>207.2290649414062</v>
+        <v>193.7893218994141</v>
       </c>
       <c r="M3" t="n">
-        <v>211.9649353027344</v>
+        <v>193.8808898925781</v>
       </c>
       <c r="N3" t="n">
-        <v>208.4349975585938</v>
+        <v>188.4712219238281</v>
       </c>
       <c r="O3" t="n">
-        <v>191.55224609375</v>
+        <v>192.0850067138672</v>
       </c>
       <c r="P3" t="n">
-        <v>188.0120239257812</v>
+        <v>189.6787261962891</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.6834411621094</v>
+        <v>190.1407165527344</v>
       </c>
       <c r="R3" t="n">
-        <v>181.6075744628906</v>
+        <v>190.6615295410156</v>
       </c>
       <c r="S3" t="n">
-        <v>179.9980316162109</v>
+        <v>191.4338226318359</v>
       </c>
       <c r="T3" t="n">
-        <v>180.6142120361328</v>
+        <v>191.9545135498047</v>
       </c>
       <c r="U3" t="n">
-        <v>182.2875366210938</v>
+        <v>192.4747009277344</v>
       </c>
       <c r="V3" t="n">
-        <v>184.9386749267578</v>
+        <v>195.9132843017578</v>
       </c>
       <c r="W3" t="n">
-        <v>188.0852661132812</v>
+        <v>198.6081848144531</v>
       </c>
       <c r="X3" t="n">
-        <v>190.971923828125</v>
+        <v>201.2434997558594</v>
       </c>
       <c r="Y3" t="n">
-        <v>194.9537811279297</v>
+        <v>206.8321533203125</v>
       </c>
       <c r="Z3" t="n">
-        <v>197.4819183349609</v>
+        <v>210.8808288574219</v>
       </c>
       <c r="AA3" t="n">
-        <v>201.8858184814453</v>
+        <v>211.8052673339844</v>
       </c>
       <c r="AB3" t="n">
-        <v>203.3242645263672</v>
+        <v>214.4714202880859</v>
       </c>
       <c r="AC3" t="n">
-        <v>204.6553955078125</v>
+        <v>215.5455627441406</v>
       </c>
       <c r="AD3" t="n">
-        <v>205.5594787597656</v>
+        <v>217.3581848144531</v>
       </c>
       <c r="AE3" t="n">
-        <v>205.984619140625</v>
+        <v>218.6736145019531</v>
       </c>
       <c r="AF3" t="n">
-        <v>202.9041290283203</v>
+        <v>219.4910278320312</v>
       </c>
       <c r="AG3" t="n">
-        <v>201.5462951660156</v>
+        <v>219.3777770996094</v>
       </c>
       <c r="AH3" t="n">
-        <v>200.2226104736328</v>
+        <v>219.7249755859375</v>
       </c>
       <c r="AI3" t="n">
-        <v>200.0399932861328</v>
+        <v>218.6164398193359</v>
       </c>
       <c r="AJ3" t="n">
-        <v>199.7125701904297</v>
+        <v>218.34130859375</v>
       </c>
       <c r="AK3" t="n">
-        <v>200.4987640380859</v>
+        <v>218.0619201660156</v>
       </c>
       <c r="AL3" t="n">
-        <v>201.9689178466797</v>
+        <v>217.8848724365234</v>
       </c>
       <c r="AM3" t="n">
-        <v>203.3194580078125</v>
+        <v>217.7215423583984</v>
       </c>
       <c r="AN3" t="n">
-        <v>204.4478149414062</v>
+        <v>218.6351928710938</v>
       </c>
       <c r="AO3" t="n">
-        <v>206.5078887939453</v>
+        <v>219.3087921142578</v>
       </c>
       <c r="AP3" t="n">
-        <v>207.3927001953125</v>
+        <v>220.0402221679688</v>
       </c>
       <c r="AQ3" t="n">
-        <v>208.5413818359375</v>
+        <v>220.6598510742188</v>
       </c>
       <c r="AR3" t="n">
-        <v>209.8360595703125</v>
+        <v>221.1197814941406</v>
       </c>
       <c r="AS3" t="n">
-        <v>211.278076171875</v>
+        <v>220.7163238525391</v>
       </c>
       <c r="AT3" t="n">
-        <v>211.8111267089844</v>
+        <v>220.2248229980469</v>
       </c>
       <c r="AU3" t="n">
-        <v>211.9322509765625</v>
+        <v>220.5164642333984</v>
       </c>
       <c r="AV3" t="n">
-        <v>211.7420043945312</v>
+        <v>220.6686859130859</v>
       </c>
       <c r="AW3" t="n">
-        <v>210.4900207519531</v>
+        <v>220.4637756347656</v>
       </c>
       <c r="AX3" t="n">
-        <v>210.3147735595703</v>
+        <v>219.8851318359375</v>
       </c>
       <c r="AY3" t="n">
-        <v>207.9163055419922</v>
+        <v>219.3956146240234</v>
       </c>
       <c r="AZ3" t="n">
-        <v>206.9147033691406</v>
+        <v>218.9366760253906</v>
       </c>
       <c r="BA3" t="n">
-        <v>207.2316131591797</v>
+        <v>218.8124542236328</v>
       </c>
       <c r="BB3" t="n">
-        <v>207.5138397216797</v>
+        <v>217.372314453125</v>
       </c>
       <c r="BC3" t="n">
-        <v>207.8077239990234</v>
+        <v>215.4975891113281</v>
       </c>
       <c r="BD3" t="n">
-        <v>210.9023590087891</v>
+        <v>214.8468322753906</v>
       </c>
       <c r="BE3" t="n">
-        <v>211.6951751708984</v>
+        <v>214.2362213134766</v>
       </c>
       <c r="BF3" t="n">
-        <v>212.1356964111328</v>
+        <v>212.9974365234375</v>
       </c>
       <c r="BG3" t="n">
-        <v>213.1574401855469</v>
+        <v>211.2291107177734</v>
       </c>
       <c r="BH3" t="n">
-        <v>214.8762359619141</v>
+        <v>209.2179565429688</v>
       </c>
       <c r="BI3" t="n">
-        <v>215.3285675048828</v>
+        <v>207.2316284179688</v>
       </c>
       <c r="BJ3" t="n">
-        <v>216.5419769287109</v>
+        <v>205.8344421386719</v>
       </c>
       <c r="BK3" t="n">
-        <v>216.7373504638672</v>
+        <v>205.0100250244141</v>
       </c>
       <c r="BL3" t="n">
-        <v>216.2986907958984</v>
+        <v>205.240966796875</v>
       </c>
       <c r="BM3" t="n">
-        <v>216.3590850830078</v>
+        <v>204.6784362792969</v>
       </c>
       <c r="BN3" t="n">
-        <v>216.2841491699219</v>
+        <v>204.1246032714844</v>
       </c>
       <c r="BO3" t="n">
-        <v>216.2831573486328</v>
+        <v>201.1545715332031</v>
       </c>
       <c r="BP3" t="n">
-        <v>215.0109405517578</v>
+        <v>199.8846130371094</v>
       </c>
       <c r="BQ3" t="n">
-        <v>214.0146484375</v>
+        <v>199.4029083251953</v>
       </c>
       <c r="BR3" t="n">
-        <v>213.2211608886719</v>
+        <v>198.6355133056641</v>
       </c>
       <c r="BS3" t="n">
-        <v>213.1317443847656</v>
+        <v>198.3183441162109</v>
       </c>
       <c r="BT3" t="n">
-        <v>213.4674835205078</v>
+        <v>197.5675964355469</v>
       </c>
       <c r="BU3" t="n">
-        <v>214.2505950927734</v>
+        <v>197.4293212890625</v>
       </c>
       <c r="BV3" t="n">
-        <v>214.6499786376953</v>
+        <v>197.0867462158203</v>
       </c>
       <c r="BW3" t="n">
-        <v>214.3980255126953</v>
+        <v>197.1547393798828</v>
       </c>
       <c r="BX3" t="n">
-        <v>215.1117401123047</v>
+        <v>197.0875854492188</v>
       </c>
       <c r="BY3" t="n">
-        <v>214.5483245849609</v>
+        <v>196.2456359863281</v>
       </c>
       <c r="BZ3" t="n">
-        <v>218.2375946044922</v>
+        <v>196.0674896240234</v>
       </c>
       <c r="CA3" t="n">
-        <v>219.2573852539062</v>
+        <v>196.2440032958984</v>
       </c>
       <c r="CB3" t="n">
-        <v>219.2782897949219</v>
+        <v>196.1027069091797</v>
       </c>
       <c r="CC3" t="n">
-        <v>220.5160217285156</v>
+        <v>196.5677490234375</v>
       </c>
       <c r="CD3" t="n">
-        <v>220.8538665771484</v>
+        <v>195.6584014892578</v>
       </c>
       <c r="CE3" t="n">
-        <v>221.1190338134766</v>
+        <v>195.6907958984375</v>
       </c>
       <c r="CF3" t="n">
-        <v>220.9293212890625</v>
+        <v>195.9335784912109</v>
       </c>
       <c r="CG3" t="n">
-        <v>219.8677978515625</v>
+        <v>195.5201416015625</v>
       </c>
       <c r="CH3" t="n">
-        <v>218.4803314208984</v>
+        <v>196.5138244628906</v>
       </c>
       <c r="CI3" t="n">
-        <v>218.4712066650391</v>
+        <v>194.5951080322266</v>
       </c>
       <c r="CJ3" t="n">
-        <v>217.7557983398438</v>
+        <v>194.7482452392578</v>
       </c>
       <c r="CK3" t="n">
-        <v>217.5599365234375</v>
+        <v>194.6635437011719</v>
       </c>
       <c r="CL3" t="n">
-        <v>217.5833587646484</v>
+        <v>195.1052398681641</v>
       </c>
       <c r="CM3" t="n">
-        <v>217.7931213378906</v>
+        <v>195.0545349121094</v>
       </c>
       <c r="CN3" t="n">
-        <v>217.9743804931641</v>
+        <v>194.2543640136719</v>
       </c>
       <c r="CO3" t="n">
-        <v>217.9489288330078</v>
+        <v>194.4481048583984</v>
       </c>
       <c r="CP3" t="n">
-        <v>218.0337829589844</v>
+        <v>194.6336517333984</v>
       </c>
       <c r="CQ3" t="n">
-        <v>218.8183288574219</v>
+        <v>194.3313598632812</v>
       </c>
       <c r="CR3" t="n">
-        <v>219.0396270751953</v>
+        <v>193.9227447509766</v>
       </c>
       <c r="CS3" t="n">
-        <v>218.8634490966797</v>
+        <v>193.2817993164062</v>
       </c>
       <c r="CT3" t="n">
-        <v>217.4866790771484</v>
+        <v>192.946044921875</v>
       </c>
       <c r="CU3" t="n">
-        <v>217.6726837158203</v>
+        <v>192.8031463623047</v>
       </c>
       <c r="CV3" t="n">
-        <v>221.4841156005859</v>
+        <v>192.0195617675781</v>
       </c>
       <c r="CW3" t="n">
-        <v>219.7454071044922</v>
+        <v>192.3839874267578</v>
       </c>
       <c r="CX3" t="n">
-        <v>217.4258422851562</v>
+        <v>191.9401397705078</v>
       </c>
       <c r="CY3" t="n">
-        <v>217.2458190917969</v>
+        <v>190.6193542480469</v>
       </c>
       <c r="CZ3" t="n">
-        <v>219.5518951416016</v>
+        <v>188.4882659912109</v>
       </c>
       <c r="DA3" t="n">
-        <v>217.8838806152344</v>
+        <v>188.5311126708984</v>
       </c>
       <c r="DB3" t="n">
-        <v>218.6269378662109</v>
+        <v>188.1377105712891</v>
       </c>
       <c r="DC3" t="n">
-        <v>219.4138793945312</v>
+        <v>188.0555725097656</v>
       </c>
       <c r="DD3" t="n">
-        <v>219.3629760742188</v>
+        <v>188.5256042480469</v>
       </c>
       <c r="DE3" t="n">
-        <v>219.7913360595703</v>
+        <v>188.6702575683594</v>
       </c>
       <c r="DF3" t="n">
-        <v>218.7516326904297</v>
+        <v>189.3279876708984</v>
       </c>
       <c r="DG3" t="n">
-        <v>220.7812194824219</v>
+        <v>189.1880493164062</v>
       </c>
       <c r="DH3" t="n">
-        <v>223.1507720947266</v>
+        <v>190.4356079101562</v>
       </c>
       <c r="DI3" t="n">
-        <v>223.7071380615234</v>
+        <v>190.8549652099609</v>
       </c>
       <c r="DJ3" t="n">
-        <v>223.1455688476562</v>
+        <v>191.3810272216797</v>
       </c>
       <c r="DK3" t="n">
-        <v>221.4317474365234</v>
+        <v>192.2796478271484</v>
       </c>
       <c r="DL3" t="n">
-        <v>221.0034027099609</v>
+        <v>192.6197509765625</v>
       </c>
       <c r="DM3" t="n">
-        <v>220.7574615478516</v>
+        <v>193.0314483642578</v>
       </c>
       <c r="DN3" t="n">
-        <v>220.8902587890625</v>
+        <v>193.4947052001953</v>
       </c>
       <c r="DO3" t="n">
-        <v>223.8677673339844</v>
+        <v>194.1680908203125</v>
       </c>
       <c r="DP3" t="n">
-        <v>224.6173553466797</v>
+        <v>194.7924652099609</v>
       </c>
       <c r="DQ3" t="n">
-        <v>223.5665588378906</v>
+        <v>195.6297454833984</v>
       </c>
       <c r="DR3" t="n">
-        <v>221.5194396972656</v>
+        <v>196.1014862060547</v>
       </c>
       <c r="DS3" t="n">
-        <v>219.7164001464844</v>
+        <v>196.5155334472656</v>
       </c>
       <c r="DT3" t="n">
-        <v>219.5108032226562</v>
+        <v>197.9729461669922</v>
       </c>
       <c r="DU3" t="n">
-        <v>215.5475158691406</v>
+        <v>200.1017456054688</v>
       </c>
       <c r="DV3" t="n">
-        <v>217.3705291748047</v>
+        <v>201.8211059570312</v>
       </c>
       <c r="DW3" t="n">
-        <v>219.1447143554688</v>
+        <v>203.033203125</v>
       </c>
       <c r="DX3" t="n">
-        <v>213.9382934570312</v>
+        <v>202.2171173095703</v>
       </c>
       <c r="DY3" t="n">
-        <v>214.3193054199219</v>
+        <v>203.5059814453125</v>
       </c>
       <c r="DZ3" t="n">
-        <v>214.8618621826172</v>
+        <v>206.1030120849609</v>
       </c>
       <c r="EA3" t="n">
-        <v>214.3327178955078</v>
+        <v>207.7569885253906</v>
       </c>
       <c r="EB3" t="n">
-        <v>215.2506866455078</v>
+        <v>210.9248352050781</v>
       </c>
       <c r="EC3" t="n">
-        <v>215.077880859375</v>
+        <v>212.2212677001953</v>
       </c>
       <c r="ED3" t="n">
-        <v>213.4356689453125</v>
+        <v>215.6688995361328</v>
       </c>
       <c r="EE3" t="n">
-        <v>214.5826721191406</v>
+        <v>218.643310546875</v>
       </c>
       <c r="EF3" t="n">
-        <v>214.6893157958984</v>
+        <v>224.7669067382812</v>
       </c>
       <c r="EG3" t="n">
-        <v>213.6657104492188</v>
+        <v>226.516845703125</v>
       </c>
       <c r="EH3" t="n">
-        <v>214.0479125976562</v>
+        <v>227.2164611816406</v>
       </c>
       <c r="EI3" t="n">
-        <v>214.3297271728516</v>
+        <v>229.3562622070312</v>
       </c>
       <c r="EJ3" t="n">
-        <v>215.7999420166016</v>
+        <v>228.61328125</v>
       </c>
       <c r="EK3" t="n">
-        <v>216.5512237548828</v>
+        <v>226.9114074707031</v>
       </c>
       <c r="EL3" t="n">
-        <v>217.0558624267578</v>
+        <v>226.7781219482422</v>
       </c>
       <c r="EM3" t="n">
-        <v>220.2064819335938</v>
+        <v>226.1351318359375</v>
       </c>
       <c r="EN3" t="n">
-        <v>220.9049072265625</v>
+        <v>226.482666015625</v>
       </c>
       <c r="EO3" t="n">
-        <v>218.7923278808594</v>
+        <v>227.1790008544922</v>
       </c>
       <c r="EP3" t="n">
-        <v>217.1623992919922</v>
+        <v>228.1978607177734</v>
       </c>
       <c r="EQ3" t="n">
-        <v>219.2713317871094</v>
+        <v>231.7916412353516</v>
       </c>
       <c r="ER3" t="n">
-        <v>216.9883575439453</v>
+        <v>232.0304412841797</v>
       </c>
       <c r="ES3" t="n">
-        <v>216.5666656494141</v>
+        <v>234.7913665771484</v>
       </c>
       <c r="ET3" t="n">
-        <v>216.839599609375</v>
+        <v>238.6689453125</v>
       </c>
       <c r="EU3" t="n">
-        <v>216.6439971923828</v>
+        <v>240.0840606689453</v>
       </c>
       <c r="EV3" t="n">
-        <v>216.2599029541016</v>
+        <v>239.4670257568359</v>
       </c>
       <c r="EW3" t="n">
-        <v>216.2060394287109</v>
+        <v>240.3343048095703</v>
       </c>
       <c r="EX3" t="n">
-        <v>216.6263885498047</v>
+        <v>242.8916625976562</v>
       </c>
       <c r="EY3" t="n">
-        <v>216.9487152099609</v>
+        <v>242.7183990478516</v>
       </c>
       <c r="EZ3" t="n">
-        <v>218.3000335693359</v>
+        <v>242.5665130615234</v>
       </c>
       <c r="FA3" t="n">
-        <v>223.5869140625</v>
+        <v>244.4284362792969</v>
       </c>
       <c r="FB3" t="n">
-        <v>223.5165405273438</v>
+        <v>247.1864624023438</v>
       </c>
       <c r="FC3" t="n">
-        <v>218.3354339599609</v>
+        <v>248.0537567138672</v>
       </c>
       <c r="FD3" t="n">
-        <v>218.5980072021484</v>
+        <v>249.3363494873047</v>
       </c>
       <c r="FE3" t="n">
-        <v>217.6739807128906</v>
+        <v>249.5549621582031</v>
       </c>
       <c r="FF3" t="n">
-        <v>218.2021942138672</v>
+        <v>250.5488433837891</v>
       </c>
       <c r="FG3" t="n">
-        <v>217.5881958007812</v>
+        <v>253.5259094238281</v>
       </c>
       <c r="FH3" t="n">
-        <v>218.5804748535156</v>
+        <v>254.8506469726562</v>
       </c>
       <c r="FI3" t="n">
-        <v>218.1135559082031</v>
+        <v>258.7283630371094</v>
       </c>
       <c r="FJ3" t="n">
-        <v>218.4404296875</v>
+        <v>260.6496887207031</v>
       </c>
       <c r="FK3" t="n">
-        <v>219.2530670166016</v>
+        <v>264.8236389160156</v>
       </c>
       <c r="FL3" t="n">
-        <v>219.5476226806641</v>
+        <v>265.0981750488281</v>
       </c>
       <c r="FM3" t="n">
-        <v>219.0892181396484</v>
+        <v>264.6876831054688</v>
       </c>
       <c r="FN3" t="n">
-        <v>218.9123992919922</v>
+        <v>263.7059631347656</v>
       </c>
       <c r="FO3" t="n">
-        <v>222.0387268066406</v>
+        <v>263.4328002929688</v>
       </c>
       <c r="FP3" t="n">
-        <v>221.9808807373047</v>
+        <v>263.4780883789062</v>
       </c>
       <c r="FQ3" t="n">
-        <v>224.0289764404297</v>
+        <v>263.5700988769531</v>
       </c>
       <c r="FR3" t="n">
-        <v>219.5457458496094</v>
+        <v>264.6589965820312</v>
       </c>
       <c r="FS3" t="n">
-        <v>220.2620086669922</v>
+        <v>264.4879760742188</v>
       </c>
       <c r="FT3" t="n">
-        <v>219.4644317626953</v>
+        <v>264.5090026855469</v>
       </c>
       <c r="FU3" t="n">
-        <v>217.5064849853516</v>
+        <v>264.6435852050781</v>
       </c>
       <c r="FV3" t="n">
-        <v>219.299560546875</v>
+        <v>268.0917358398438</v>
       </c>
       <c r="FW3" t="n">
-        <v>218.2729797363281</v>
+        <v>270.4234313964844</v>
       </c>
       <c r="FX3" t="n">
-        <v>217.9192352294922</v>
+        <v>271.8706665039062</v>
       </c>
       <c r="FY3" t="n">
-        <v>219.1462707519531</v>
+        <v>273.6398010253906</v>
       </c>
       <c r="FZ3" t="n">
-        <v>220.024169921875</v>
+        <v>273.275634765625</v>
       </c>
       <c r="GA3" t="n">
-        <v>218.2916259765625</v>
+        <v>273.8749389648438</v>
       </c>
       <c r="GB3" t="n">
-        <v>217.9197540283203</v>
+        <v>272.8716125488281</v>
       </c>
       <c r="GC3" t="n">
-        <v>217.1116943359375</v>
+        <v>272.1960144042969</v>
       </c>
       <c r="GD3" t="n">
-        <v>217.5182952880859</v>
+        <v>271.3368530273438</v>
       </c>
       <c r="GE3" t="n">
-        <v>220.9757232666016</v>
+        <v>271.4301452636719</v>
       </c>
       <c r="GF3" t="n">
-        <v>219.7546844482422</v>
+        <v>270.2935791015625</v>
       </c>
       <c r="GG3" t="n">
-        <v>219.26318359375</v>
+        <v>267.5524597167969</v>
       </c>
       <c r="GH3" t="n">
-        <v>218.5995635986328</v>
+        <v>265.8002319335938</v>
       </c>
       <c r="GI3" t="n">
-        <v>213.0864410400391</v>
+        <v>265.7396240234375</v>
       </c>
       <c r="GJ3" t="n">
-        <v>212.2565460205078</v>
+        <v>265.3406982421875</v>
       </c>
       <c r="GK3" t="n">
-        <v>213.8213195800781</v>
+        <v>264.793701171875</v>
       </c>
       <c r="GL3" t="n">
-        <v>211.9568634033203</v>
+        <v>263.6260375976562</v>
       </c>
       <c r="GM3" t="n">
-        <v>211.7160186767578</v>
+        <v>263.1658020019531</v>
       </c>
       <c r="GN3" t="n">
-        <v>210.8443145751953</v>
+        <v>262.6651306152344</v>
       </c>
       <c r="GO3" t="n">
-        <v>209.6950378417969</v>
+        <v>263.31103515625</v>
       </c>
       <c r="GP3" t="n">
-        <v>208.1769104003906</v>
+        <v>263.7314147949219</v>
       </c>
       <c r="GQ3" t="n">
-        <v>208.0097808837891</v>
+        <v>265.3547668457031</v>
       </c>
       <c r="GR3" t="n">
-        <v>207.8245849609375</v>
+        <v>265.2640686035156</v>
       </c>
       <c r="GS3" t="n">
-        <v>207.2218627929688</v>
+        <v>263.3228454589844</v>
       </c>
       <c r="GT3" t="n">
-        <v>206.5478515625</v>
+        <v>263.8654479980469</v>
       </c>
       <c r="GU3" t="n">
-        <v>205.0546264648438</v>
+        <v>261.4741821289062</v>
       </c>
       <c r="GV3" t="n">
-        <v>204.9616394042969</v>
+        <v>262.4851379394531</v>
       </c>
       <c r="GW3" t="n">
-        <v>203.7570953369141</v>
+        <v>262.3636474609375</v>
       </c>
       <c r="GX3" t="n">
-        <v>202.6127166748047</v>
+        <v>262.5978088378906</v>
       </c>
       <c r="GY3" t="n">
-        <v>201.6613464355469</v>
+        <v>262.9267272949219</v>
       </c>
       <c r="GZ3" t="n">
-        <v>200.1277770996094</v>
+        <v>262.7261047363281</v>
       </c>
       <c r="HA3" t="n">
-        <v>198.76904296875</v>
+        <v>261.8115539550781</v>
       </c>
       <c r="HB3" t="n">
-        <v>198.0093688964844</v>
+        <v>260.331787109375</v>
       </c>
       <c r="HC3" t="n">
-        <v>196.9058837890625</v>
+        <v>259.6726989746094</v>
       </c>
       <c r="HD3" t="n">
-        <v>196.3357238769531</v>
+        <v>259.4529113769531</v>
       </c>
       <c r="HE3" t="n">
-        <v>195.6704711914062</v>
+        <v>259.0525817871094</v>
       </c>
       <c r="HF3" t="n">
-        <v>192.9271545410156</v>
+        <v>258.6585998535156</v>
       </c>
       <c r="HG3" t="n">
-        <v>190.4704284667969</v>
+        <v>257.7211608886719</v>
       </c>
       <c r="HH3" t="n">
-        <v>185.1849822998047</v>
+        <v>257.9068908691406</v>
       </c>
       <c r="HI3" t="n">
-        <v>182.8132476806641</v>
+        <v>258.8965454101562</v>
       </c>
       <c r="HJ3" t="n">
-        <v>181.7950286865234</v>
+        <v>259.6111450195312</v>
       </c>
       <c r="HK3" t="n">
-        <v>181.6338806152344</v>
+        <v>260.04541015625</v>
       </c>
       <c r="HL3" t="n">
-        <v>180.2654724121094</v>
+        <v>263.0184631347656</v>
       </c>
       <c r="HM3" t="n">
-        <v>177.8104858398438</v>
+        <v>264.7242126464844</v>
       </c>
       <c r="HN3" t="n">
-        <v>172.7194671630859</v>
+        <v>266.3068237304688</v>
       </c>
       <c r="HO3" t="n">
-        <v>169.8412170410156</v>
+        <v>265.18701171875</v>
       </c>
       <c r="HP3" t="n">
-        <v>166.9577484130859</v>
+        <v>265.2449951171875</v>
       </c>
       <c r="HQ3" t="n">
-        <v>164.3111877441406</v>
+        <v>264.1127624511719</v>
       </c>
       <c r="HR3" t="n">
-        <v>164.5563049316406</v>
+        <v>262.9853820800781</v>
       </c>
       <c r="HS3" t="n">
-        <v>165.1972351074219</v>
+        <v>262.2825012207031</v>
       </c>
       <c r="HT3" t="n">
-        <v>166.6296539306641</v>
+        <v>262.4043884277344</v>
       </c>
       <c r="HU3" t="n">
-        <v>164.3194122314453</v>
+        <v>261.87451171875</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>260.6131286621094</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>259.5150756835938</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>259.8670959472656</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>259.7181701660156</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>259.2101745605469</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>258.8151550292969</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>258.6591186523438</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>258.3585205078125</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>257.8089294433594</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>258.5436401367188</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>258.1829223632812</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>258.5338439941406</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>259.0102844238281</v>
+      </c>
+      <c r="II3" t="n">
+        <v>259.783447265625</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>260.6863708496094</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>260.9427490234375</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>261.3040466308594</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>262.7529602050781</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>263.233154296875</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>263.8762817382812</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>263.0393676757812</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>261.8416442871094</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>262.4329223632812</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>262.8739013671875</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>262.8409423828125</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>264.1476745605469</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>266.0641479492188</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>267.2122802734375</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>267.0434875488281</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>267.2491149902344</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>267.637451171875</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>267.6788635253906</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>268.1740112304688</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>266.9569396972656</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>268.4276123046875</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>269.4974060058594</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>269.4150390625</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>267.1838684082031</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>266.6514282226562</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>266.6616516113281</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>264.8456115722656</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>263.8423461914062</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>264.4955444335938</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>264.3962097167969</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>263.4835510253906</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>263.2016906738281</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>262.8143005371094</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>263.2835388183594</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>263.0702514648438</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>263.0841979980469</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>263.3895874023438</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>263.1076049804688</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>262.7560424804688</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>262.4693603515625</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>262.2535095214844</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>262.4364929199219</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>262.7093505859375</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>262.7822265625</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>262.8391723632812</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>262.863525390625</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>261.1947937011719</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>259.9325256347656</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>259.72021484375</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>259.3916320800781</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>259.1436462402344</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>259.067138671875</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>259.2717590332031</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>259.3826599121094</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>259.482177734375</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>259.4955444335938</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>259.5085754394531</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>258.3005065917969</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>257.5818481445312</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>257.181884765625</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>256.932373046875</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>256.8536376953125</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>256.942626953125</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>257.27978515625</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>257.3532409667969</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>257.2282409667969</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>257.2157897949219</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>257.4189453125</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>257.7080383300781</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>257.4979858398438</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>257.5376892089844</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>257.6876831054688</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>258.1212158203125</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>258.5928955078125</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>259.0286865234375</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>259.2594604492188</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>258.0392150878906</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>254.6177673339844</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>249.5919799804688</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>242.8251495361328</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>241.0440979003906</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>237.3763122558594</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>231.4940795898438</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>225.6814117431641</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>222.5986480712891</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>220.041259765625</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>218.2594451904297</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>215.4662475585938</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>205.1065979003906</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>195.7683868408203</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>182.7375030517578</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>163.4616088867188</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>159.7730560302734</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>155.1349945068359</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>148.3472900390625</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>145.1165618896484</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>151.2417144775391</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>152.0736999511719</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>149.7848358154297</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>148.4529418945312</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>155.0907745361328</v>
+      </c>
+      <c r="MG3" t="n">
+        <v>178.2140350341797</v>
+      </c>
+      <c r="MH3" t="n">
+        <v>193.7651672363281</v>
+      </c>
+      <c r="MI3" t="n">
+        <v>216.0815124511719</v>
+      </c>
+      <c r="MJ3" t="n">
+        <v>253.7131652832031</v>
+      </c>
+      <c r="MK3" t="n">
+        <v>293.0626220703125</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>310.2742004394531</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>327.1020812988281</v>
+      </c>
+      <c r="MN3" t="n">
+        <v>329.0488586425781</v>
+      </c>
+      <c r="MO3" t="n">
+        <v>329.3098449707031</v>
+      </c>
+      <c r="MP3" t="n">
+        <v>328.0470886230469</v>
+      </c>
+      <c r="MQ3" t="n">
+        <v>329.155517578125</v>
+      </c>
+      <c r="MR3" t="n">
+        <v>333.7830505371094</v>
+      </c>
+      <c r="MS3" t="n">
+        <v>337.749267578125</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>333.1645202636719</v>
+      </c>
+      <c r="MU3" t="n">
+        <v>338.6070251464844</v>
+      </c>
+      <c r="MV3" t="n">
+        <v>327.7737731933594</v>
+      </c>
+      <c r="MW3" t="n">
+        <v>325.4873352050781</v>
+      </c>
+      <c r="MX3" t="n">
+        <v>315.1410522460938</v>
+      </c>
+      <c r="MY3" t="n">
+        <v>310.793701171875</v>
+      </c>
+      <c r="MZ3" t="n">
+        <v>301.1841430664062</v>
+      </c>
+      <c r="NA3" t="n">
+        <v>288.9776611328125</v>
+      </c>
+      <c r="NB3" t="n">
+        <v>284.3862915039062</v>
+      </c>
+      <c r="NC3" t="n">
+        <v>282.3207702636719</v>
+      </c>
+      <c r="ND3" t="n">
+        <v>283.8395690917969</v>
+      </c>
+      <c r="NE3" t="n">
+        <v>287.6185302734375</v>
+      </c>
+      <c r="NF3" t="n">
+        <v>292.286865234375</v>
+      </c>
+      <c r="NG3" t="n">
+        <v>296.2384643554688</v>
+      </c>
+      <c r="NH3" t="n">
+        <v>297.9957275390625</v>
+      </c>
+      <c r="NI3" t="n">
+        <v>301.3410034179688</v>
+      </c>
+      <c r="NJ3" t="n">
+        <v>302.4869079589844</v>
+      </c>
+      <c r="NK3" t="n">
+        <v>302.4718933105469</v>
+      </c>
+      <c r="NL3" t="n">
+        <v>301.7130432128906</v>
+      </c>
+      <c r="NM3" t="n">
+        <v>301.1567687988281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>896.4435424804688</v>
+        <v>1034.8603515625</v>
       </c>
       <c r="B4" t="n">
-        <v>908.216552734375</v>
+        <v>1025.5029296875</v>
       </c>
       <c r="C4" t="n">
-        <v>918.1126098632812</v>
+        <v>1025.505249023438</v>
       </c>
       <c r="D4" t="n">
-        <v>941.9569091796875</v>
+        <v>1025.87353515625</v>
       </c>
       <c r="E4" t="n">
-        <v>954.7472534179688</v>
+        <v>1026.779907226562</v>
       </c>
       <c r="F4" t="n">
-        <v>992.1652221679688</v>
+        <v>1034.44775390625</v>
       </c>
       <c r="G4" t="n">
-        <v>1014.39208984375</v>
+        <v>1051.679931640625</v>
       </c>
       <c r="H4" t="n">
-        <v>1056.725463867188</v>
+        <v>1075.47021484375</v>
       </c>
       <c r="I4" t="n">
-        <v>1080.289184570312</v>
+        <v>1086.094360351562</v>
       </c>
       <c r="J4" t="n">
-        <v>1124.113647460938</v>
+        <v>1107.188354492188</v>
       </c>
       <c r="K4" t="n">
-        <v>1150.74169921875</v>
+        <v>1132.168334960938</v>
       </c>
       <c r="L4" t="n">
-        <v>1205.4736328125</v>
+        <v>1143.59228515625</v>
       </c>
       <c r="M4" t="n">
-        <v>1218.5458984375</v>
+        <v>1226.079467773438</v>
       </c>
       <c r="N4" t="n">
-        <v>1281.088134765625</v>
+        <v>1230.08447265625</v>
       </c>
       <c r="O4" t="n">
-        <v>1345.34521484375</v>
+        <v>1280.950805664062</v>
       </c>
       <c r="P4" t="n">
-        <v>1382.057495117188</v>
+        <v>1282.839721679688</v>
       </c>
       <c r="Q4" t="n">
-        <v>1406.095092773438</v>
+        <v>1283.5615234375</v>
       </c>
       <c r="R4" t="n">
-        <v>1435.418090820312</v>
+        <v>1292.208129882812</v>
       </c>
       <c r="S4" t="n">
-        <v>1474.546142578125</v>
+        <v>1304.935668945312</v>
       </c>
       <c r="T4" t="n">
-        <v>1506.070678710938</v>
+        <v>1326.490112304688</v>
       </c>
       <c r="U4" t="n">
-        <v>1542.012573242188</v>
+        <v>1338.179565429688</v>
       </c>
       <c r="V4" t="n">
-        <v>1579.511596679688</v>
+        <v>1359.220458984375</v>
       </c>
       <c r="W4" t="n">
-        <v>1614.01611328125</v>
+        <v>1370.45166015625</v>
       </c>
       <c r="X4" t="n">
-        <v>1653.826049804688</v>
+        <v>1385.255981445312</v>
       </c>
       <c r="Y4" t="n">
-        <v>1694.02734375</v>
+        <v>1390.366943359375</v>
       </c>
       <c r="Z4" t="n">
-        <v>1735.018676757812</v>
+        <v>1400.212524414062</v>
       </c>
       <c r="AA4" t="n">
-        <v>1776.89990234375</v>
+        <v>1417.162353515625</v>
       </c>
       <c r="AB4" t="n">
-        <v>1830.793090820312</v>
+        <v>1422.878051757812</v>
       </c>
       <c r="AC4" t="n">
-        <v>1863.140625</v>
+        <v>1434.73681640625</v>
       </c>
       <c r="AD4" t="n">
-        <v>1899.928588867188</v>
+        <v>1444.2216796875</v>
       </c>
       <c r="AE4" t="n">
-        <v>1953.735229492188</v>
+        <v>1453.655151367188</v>
       </c>
       <c r="AF4" t="n">
-        <v>1998.41650390625</v>
+        <v>1466.645263671875</v>
       </c>
       <c r="AG4" t="n">
-        <v>2025.102661132812</v>
+        <v>1467.911987304688</v>
       </c>
       <c r="AH4" t="n">
-        <v>2057.132080078125</v>
+        <v>1471.05810546875</v>
       </c>
       <c r="AI4" t="n">
-        <v>2093.19482421875</v>
+        <v>1477.648071289062</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2127.582275390625</v>
+        <v>1490.984375</v>
       </c>
       <c r="AK4" t="n">
-        <v>2173.572509765625</v>
+        <v>1492.84521484375</v>
       </c>
       <c r="AL4" t="n">
-        <v>2222.5810546875</v>
+        <v>1492.017333984375</v>
       </c>
       <c r="AM4" t="n">
-        <v>2248.129150390625</v>
+        <v>1492.084350585938</v>
       </c>
       <c r="AN4" t="n">
-        <v>2288.455078125</v>
+        <v>1491.833984375</v>
       </c>
       <c r="AO4" t="n">
-        <v>2361.23486328125</v>
+        <v>1491.558715820312</v>
       </c>
       <c r="AP4" t="n">
-        <v>2408.73876953125</v>
+        <v>1491.138793945312</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2438.07568359375</v>
+        <v>1490.5791015625</v>
       </c>
       <c r="AR4" t="n">
-        <v>2484.45849609375</v>
+        <v>1489.868896484375</v>
       </c>
       <c r="AS4" t="n">
-        <v>2514.529541015625</v>
+        <v>1483.973510742188</v>
       </c>
       <c r="AT4" t="n">
-        <v>2542.615966796875</v>
+        <v>1475.876220703125</v>
       </c>
       <c r="AU4" t="n">
-        <v>2588.3427734375</v>
+        <v>1469.205688476562</v>
       </c>
       <c r="AV4" t="n">
-        <v>2617.007568359375</v>
+        <v>1466.577758789062</v>
       </c>
       <c r="AW4" t="n">
-        <v>2693.176025390625</v>
+        <v>1464.5556640625</v>
       </c>
       <c r="AX4" t="n">
-        <v>2706.89501953125</v>
+        <v>1458.99951171875</v>
       </c>
       <c r="AY4" t="n">
-        <v>2740.93408203125</v>
+        <v>1451.011840820312</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2752.810791015625</v>
+        <v>1444.838623046875</v>
       </c>
       <c r="BA4" t="n">
-        <v>2768.6201171875</v>
+        <v>1431.005737304688</v>
       </c>
       <c r="BB4" t="n">
-        <v>2800.64697265625</v>
+        <v>1428.289428710938</v>
       </c>
       <c r="BC4" t="n">
-        <v>2819.33740234375</v>
+        <v>1419.991821289062</v>
       </c>
       <c r="BD4" t="n">
-        <v>2858.126953125</v>
+        <v>1414.642700195312</v>
       </c>
       <c r="BE4" t="n">
-        <v>2874.7353515625</v>
+        <v>1403.399169921875</v>
       </c>
       <c r="BF4" t="n">
-        <v>2908.2998046875</v>
+        <v>1395.951171875</v>
       </c>
       <c r="BG4" t="n">
-        <v>2953.671630859375</v>
+        <v>1385.573364257812</v>
       </c>
       <c r="BH4" t="n">
-        <v>2995.243408203125</v>
+        <v>1378.362182617188</v>
       </c>
       <c r="BI4" t="n">
-        <v>3042.372802734375</v>
+        <v>1371.171020507812</v>
       </c>
       <c r="BJ4" t="n">
-        <v>3068.70849609375</v>
+        <v>1362.178100585938</v>
       </c>
       <c r="BK4" t="n">
-        <v>3107.424560546875</v>
+        <v>1353.187255859375</v>
       </c>
       <c r="BL4" t="n">
-        <v>3103.071044921875</v>
+        <v>1343.586303710938</v>
       </c>
       <c r="BM4" t="n">
-        <v>3124.817626953125</v>
+        <v>1332.863891601562</v>
       </c>
       <c r="BN4" t="n">
-        <v>3143.773193359375</v>
+        <v>1318.182250976562</v>
       </c>
       <c r="BO4" t="n">
-        <v>3172.435546875</v>
+        <v>1308.117431640625</v>
       </c>
       <c r="BP4" t="n">
-        <v>3179.968017578125</v>
+        <v>1302.7548828125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>3230.237548828125</v>
+        <v>1297.447021484375</v>
       </c>
       <c r="BR4" t="n">
-        <v>3230.232666015625</v>
+        <v>1292.117065429688</v>
       </c>
       <c r="BS4" t="n">
-        <v>3231.084716796875</v>
+        <v>1288.887939453125</v>
       </c>
       <c r="BT4" t="n">
-        <v>3264.9345703125</v>
+        <v>1282.835571289062</v>
       </c>
       <c r="BU4" t="n">
-        <v>3275.27392578125</v>
+        <v>1279.21142578125</v>
       </c>
       <c r="BV4" t="n">
-        <v>3298.46240234375</v>
+        <v>1277.6142578125</v>
       </c>
       <c r="BW4" t="n">
-        <v>3317.865966796875</v>
+        <v>1275.518432617188</v>
       </c>
       <c r="BX4" t="n">
-        <v>3358.589111328125</v>
+        <v>1273.797241210938</v>
       </c>
       <c r="BY4" t="n">
-        <v>3350.873291015625</v>
+        <v>1270.95654296875</v>
       </c>
       <c r="BZ4" t="n">
-        <v>3397.779296875</v>
+        <v>1268.894165039062</v>
       </c>
       <c r="CA4" t="n">
-        <v>3390.3544921875</v>
+        <v>1264.422973632812</v>
       </c>
       <c r="CB4" t="n">
-        <v>3494.010986328125</v>
+        <v>1260.166015625</v>
       </c>
       <c r="CC4" t="n">
-        <v>3471.208740234375</v>
+        <v>1259.072021484375</v>
       </c>
       <c r="CD4" t="n">
-        <v>3512.78857421875</v>
+        <v>1255.51904296875</v>
       </c>
       <c r="CE4" t="n">
-        <v>3514.02685546875</v>
+        <v>1249.949096679688</v>
       </c>
       <c r="CF4" t="n">
-        <v>3545.648193359375</v>
+        <v>1248.13037109375</v>
       </c>
       <c r="CG4" t="n">
-        <v>3554.4228515625</v>
+        <v>1243.686645507812</v>
       </c>
       <c r="CH4" t="n">
-        <v>3579.33935546875</v>
+        <v>1238.78564453125</v>
       </c>
       <c r="CI4" t="n">
-        <v>3597.22216796875</v>
+        <v>1237.901123046875</v>
       </c>
       <c r="CJ4" t="n">
-        <v>3600.2294921875</v>
+        <v>1237.371826171875</v>
       </c>
       <c r="CK4" t="n">
-        <v>3602.689208984375</v>
+        <v>1236.904907226562</v>
       </c>
       <c r="CL4" t="n">
-        <v>3609.463623046875</v>
+        <v>1236.867797851562</v>
       </c>
       <c r="CM4" t="n">
-        <v>3598.024658203125</v>
+        <v>1236.385009765625</v>
       </c>
       <c r="CN4" t="n">
-        <v>3620.287353515625</v>
+        <v>1236.142700195312</v>
       </c>
       <c r="CO4" t="n">
-        <v>3623.057373046875</v>
+        <v>1236.427368164062</v>
       </c>
       <c r="CP4" t="n">
-        <v>3643.36181640625</v>
+        <v>1236.781494140625</v>
       </c>
       <c r="CQ4" t="n">
-        <v>3644.56201171875</v>
+        <v>1236.868530273438</v>
       </c>
       <c r="CR4" t="n">
-        <v>3645.09130859375</v>
+        <v>1236.888916015625</v>
       </c>
       <c r="CS4" t="n">
-        <v>3645.822509765625</v>
+        <v>1236.9873046875</v>
       </c>
       <c r="CT4" t="n">
-        <v>3646.9521484375</v>
+        <v>1237.233154296875</v>
       </c>
       <c r="CU4" t="n">
-        <v>3646.162109375</v>
+        <v>1237.427612304688</v>
       </c>
       <c r="CV4" t="n">
-        <v>3660.924072265625</v>
+        <v>1239.181884765625</v>
       </c>
       <c r="CW4" t="n">
-        <v>3656.37548828125</v>
+        <v>1240.66552734375</v>
       </c>
       <c r="CX4" t="n">
-        <v>3694.80419921875</v>
+        <v>1242.6435546875</v>
       </c>
       <c r="CY4" t="n">
-        <v>3685.74462890625</v>
+        <v>1243.357421875</v>
       </c>
       <c r="CZ4" t="n">
-        <v>3648.848876953125</v>
+        <v>1245.1474609375</v>
       </c>
       <c r="DA4" t="n">
-        <v>3662.4443359375</v>
+        <v>1245.668212890625</v>
       </c>
       <c r="DB4" t="n">
-        <v>3662.056884765625</v>
+        <v>1247.34326171875</v>
       </c>
       <c r="DC4" t="n">
-        <v>3691.416748046875</v>
+        <v>1248.54443359375</v>
       </c>
       <c r="DD4" t="n">
-        <v>3689.844482421875</v>
+        <v>1250.985717773438</v>
       </c>
       <c r="DE4" t="n">
-        <v>3706.498046875</v>
+        <v>1253.218505859375</v>
       </c>
       <c r="DF4" t="n">
-        <v>3715.7412109375</v>
+        <v>1254.442016601562</v>
       </c>
       <c r="DG4" t="n">
-        <v>3671.352294921875</v>
+        <v>1255.307739257812</v>
       </c>
       <c r="DH4" t="n">
-        <v>3655.620849609375</v>
+        <v>1256.354614257812</v>
       </c>
       <c r="DI4" t="n">
-        <v>3662.705322265625</v>
+        <v>1257.024658203125</v>
       </c>
       <c r="DJ4" t="n">
-        <v>3651.5224609375</v>
+        <v>1261.765747070312</v>
       </c>
       <c r="DK4" t="n">
-        <v>3666.335693359375</v>
+        <v>1263.980224609375</v>
       </c>
       <c r="DL4" t="n">
-        <v>3696.83203125</v>
+        <v>1264.720458984375</v>
       </c>
       <c r="DM4" t="n">
-        <v>3653.58935546875</v>
+        <v>1265.284301757812</v>
       </c>
       <c r="DN4" t="n">
-        <v>3664.919189453125</v>
+        <v>1265.771362304688</v>
       </c>
       <c r="DO4" t="n">
-        <v>3603.7294921875</v>
+        <v>1266.2841796875</v>
       </c>
       <c r="DP4" t="n">
-        <v>3614.682861328125</v>
+        <v>1267.322265625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>3609.751220703125</v>
+        <v>1267.106201171875</v>
       </c>
       <c r="DR4" t="n">
-        <v>3610.288330078125</v>
+        <v>1266.695190429688</v>
       </c>
       <c r="DS4" t="n">
-        <v>3640.87744140625</v>
+        <v>1267.0361328125</v>
       </c>
       <c r="DT4" t="n">
-        <v>3611.44140625</v>
+        <v>1269.493896484375</v>
       </c>
       <c r="DU4" t="n">
-        <v>3605.75439453125</v>
+        <v>1276.317626953125</v>
       </c>
       <c r="DV4" t="n">
-        <v>3605.744140625</v>
+        <v>1279.8505859375</v>
       </c>
       <c r="DW4" t="n">
-        <v>3604.43212890625</v>
+        <v>1297.123291015625</v>
       </c>
       <c r="DX4" t="n">
-        <v>3595.051513671875</v>
+        <v>1305.521362304688</v>
       </c>
       <c r="DY4" t="n">
-        <v>3572.646484375</v>
+        <v>1313.155151367188</v>
       </c>
       <c r="DZ4" t="n">
-        <v>3561.58056640625</v>
+        <v>1329.305786132812</v>
       </c>
       <c r="EA4" t="n">
-        <v>3565.274658203125</v>
+        <v>1334.596557617188</v>
       </c>
       <c r="EB4" t="n">
-        <v>3579.62109375</v>
+        <v>1355.666259765625</v>
       </c>
       <c r="EC4" t="n">
-        <v>3560.296142578125</v>
+        <v>1363.1923828125</v>
       </c>
       <c r="ED4" t="n">
-        <v>3551.4697265625</v>
+        <v>1369.410400390625</v>
       </c>
       <c r="EE4" t="n">
-        <v>3564.744873046875</v>
+        <v>1391.674926757812</v>
       </c>
       <c r="EF4" t="n">
-        <v>3564.954833984375</v>
+        <v>1418.923095703125</v>
       </c>
       <c r="EG4" t="n">
-        <v>3529.043212890625</v>
+        <v>1443.093627929688</v>
       </c>
       <c r="EH4" t="n">
-        <v>3521.075439453125</v>
+        <v>1456.728271484375</v>
       </c>
       <c r="EI4" t="n">
-        <v>3515.938232421875</v>
+        <v>1468.64697265625</v>
       </c>
       <c r="EJ4" t="n">
-        <v>3498.576904296875</v>
+        <v>1494.7001953125</v>
       </c>
       <c r="EK4" t="n">
-        <v>3498.534912109375</v>
+        <v>1519.582641601562</v>
       </c>
       <c r="EL4" t="n">
-        <v>3501.0439453125</v>
+        <v>1524.90771484375</v>
       </c>
       <c r="EM4" t="n">
-        <v>3440.883544921875</v>
+        <v>1549.82861328125</v>
       </c>
       <c r="EN4" t="n">
-        <v>3440.5302734375</v>
+        <v>1559.377563476562</v>
       </c>
       <c r="EO4" t="n">
-        <v>3411.60302734375</v>
+        <v>1575.435546875</v>
       </c>
       <c r="EP4" t="n">
-        <v>3464.27001953125</v>
+        <v>1588.764038085938</v>
       </c>
       <c r="EQ4" t="n">
-        <v>3421.974609375</v>
+        <v>1616.248413085938</v>
       </c>
       <c r="ER4" t="n">
-        <v>3417.07958984375</v>
+        <v>1629.2958984375</v>
       </c>
       <c r="ES4" t="n">
-        <v>3412.5361328125</v>
+        <v>1651.86181640625</v>
       </c>
       <c r="ET4" t="n">
-        <v>3422.0654296875</v>
+        <v>1672.5166015625</v>
       </c>
       <c r="EU4" t="n">
-        <v>3422.634033203125</v>
+        <v>1691.368774414062</v>
       </c>
       <c r="EV4" t="n">
-        <v>3425.37255859375</v>
+        <v>1700.0107421875</v>
       </c>
       <c r="EW4" t="n">
-        <v>3425.65576171875</v>
+        <v>1746.563232421875</v>
       </c>
       <c r="EX4" t="n">
-        <v>3447.77197265625</v>
+        <v>1793.493286132812</v>
       </c>
       <c r="EY4" t="n">
-        <v>3456.495361328125</v>
+        <v>1823.219604492188</v>
       </c>
       <c r="EZ4" t="n">
-        <v>3460.77294921875</v>
+        <v>1840.53076171875</v>
       </c>
       <c r="FA4" t="n">
-        <v>3457.2783203125</v>
+        <v>1873.258544921875</v>
       </c>
       <c r="FB4" t="n">
-        <v>3470.48681640625</v>
+        <v>1895.709106445312</v>
       </c>
       <c r="FC4" t="n">
-        <v>3545.409912109375</v>
+        <v>1953.947509765625</v>
       </c>
       <c r="FD4" t="n">
-        <v>3528.911865234375</v>
+        <v>1986.77685546875</v>
       </c>
       <c r="FE4" t="n">
-        <v>3536.11083984375</v>
+        <v>2003.83984375</v>
       </c>
       <c r="FF4" t="n">
-        <v>3542.791259765625</v>
+        <v>2019.098510742188</v>
       </c>
       <c r="FG4" t="n">
-        <v>3572.19580078125</v>
+        <v>2062.550048828125</v>
       </c>
       <c r="FH4" t="n">
-        <v>3545.841796875</v>
+        <v>2089.727783203125</v>
       </c>
       <c r="FI4" t="n">
-        <v>3544.076171875</v>
+        <v>2134.73046875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>3559.716552734375</v>
+        <v>2172.23486328125</v>
       </c>
       <c r="FK4" t="n">
-        <v>3554.6513671875</v>
+        <v>2200.81787109375</v>
       </c>
       <c r="FL4" t="n">
-        <v>3541.834716796875</v>
+        <v>2223.432861328125</v>
       </c>
       <c r="FM4" t="n">
-        <v>3551.056396484375</v>
+        <v>2250.5908203125</v>
       </c>
       <c r="FN4" t="n">
-        <v>3543.980712890625</v>
+        <v>2278.173583984375</v>
       </c>
       <c r="FO4" t="n">
-        <v>3524.511474609375</v>
+        <v>2284.466552734375</v>
       </c>
       <c r="FP4" t="n">
-        <v>3484.82861328125</v>
+        <v>2301.80419921875</v>
       </c>
       <c r="FQ4" t="n">
-        <v>3433.736572265625</v>
+        <v>2340.201416015625</v>
       </c>
       <c r="FR4" t="n">
-        <v>3504.900146484375</v>
+        <v>2362.22900390625</v>
       </c>
       <c r="FS4" t="n">
-        <v>3505.19873046875</v>
+        <v>2384.24072265625</v>
       </c>
       <c r="FT4" t="n">
-        <v>3489.013671875</v>
+        <v>2411.178955078125</v>
       </c>
       <c r="FU4" t="n">
-        <v>3460.421142578125</v>
+        <v>2412.48095703125</v>
       </c>
       <c r="FV4" t="n">
-        <v>3424.125732421875</v>
+        <v>2429.855712890625</v>
       </c>
       <c r="FW4" t="n">
-        <v>3436.723388671875</v>
+        <v>2425.9697265625</v>
       </c>
       <c r="FX4" t="n">
-        <v>3436.22705078125</v>
+        <v>2428.3603515625</v>
       </c>
       <c r="FY4" t="n">
-        <v>3422.64599609375</v>
+        <v>2426.54638671875</v>
       </c>
       <c r="FZ4" t="n">
-        <v>3392.95849609375</v>
+        <v>2430.853515625</v>
       </c>
       <c r="GA4" t="n">
-        <v>3348.28564453125</v>
+        <v>2431.90478515625</v>
       </c>
       <c r="GB4" t="n">
-        <v>3341.23486328125</v>
+        <v>2433.841552734375</v>
       </c>
       <c r="GC4" t="n">
-        <v>3271.12109375</v>
+        <v>2437.29296875</v>
       </c>
       <c r="GD4" t="n">
-        <v>3296.904052734375</v>
+        <v>2453.66455078125</v>
       </c>
       <c r="GE4" t="n">
-        <v>3229.633544921875</v>
+        <v>2454.04541015625</v>
       </c>
       <c r="GF4" t="n">
-        <v>3205.1064453125</v>
+        <v>2451.9267578125</v>
       </c>
       <c r="GG4" t="n">
-        <v>3155.988037109375</v>
+        <v>2448.89013671875</v>
       </c>
       <c r="GH4" t="n">
-        <v>3144.570068359375</v>
+        <v>2431.59619140625</v>
       </c>
       <c r="GI4" t="n">
-        <v>3062.45849609375</v>
+        <v>2419.42578125</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2997.550048828125</v>
+        <v>2418.24462890625</v>
       </c>
       <c r="GK4" t="n">
-        <v>2959.109619140625</v>
+        <v>2416.9169921875</v>
       </c>
       <c r="GL4" t="n">
-        <v>2882.690185546875</v>
+        <v>2416.820068359375</v>
       </c>
       <c r="GM4" t="n">
-        <v>2863.91162109375</v>
+        <v>2415.90771484375</v>
       </c>
       <c r="GN4" t="n">
-        <v>2844.990234375</v>
+        <v>2414.783935546875</v>
       </c>
       <c r="GO4" t="n">
-        <v>2786.1650390625</v>
+        <v>2413.6142578125</v>
       </c>
       <c r="GP4" t="n">
-        <v>2747.677978515625</v>
+        <v>2405.46875</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2718.63916015625</v>
+        <v>2395.849365234375</v>
       </c>
       <c r="GR4" t="n">
-        <v>2674.13525390625</v>
+        <v>2395.4287109375</v>
       </c>
       <c r="GS4" t="n">
-        <v>2595.146240234375</v>
+        <v>2389.75244140625</v>
       </c>
       <c r="GT4" t="n">
-        <v>2556.15771484375</v>
+        <v>2376.6044921875</v>
       </c>
       <c r="GU4" t="n">
-        <v>2485.91455078125</v>
+        <v>2377.8271484375</v>
       </c>
       <c r="GV4" t="n">
-        <v>2421.05419921875</v>
+        <v>2362.53125</v>
       </c>
       <c r="GW4" t="n">
-        <v>2337.340087890625</v>
+        <v>2363.070556640625</v>
       </c>
       <c r="GX4" t="n">
-        <v>2267.235595703125</v>
+        <v>2362.4033203125</v>
       </c>
       <c r="GY4" t="n">
-        <v>2212.01611328125</v>
+        <v>2362.402099609375</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2134.1806640625</v>
+        <v>2360.85791015625</v>
       </c>
       <c r="HA4" t="n">
-        <v>2060.10546875</v>
+        <v>2346.736328125</v>
       </c>
       <c r="HB4" t="n">
-        <v>1999.274780273438</v>
+        <v>2343.68212890625</v>
       </c>
       <c r="HC4" t="n">
-        <v>1901.115478515625</v>
+        <v>2336.24951171875</v>
       </c>
       <c r="HD4" t="n">
-        <v>1854.5634765625</v>
+        <v>2345.229736328125</v>
       </c>
       <c r="HE4" t="n">
-        <v>1823.036499023438</v>
+        <v>2344.327880859375</v>
       </c>
       <c r="HF4" t="n">
-        <v>1731.001342773438</v>
+        <v>2336.405029296875</v>
       </c>
       <c r="HG4" t="n">
-        <v>1682.090087890625</v>
+        <v>2334.189453125</v>
       </c>
       <c r="HH4" t="n">
-        <v>1594.374267578125</v>
+        <v>2333.333740234375</v>
       </c>
       <c r="HI4" t="n">
-        <v>1524.927490234375</v>
+        <v>2331.366455078125</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1462.044921875</v>
+        <v>2331.58203125</v>
       </c>
       <c r="HK4" t="n">
-        <v>1391.638671875</v>
+        <v>2331.394287109375</v>
       </c>
       <c r="HL4" t="n">
-        <v>1321.6318359375</v>
+        <v>2315.294189453125</v>
       </c>
       <c r="HM4" t="n">
-        <v>1253.849731445312</v>
+        <v>2304.9912109375</v>
       </c>
       <c r="HN4" t="n">
-        <v>1160.74072265625</v>
+        <v>2307.562255859375</v>
       </c>
       <c r="HO4" t="n">
-        <v>1119.308837890625</v>
+        <v>2302.74951171875</v>
       </c>
       <c r="HP4" t="n">
-        <v>1076.460327148438</v>
+        <v>2291.35888671875</v>
       </c>
       <c r="HQ4" t="n">
-        <v>1030.026245117188</v>
+        <v>2291.43017578125</v>
       </c>
       <c r="HR4" t="n">
-        <v>991.1053466796875</v>
+        <v>2279.032470703125</v>
       </c>
       <c r="HS4" t="n">
-        <v>950.9137573242188</v>
+        <v>2272.148193359375</v>
       </c>
       <c r="HT4" t="n">
-        <v>911.6851806640625</v>
+        <v>2259.71826171875</v>
       </c>
       <c r="HU4" t="n">
-        <v>878.655029296875</v>
+        <v>2251.0927734375</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>2236.861083984375</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>2235.921142578125</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>2222.399658203125</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>2216.1845703125</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>2217.834716796875</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>2216.170654296875</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>2215.5478515625</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>2213.985595703125</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>2213.165771484375</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>2213.243896484375</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>2215.624755859375</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>2217.597412109375</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>2219.09228515625</v>
+      </c>
+      <c r="II4" t="n">
+        <v>2227.097900390625</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>2232.1533203125</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>2240.453125</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>2242.96484375</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>2250.984130859375</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>2260.55859375</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>2260.1630859375</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>2264.595458984375</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>2295.412109375</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>2300.98876953125</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>2301.59619140625</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>2334.736328125</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>2351.11669921875</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>2347.63671875</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>2351.52294921875</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>2357.6611328125</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>2355.652099609375</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>2355.88720703125</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>2362.6005859375</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>2352.944580078125</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>2352.469482421875</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>2339.423583984375</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>2335.99560546875</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>2327.99755859375</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>2318.44970703125</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>2303.791748046875</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>2299.66259765625</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>2296.908935546875</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>2294.64306640625</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>2267.50048828125</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>2281.9267578125</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>2279.306396484375</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>2256.8232421875</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>2249.410400390625</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>2248.57373046875</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>2246.4208984375</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>2239.42333984375</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>2237.038330078125</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>2236.532958984375</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>2236.255615234375</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>2236.03564453125</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>2235.752685546875</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>2230.77294921875</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>2220.28271484375</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>2220.708984375</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>2221.770263671875</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>2222.771484375</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>2226.908447265625</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>2232.146484375</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>2231.806640625</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>2232.35009765625</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>2238.490966796875</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>2243.787109375</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>2243.865478515625</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>2244.028076171875</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>2244.55712890625</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>2245.180908203125</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>2246.1982421875</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>2258.263671875</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>2257.994384765625</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>2256.788330078125</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>2255.85888671875</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>2255.137451171875</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>2251.077392578125</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>2249.31884765625</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>2249.38134765625</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>2249.0810546875</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>2249.025634765625</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>2247.73779296875</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>2243.91357421875</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>2233.058837890625</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>2211.705322265625</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>2200.633056640625</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>2164.051513671875</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>2115.093505859375</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>2052.419677734375</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>2007.89111328125</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>1963.8779296875</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>1865.77734375</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>1774.577880859375</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>1697.583984375</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>1652.602905273438</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>1622.329833984375</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>1573.144775390625</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>1533.39794921875</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>1467.111450195312</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>1377.188354492188</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>1313.4365234375</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>1250.942504882812</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>1143.57177734375</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>1084.576171875</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>1036.605224609375</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>989.78271484375</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>959.61572265625</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>917.5341796875</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>892.537841796875</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>865.9955444335938</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>846.7354736328125</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>836.8984375</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>849.3300170898438</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>860.8197631835938</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>861.8966064453125</v>
+      </c>
+      <c r="MG4" t="n">
+        <v>857.865234375</v>
+      </c>
+      <c r="MH4" t="n">
+        <v>856.6859130859375</v>
+      </c>
+      <c r="MI4" t="n">
+        <v>855.9857177734375</v>
+      </c>
+      <c r="MJ4" t="n">
+        <v>865.6691284179688</v>
+      </c>
+      <c r="MK4" t="n">
+        <v>887.4983520507812</v>
+      </c>
+      <c r="ML4" t="n">
+        <v>918.5081787109375</v>
+      </c>
+      <c r="MM4" t="n">
+        <v>969.714111328125</v>
+      </c>
+      <c r="MN4" t="n">
+        <v>994.9892578125</v>
+      </c>
+      <c r="MO4" t="n">
+        <v>1006.231323242188</v>
+      </c>
+      <c r="MP4" t="n">
+        <v>1014.015747070312</v>
+      </c>
+      <c r="MQ4" t="n">
+        <v>1010.248840332031</v>
+      </c>
+      <c r="MR4" t="n">
+        <v>959.509033203125</v>
+      </c>
+      <c r="MS4" t="n">
+        <v>924.1112670898438</v>
+      </c>
+      <c r="MT4" t="n">
+        <v>869.309326171875</v>
+      </c>
+      <c r="MU4" t="n">
+        <v>845.68798828125</v>
+      </c>
+      <c r="MV4" t="n">
+        <v>820.7267456054688</v>
+      </c>
+      <c r="MW4" t="n">
+        <v>690.1561889648438</v>
+      </c>
+      <c r="MX4" t="n">
+        <v>810.6121215820312</v>
+      </c>
+      <c r="MY4" t="n">
+        <v>786.3433227539062</v>
+      </c>
+      <c r="MZ4" t="n">
+        <v>767.1361694335938</v>
+      </c>
+      <c r="NA4" t="n">
+        <v>749.9866333007812</v>
+      </c>
+      <c r="NB4" t="n">
+        <v>748.7648315429688</v>
+      </c>
+      <c r="NC4" t="n">
+        <v>751.1873168945312</v>
+      </c>
+      <c r="ND4" t="n">
+        <v>757.7021484375</v>
+      </c>
+      <c r="NE4" t="n">
+        <v>764.093505859375</v>
+      </c>
+      <c r="NF4" t="n">
+        <v>774.1610107421875</v>
+      </c>
+      <c r="NG4" t="n">
+        <v>787.3812255859375</v>
+      </c>
+      <c r="NH4" t="n">
+        <v>802.5364990234375</v>
+      </c>
+      <c r="NI4" t="n">
+        <v>806.2507934570312</v>
+      </c>
+      <c r="NJ4" t="n">
+        <v>806.2904663085938</v>
+      </c>
+      <c r="NK4" t="n">
+        <v>806.23974609375</v>
+      </c>
+      <c r="NL4" t="n">
+        <v>804.7216186523438</v>
+      </c>
+      <c r="NM4" t="n">
+        <v>796.8969116210938</v>
       </c>
     </row>
   </sheetData>

--- a/right_shoulder_Data_Variable.xlsx
+++ b/right_shoulder_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NM4"/>
+  <dimension ref="A1:IX4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,3761 +1208,2333 @@
       <c r="IX1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ME1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ML1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ND1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>253.5798950195312</v>
+        <v>200.7770080566406</v>
       </c>
       <c r="B2" t="n">
-        <v>263.2553405761719</v>
+        <v>204.9889984130859</v>
       </c>
       <c r="C2" t="n">
-        <v>268.3399353027344</v>
+        <v>206.7779693603516</v>
       </c>
       <c r="D2" t="n">
-        <v>274.3922729492188</v>
+        <v>209.7644653320312</v>
       </c>
       <c r="E2" t="n">
-        <v>283.9774780273438</v>
+        <v>212.9922180175781</v>
       </c>
       <c r="F2" t="n">
-        <v>295.307373046875</v>
+        <v>219.1995849609375</v>
       </c>
       <c r="G2" t="n">
-        <v>305.5327453613281</v>
+        <v>225.5770568847656</v>
       </c>
       <c r="H2" t="n">
-        <v>316.3704833984375</v>
+        <v>232.0847778320312</v>
       </c>
       <c r="I2" t="n">
-        <v>325.48974609375</v>
+        <v>236.4996490478516</v>
       </c>
       <c r="J2" t="n">
-        <v>334.3545837402344</v>
+        <v>244.7386474609375</v>
       </c>
       <c r="K2" t="n">
-        <v>343.4378356933594</v>
+        <v>250.09716796875</v>
       </c>
       <c r="L2" t="n">
-        <v>349.4653930664062</v>
+        <v>257.2906799316406</v>
       </c>
       <c r="M2" t="n">
-        <v>381.7380981445312</v>
+        <v>262.5381164550781</v>
       </c>
       <c r="N2" t="n">
-        <v>382.219970703125</v>
+        <v>270.5967712402344</v>
       </c>
       <c r="O2" t="n">
-        <v>383.8265991210938</v>
+        <v>305.1488647460938</v>
       </c>
       <c r="P2" t="n">
-        <v>381.3074340820312</v>
+        <v>307.2125244140625</v>
       </c>
       <c r="Q2" t="n">
-        <v>380.6408386230469</v>
+        <v>307.8737182617188</v>
       </c>
       <c r="R2" t="n">
-        <v>380.1523132324219</v>
+        <v>308.7831726074219</v>
       </c>
       <c r="S2" t="n">
-        <v>379.4656066894531</v>
+        <v>308.3970642089844</v>
       </c>
       <c r="T2" t="n">
-        <v>377.1837768554688</v>
+        <v>307.7676391601562</v>
       </c>
       <c r="U2" t="n">
-        <v>373.8031616210938</v>
+        <v>307.5743408203125</v>
       </c>
       <c r="V2" t="n">
-        <v>367.9370422363281</v>
+        <v>307.6911315917969</v>
       </c>
       <c r="W2" t="n">
-        <v>362.4913940429688</v>
+        <v>306.7861328125</v>
       </c>
       <c r="X2" t="n">
-        <v>358.5160522460938</v>
+        <v>306.000732421875</v>
       </c>
       <c r="Y2" t="n">
-        <v>356.1157531738281</v>
+        <v>304.9717102050781</v>
       </c>
       <c r="Z2" t="n">
-        <v>353.5784606933594</v>
+        <v>303.8414306640625</v>
       </c>
       <c r="AA2" t="n">
-        <v>348.7225646972656</v>
+        <v>302.8579406738281</v>
       </c>
       <c r="AB2" t="n">
-        <v>345.3173217773438</v>
+        <v>301.9227294921875</v>
       </c>
       <c r="AC2" t="n">
-        <v>341.8102416992188</v>
+        <v>301.7985534667969</v>
       </c>
       <c r="AD2" t="n">
-        <v>339.3747253417969</v>
+        <v>301.5293884277344</v>
       </c>
       <c r="AE2" t="n">
-        <v>337.4812316894531</v>
+        <v>301.498046875</v>
       </c>
       <c r="AF2" t="n">
-        <v>335.7430725097656</v>
+        <v>301.0691528320312</v>
       </c>
       <c r="AG2" t="n">
-        <v>333.4056396484375</v>
+        <v>300.8716125488281</v>
       </c>
       <c r="AH2" t="n">
-        <v>332.8148803710938</v>
+        <v>300.5700988769531</v>
       </c>
       <c r="AI2" t="n">
-        <v>331.1750793457031</v>
+        <v>299.9180908203125</v>
       </c>
       <c r="AJ2" t="n">
-        <v>330.9982604980469</v>
+        <v>299.6354064941406</v>
       </c>
       <c r="AK2" t="n">
-        <v>329.7904663085938</v>
+        <v>299.3519897460938</v>
       </c>
       <c r="AL2" t="n">
-        <v>327.9771118164062</v>
+        <v>299.0044860839844</v>
       </c>
       <c r="AM2" t="n">
-        <v>325.990966796875</v>
+        <v>298.3785095214844</v>
       </c>
       <c r="AN2" t="n">
-        <v>325.1543579101562</v>
+        <v>297.9047241210938</v>
       </c>
       <c r="AO2" t="n">
-        <v>324.5718994140625</v>
+        <v>297.7783203125</v>
       </c>
       <c r="AP2" t="n">
-        <v>323.99267578125</v>
+        <v>297.6480102539062</v>
       </c>
       <c r="AQ2" t="n">
-        <v>323.4844360351562</v>
+        <v>297.4416809082031</v>
       </c>
       <c r="AR2" t="n">
-        <v>322.8201904296875</v>
+        <v>297.4446411132812</v>
       </c>
       <c r="AS2" t="n">
-        <v>321.8351745605469</v>
+        <v>297.43115234375</v>
       </c>
       <c r="AT2" t="n">
-        <v>320.6517333984375</v>
+        <v>297.5751037597656</v>
       </c>
       <c r="AU2" t="n">
-        <v>320.3079833984375</v>
+        <v>297.4827270507812</v>
       </c>
       <c r="AV2" t="n">
-        <v>319.9493408203125</v>
+        <v>297.3226318359375</v>
       </c>
       <c r="AW2" t="n">
-        <v>319.6566772460938</v>
+        <v>297.2203674316406</v>
       </c>
       <c r="AX2" t="n">
-        <v>319.0321044921875</v>
+        <v>297.0592041015625</v>
       </c>
       <c r="AY2" t="n">
-        <v>318.43115234375</v>
+        <v>296.8041381835938</v>
       </c>
       <c r="AZ2" t="n">
-        <v>317.8494262695312</v>
+        <v>296.4026794433594</v>
       </c>
       <c r="BA2" t="n">
-        <v>317.3646240234375</v>
+        <v>296.2126159667969</v>
       </c>
       <c r="BB2" t="n">
-        <v>316.2529907226562</v>
+        <v>296.0301513671875</v>
       </c>
       <c r="BC2" t="n">
-        <v>314.8013916015625</v>
+        <v>295.897216796875</v>
       </c>
       <c r="BD2" t="n">
-        <v>314.2484436035156</v>
+        <v>295.9451293945312</v>
       </c>
       <c r="BE2" t="n">
-        <v>313.3289489746094</v>
+        <v>296.2880859375</v>
       </c>
       <c r="BF2" t="n">
-        <v>312.1449890136719</v>
+        <v>296.8583374023438</v>
       </c>
       <c r="BG2" t="n">
-        <v>311.1170349121094</v>
+        <v>297.4335021972656</v>
       </c>
       <c r="BH2" t="n">
-        <v>309.9083251953125</v>
+        <v>297.9013977050781</v>
       </c>
       <c r="BI2" t="n">
-        <v>307.300048828125</v>
+        <v>298.1111450195312</v>
       </c>
       <c r="BJ2" t="n">
-        <v>304.203369140625</v>
+        <v>298.1227722167969</v>
       </c>
       <c r="BK2" t="n">
-        <v>299.8767395019531</v>
+        <v>297.9713134765625</v>
       </c>
       <c r="BL2" t="n">
-        <v>295.9706726074219</v>
+        <v>297.9778137207031</v>
       </c>
       <c r="BM2" t="n">
-        <v>291.656982421875</v>
+        <v>297.9844360351562</v>
       </c>
       <c r="BN2" t="n">
-        <v>287.8370056152344</v>
+        <v>297.9365844726562</v>
       </c>
       <c r="BO2" t="n">
-        <v>280.1627197265625</v>
+        <v>297.8921813964844</v>
       </c>
       <c r="BP2" t="n">
-        <v>276.6036987304688</v>
+        <v>297.8856811523438</v>
       </c>
       <c r="BQ2" t="n">
-        <v>273.5416564941406</v>
+        <v>297.8386535644531</v>
       </c>
       <c r="BR2" t="n">
-        <v>270.5604858398438</v>
+        <v>297.7790222167969</v>
       </c>
       <c r="BS2" t="n">
-        <v>268.5188293457031</v>
+        <v>297.734130859375</v>
       </c>
       <c r="BT2" t="n">
-        <v>266.2850341796875</v>
+        <v>297.6923217773438</v>
       </c>
       <c r="BU2" t="n">
-        <v>264.9153137207031</v>
+        <v>297.8453369140625</v>
       </c>
       <c r="BV2" t="n">
-        <v>263.4137268066406</v>
+        <v>298.1386108398438</v>
       </c>
       <c r="BW2" t="n">
-        <v>262.6477966308594</v>
+        <v>298.2256774902344</v>
       </c>
       <c r="BX2" t="n">
-        <v>262.2552185058594</v>
+        <v>298.3269653320312</v>
       </c>
       <c r="BY2" t="n">
-        <v>262.17724609375</v>
+        <v>298.330078125</v>
       </c>
       <c r="BZ2" t="n">
-        <v>262.318603515625</v>
+        <v>298.3153991699219</v>
       </c>
       <c r="CA2" t="n">
-        <v>263.8619079589844</v>
+        <v>298.2857971191406</v>
       </c>
       <c r="CB2" t="n">
-        <v>266.00537109375</v>
+        <v>298.2201843261719</v>
       </c>
       <c r="CC2" t="n">
-        <v>270.4866943359375</v>
+        <v>298.13525390625</v>
       </c>
       <c r="CD2" t="n">
-        <v>273.1872253417969</v>
+        <v>298.0259704589844</v>
       </c>
       <c r="CE2" t="n">
-        <v>279.4435729980469</v>
+        <v>297.8865661621094</v>
       </c>
       <c r="CF2" t="n">
-        <v>283.1434631347656</v>
+        <v>297.7576293945312</v>
       </c>
       <c r="CG2" t="n">
-        <v>285.7237243652344</v>
+        <v>297.609130859375</v>
       </c>
       <c r="CH2" t="n">
-        <v>292.2364807128906</v>
+        <v>297.4532775878906</v>
       </c>
       <c r="CI2" t="n">
-        <v>296.1177978515625</v>
+        <v>297.1376647949219</v>
       </c>
       <c r="CJ2" t="n">
-        <v>300.185791015625</v>
+        <v>297.0506286621094</v>
       </c>
       <c r="CK2" t="n">
-        <v>303.0440673828125</v>
+        <v>297.0055236816406</v>
       </c>
       <c r="CL2" t="n">
-        <v>306.2315673828125</v>
+        <v>296.9725952148438</v>
       </c>
       <c r="CM2" t="n">
-        <v>309.4992370605469</v>
+        <v>296.9286193847656</v>
       </c>
       <c r="CN2" t="n">
-        <v>313.9865417480469</v>
+        <v>296.9274291992188</v>
       </c>
       <c r="CO2" t="n">
-        <v>316.2395629882812</v>
+        <v>296.9282531738281</v>
       </c>
       <c r="CP2" t="n">
-        <v>318.4704284667969</v>
+        <v>296.9350891113281</v>
       </c>
       <c r="CQ2" t="n">
-        <v>320.0475769042969</v>
+        <v>296.9304809570312</v>
       </c>
       <c r="CR2" t="n">
-        <v>321.1570434570312</v>
+        <v>296.9031066894531</v>
       </c>
       <c r="CS2" t="n">
-        <v>322.0132141113281</v>
+        <v>296.8765258789062</v>
       </c>
       <c r="CT2" t="n">
-        <v>322.1107482910156</v>
+        <v>296.8580017089844</v>
       </c>
       <c r="CU2" t="n">
-        <v>322.1248779296875</v>
+        <v>296.8440856933594</v>
       </c>
       <c r="CV2" t="n">
-        <v>321.0430603027344</v>
+        <v>296.8385925292969</v>
       </c>
       <c r="CW2" t="n">
-        <v>318.2848510742188</v>
+        <v>296.8340148925781</v>
       </c>
       <c r="CX2" t="n">
-        <v>312.7799987792969</v>
+        <v>296.8365478515625</v>
       </c>
       <c r="CY2" t="n">
-        <v>309.9899291992188</v>
+        <v>296.84423828125</v>
       </c>
       <c r="CZ2" t="n">
-        <v>305.2050170898438</v>
+        <v>296.8481750488281</v>
       </c>
       <c r="DA2" t="n">
-        <v>302.9765625</v>
+        <v>296.8558959960938</v>
       </c>
       <c r="DB2" t="n">
-        <v>300.17919921875</v>
+        <v>296.8659362792969</v>
       </c>
       <c r="DC2" t="n">
-        <v>296.1329345703125</v>
+        <v>296.9056396484375</v>
       </c>
       <c r="DD2" t="n">
-        <v>291.7072448730469</v>
+        <v>297.0374450683594</v>
       </c>
       <c r="DE2" t="n">
-        <v>284.3155822753906</v>
+        <v>297.2184143066406</v>
       </c>
       <c r="DF2" t="n">
-        <v>279.179443359375</v>
+        <v>297.8206176757812</v>
       </c>
       <c r="DG2" t="n">
-        <v>276.1193542480469</v>
+        <v>298.1876220703125</v>
       </c>
       <c r="DH2" t="n">
-        <v>270.8378295898438</v>
+        <v>299.0552368164062</v>
       </c>
       <c r="DI2" t="n">
-        <v>268.3846435546875</v>
+        <v>299.2088317871094</v>
       </c>
       <c r="DJ2" t="n">
-        <v>265.2395324707031</v>
+        <v>299.2495727539062</v>
       </c>
       <c r="DK2" t="n">
-        <v>262.8114013671875</v>
+        <v>299.1821899414062</v>
       </c>
       <c r="DL2" t="n">
-        <v>261.621826171875</v>
+        <v>299.1317749023438</v>
       </c>
       <c r="DM2" t="n">
-        <v>260.5389404296875</v>
+        <v>299.1549987792969</v>
       </c>
       <c r="DN2" t="n">
-        <v>259.5138549804688</v>
+        <v>299.1876525878906</v>
       </c>
       <c r="DO2" t="n">
-        <v>258.5855102539062</v>
+        <v>299.2773132324219</v>
       </c>
       <c r="DP2" t="n">
-        <v>257.9718933105469</v>
+        <v>299.3262329101562</v>
       </c>
       <c r="DQ2" t="n">
-        <v>257.2879943847656</v>
+        <v>299.4122314453125</v>
       </c>
       <c r="DR2" t="n">
-        <v>257.1056518554688</v>
+        <v>299.4560546875</v>
       </c>
       <c r="DS2" t="n">
-        <v>257.1200866699219</v>
+        <v>299.499755859375</v>
       </c>
       <c r="DT2" t="n">
-        <v>257.7393188476562</v>
+        <v>299.6494445800781</v>
       </c>
       <c r="DU2" t="n">
-        <v>259.0778503417969</v>
+        <v>299.7221374511719</v>
       </c>
       <c r="DV2" t="n">
-        <v>260.1361694335938</v>
+        <v>299.8707275390625</v>
       </c>
       <c r="DW2" t="n">
-        <v>266.4501647949219</v>
+        <v>299.9309692382812</v>
       </c>
       <c r="DX2" t="n">
-        <v>270.3214416503906</v>
+        <v>300.0350036621094</v>
       </c>
       <c r="DY2" t="n">
-        <v>274.907470703125</v>
+        <v>300.2234802246094</v>
       </c>
       <c r="DZ2" t="n">
-        <v>282.6063232421875</v>
+        <v>300.2882385253906</v>
       </c>
       <c r="EA2" t="n">
-        <v>286.4896240234375</v>
+        <v>300.2789306640625</v>
       </c>
       <c r="EB2" t="n">
-        <v>298.5017395019531</v>
+        <v>300.2574157714844</v>
       </c>
       <c r="EC2" t="n">
-        <v>305.4405822753906</v>
+        <v>300.2689514160156</v>
       </c>
       <c r="ED2" t="n">
-        <v>312.9609680175781</v>
+        <v>300.3541564941406</v>
       </c>
       <c r="EE2" t="n">
-        <v>323.53955078125</v>
+        <v>299.8053894042969</v>
       </c>
       <c r="EF2" t="n">
-        <v>339.40966796875</v>
+        <v>298.1406860351562</v>
       </c>
       <c r="EG2" t="n">
-        <v>352.2982177734375</v>
+        <v>297.11767578125</v>
       </c>
       <c r="EH2" t="n">
-        <v>359.2647705078125</v>
+        <v>295.874755859375</v>
       </c>
       <c r="EI2" t="n">
-        <v>371.1799926757812</v>
+        <v>295.4164428710938</v>
       </c>
       <c r="EJ2" t="n">
-        <v>376.2479248046875</v>
+        <v>295.1859130859375</v>
       </c>
       <c r="EK2" t="n">
-        <v>384.119873046875</v>
+        <v>294.6093444824219</v>
       </c>
       <c r="EL2" t="n">
-        <v>387.4730224609375</v>
+        <v>294.4065246582031</v>
       </c>
       <c r="EM2" t="n">
-        <v>392.4283142089844</v>
+        <v>294.3404235839844</v>
       </c>
       <c r="EN2" t="n">
-        <v>394.926025390625</v>
+        <v>294.2306518554688</v>
       </c>
       <c r="EO2" t="n">
-        <v>398.437255859375</v>
+        <v>294.0637512207031</v>
       </c>
       <c r="EP2" t="n">
-        <v>401.1470336914062</v>
+        <v>294.01171875</v>
       </c>
       <c r="EQ2" t="n">
-        <v>404.6065673828125</v>
+        <v>294.11181640625</v>
       </c>
       <c r="ER2" t="n">
-        <v>405.1367492675781</v>
+        <v>294.2626953125</v>
       </c>
       <c r="ES2" t="n">
-        <v>406.1065063476562</v>
+        <v>294.2128601074219</v>
       </c>
       <c r="ET2" t="n">
-        <v>408.4265441894531</v>
+        <v>293.8454284667969</v>
       </c>
       <c r="EU2" t="n">
-        <v>410.0777893066406</v>
+        <v>293.9428405761719</v>
       </c>
       <c r="EV2" t="n">
-        <v>410.9669799804688</v>
+        <v>294.1192932128906</v>
       </c>
       <c r="EW2" t="n">
-        <v>411.880615234375</v>
+        <v>294.1720581054688</v>
       </c>
       <c r="EX2" t="n">
-        <v>414.0920715332031</v>
+        <v>294.1585693359375</v>
       </c>
       <c r="EY2" t="n">
-        <v>414.8292846679688</v>
+        <v>294.5945129394531</v>
       </c>
       <c r="EZ2" t="n">
-        <v>415.9398803710938</v>
+        <v>295.5975952148438</v>
       </c>
       <c r="FA2" t="n">
-        <v>417.754150390625</v>
+        <v>296.0810241699219</v>
       </c>
       <c r="FB2" t="n">
-        <v>418.8821105957031</v>
+        <v>296.9119873046875</v>
       </c>
       <c r="FC2" t="n">
-        <v>417.2537231445312</v>
+        <v>298.0245666503906</v>
       </c>
       <c r="FD2" t="n">
-        <v>415.3934326171875</v>
+        <v>298.883544921875</v>
       </c>
       <c r="FE2" t="n">
-        <v>415.13623046875</v>
+        <v>299.2858581542969</v>
       </c>
       <c r="FF2" t="n">
-        <v>415.2244567871094</v>
+        <v>301.1859436035156</v>
       </c>
       <c r="FG2" t="n">
-        <v>414.576416015625</v>
+        <v>302.2782897949219</v>
       </c>
       <c r="FH2" t="n">
-        <v>414.0543823242188</v>
+        <v>303.7884521484375</v>
       </c>
       <c r="FI2" t="n">
-        <v>413.1590270996094</v>
+        <v>304.1796264648438</v>
       </c>
       <c r="FJ2" t="n">
-        <v>412.4618835449219</v>
+        <v>304.7656860351562</v>
       </c>
       <c r="FK2" t="n">
-        <v>412.1932373046875</v>
+        <v>306.4906005859375</v>
       </c>
       <c r="FL2" t="n">
-        <v>411.4359741210938</v>
+        <v>306.8314208984375</v>
       </c>
       <c r="FM2" t="n">
-        <v>410.5862121582031</v>
+        <v>307.4957275390625</v>
       </c>
       <c r="FN2" t="n">
-        <v>409.9797058105469</v>
+        <v>308.8226318359375</v>
       </c>
       <c r="FO2" t="n">
-        <v>409.406494140625</v>
+        <v>308.6921691894531</v>
       </c>
       <c r="FP2" t="n">
-        <v>407.0389404296875</v>
+        <v>307.2329711914062</v>
       </c>
       <c r="FQ2" t="n">
-        <v>403.9187622070312</v>
+        <v>305.9807434082031</v>
       </c>
       <c r="FR2" t="n">
-        <v>401.0149841308594</v>
+        <v>303.2435607910156</v>
       </c>
       <c r="FS2" t="n">
-        <v>397.4500732421875</v>
+        <v>302.3416137695312</v>
       </c>
       <c r="FT2" t="n">
-        <v>393.5416259765625</v>
+        <v>299.7599182128906</v>
       </c>
       <c r="FU2" t="n">
-        <v>390.9161682128906</v>
+        <v>295.9185485839844</v>
       </c>
       <c r="FV2" t="n">
-        <v>383.3736572265625</v>
+        <v>291.102783203125</v>
       </c>
       <c r="FW2" t="n">
-        <v>376.8029174804688</v>
+        <v>282.2211303710938</v>
       </c>
       <c r="FX2" t="n">
-        <v>374.6465454101562</v>
+        <v>278.6227416992188</v>
       </c>
       <c r="FY2" t="n">
-        <v>373.3453369140625</v>
+        <v>273.9823608398438</v>
       </c>
       <c r="FZ2" t="n">
-        <v>368.5789794921875</v>
+        <v>271.1656494140625</v>
       </c>
       <c r="GA2" t="n">
-        <v>367.0011596679688</v>
+        <v>265.377197265625</v>
       </c>
       <c r="GB2" t="n">
-        <v>363.62109375</v>
+        <v>262.74853515625</v>
       </c>
       <c r="GC2" t="n">
-        <v>362.831298828125</v>
+        <v>257.6568908691406</v>
       </c>
       <c r="GD2" t="n">
-        <v>362.1856079101562</v>
+        <v>254.8883972167969</v>
       </c>
       <c r="GE2" t="n">
-        <v>362.0079956054688</v>
+        <v>251.5895843505859</v>
       </c>
       <c r="GF2" t="n">
-        <v>361.4812622070312</v>
+        <v>249.3406524658203</v>
       </c>
       <c r="GG2" t="n">
-        <v>362.1558837890625</v>
+        <v>247.8770294189453</v>
       </c>
       <c r="GH2" t="n">
-        <v>363.0870971679688</v>
+        <v>245.1560668945312</v>
       </c>
       <c r="GI2" t="n">
-        <v>363.4954223632812</v>
+        <v>242.7794189453125</v>
       </c>
       <c r="GJ2" t="n">
-        <v>362.1578979492188</v>
+        <v>241.6958312988281</v>
       </c>
       <c r="GK2" t="n">
-        <v>360.78515625</v>
+        <v>239.3798675537109</v>
       </c>
       <c r="GL2" t="n">
-        <v>357.0036315917969</v>
+        <v>237.3316040039062</v>
       </c>
       <c r="GM2" t="n">
-        <v>353.051025390625</v>
+        <v>234.0410461425781</v>
       </c>
       <c r="GN2" t="n">
-        <v>350.3662719726562</v>
+        <v>233.7674713134766</v>
       </c>
       <c r="GO2" t="n">
-        <v>344.5040893554688</v>
+        <v>230.4001007080078</v>
       </c>
       <c r="GP2" t="n">
-        <v>337.767578125</v>
+        <v>227.1736450195312</v>
       </c>
       <c r="GQ2" t="n">
-        <v>327.3454284667969</v>
+        <v>226.2204284667969</v>
       </c>
       <c r="GR2" t="n">
-        <v>320.731689453125</v>
+        <v>222.5836791992188</v>
       </c>
       <c r="GS2" t="n">
-        <v>314.7628173828125</v>
+        <v>220.3843841552734</v>
       </c>
       <c r="GT2" t="n">
-        <v>312.69873046875</v>
+        <v>218.0710144042969</v>
       </c>
       <c r="GU2" t="n">
-        <v>306.5317077636719</v>
+        <v>213.0820922851562</v>
       </c>
       <c r="GV2" t="n">
-        <v>303.3493041992188</v>
+        <v>207.3557891845703</v>
       </c>
       <c r="GW2" t="n">
-        <v>301.8019714355469</v>
+        <v>200.3362731933594</v>
       </c>
       <c r="GX2" t="n">
-        <v>299.53515625</v>
+        <v>188.7828674316406</v>
       </c>
       <c r="GY2" t="n">
-        <v>297.6904602050781</v>
+        <v>173.5780944824219</v>
       </c>
       <c r="GZ2" t="n">
-        <v>297.0511779785156</v>
+        <v>157.4313507080078</v>
       </c>
       <c r="HA2" t="n">
-        <v>296.60009765625</v>
+        <v>128.3219146728516</v>
       </c>
       <c r="HB2" t="n">
-        <v>296.2110595703125</v>
+        <v>104.8716583251953</v>
       </c>
       <c r="HC2" t="n">
-        <v>296.3565368652344</v>
+        <v>84.4654541015625</v>
       </c>
       <c r="HD2" t="n">
-        <v>296.4443054199219</v>
+        <v>63.49934005737305</v>
       </c>
       <c r="HE2" t="n">
-        <v>296.6687622070312</v>
+        <v>41.87492370605469</v>
       </c>
       <c r="HF2" t="n">
-        <v>297.9688110351562</v>
+        <v>24.37507247924805</v>
       </c>
       <c r="HG2" t="n">
-        <v>301.2462463378906</v>
+        <v>17.47234916687012</v>
       </c>
       <c r="HH2" t="n">
-        <v>302.8489074707031</v>
+        <v>25.54170227050781</v>
       </c>
       <c r="HI2" t="n">
-        <v>304.7725219726562</v>
+        <v>36.67015838623047</v>
       </c>
       <c r="HJ2" t="n">
-        <v>308.884765625</v>
+        <v>41.52468872070312</v>
       </c>
       <c r="HK2" t="n">
-        <v>316.8988342285156</v>
+        <v>38.8996467590332</v>
       </c>
       <c r="HL2" t="n">
-        <v>325.4210815429688</v>
+        <v>41.507080078125</v>
       </c>
       <c r="HM2" t="n">
-        <v>332.3182373046875</v>
+        <v>45.71559143066406</v>
       </c>
       <c r="HN2" t="n">
-        <v>342.330078125</v>
+        <v>57.78049468994141</v>
       </c>
       <c r="HO2" t="n">
-        <v>357.4907836914062</v>
+        <v>47.77980804443359</v>
       </c>
       <c r="HP2" t="n">
-        <v>366.0474243164062</v>
+        <v>63.88858032226562</v>
       </c>
       <c r="HQ2" t="n">
-        <v>370.4132690429688</v>
+        <v>65.15898132324219</v>
       </c>
       <c r="HR2" t="n">
-        <v>382.9276733398438</v>
+        <v>64.09972381591797</v>
       </c>
       <c r="HS2" t="n">
-        <v>388.52197265625</v>
+        <v>78.37915802001953</v>
       </c>
       <c r="HT2" t="n">
-        <v>393.2754211425781</v>
+        <v>95.04458618164062</v>
       </c>
       <c r="HU2" t="n">
-        <v>396.8210144042969</v>
+        <v>108.9456329345703</v>
       </c>
       <c r="HV2" t="n">
-        <v>400.5627136230469</v>
+        <v>121.9624252319336</v>
       </c>
       <c r="HW2" t="n">
-        <v>403.5583801269531</v>
+        <v>137.5487213134766</v>
       </c>
       <c r="HX2" t="n">
-        <v>407.0071716308594</v>
+        <v>165.4974670410156</v>
       </c>
       <c r="HY2" t="n">
-        <v>408.1547241210938</v>
+        <v>197.1362152099609</v>
       </c>
       <c r="HZ2" t="n">
-        <v>409.3335571289062</v>
+        <v>222.2396697998047</v>
       </c>
       <c r="IA2" t="n">
-        <v>409.86669921875</v>
+        <v>237.4252624511719</v>
       </c>
       <c r="IB2" t="n">
-        <v>409.7010498046875</v>
+        <v>256.2678833007812</v>
       </c>
       <c r="IC2" t="n">
-        <v>409.2908020019531</v>
+        <v>269.9620361328125</v>
       </c>
       <c r="ID2" t="n">
-        <v>407.0038452148438</v>
+        <v>277.0530700683594</v>
       </c>
       <c r="IE2" t="n">
-        <v>403.9743347167969</v>
+        <v>282.6522827148438</v>
       </c>
       <c r="IF2" t="n">
-        <v>400.6279907226562</v>
+        <v>286.6817932128906</v>
       </c>
       <c r="IG2" t="n">
-        <v>397.5006713867188</v>
+        <v>287.7592163085938</v>
       </c>
       <c r="IH2" t="n">
-        <v>390.443603515625</v>
+        <v>288.4817810058594</v>
       </c>
       <c r="II2" t="n">
-        <v>384.68115234375</v>
+        <v>286.8861999511719</v>
       </c>
       <c r="IJ2" t="n">
-        <v>377.024169921875</v>
+        <v>281.7359313964844</v>
       </c>
       <c r="IK2" t="n">
-        <v>364.459716796875</v>
+        <v>276.7628784179688</v>
       </c>
       <c r="IL2" t="n">
-        <v>359.4771118164062</v>
+        <v>269.8698120117188</v>
       </c>
       <c r="IM2" t="n">
-        <v>350.2670593261719</v>
+        <v>260.7568054199219</v>
       </c>
       <c r="IN2" t="n">
-        <v>335.8574829101562</v>
+        <v>238.2684936523438</v>
       </c>
       <c r="IO2" t="n">
-        <v>329.7203369140625</v>
+        <v>227.013671875</v>
       </c>
       <c r="IP2" t="n">
-        <v>326.6800537109375</v>
+        <v>219.8361511230469</v>
       </c>
       <c r="IQ2" t="n">
-        <v>316.362060546875</v>
+        <v>198.4976501464844</v>
       </c>
       <c r="IR2" t="n">
-        <v>310.1337585449219</v>
+        <v>193.1574859619141</v>
       </c>
       <c r="IS2" t="n">
-        <v>308.6090087890625</v>
+        <v>183.5181884765625</v>
       </c>
       <c r="IT2" t="n">
-        <v>302.6751098632812</v>
+        <v>171.4501647949219</v>
       </c>
       <c r="IU2" t="n">
-        <v>299.7713928222656</v>
+        <v>165.5257263183594</v>
       </c>
       <c r="IV2" t="n">
-        <v>299.0284118652344</v>
+        <v>163.0484924316406</v>
       </c>
       <c r="IW2" t="n">
-        <v>299.2428283691406</v>
+        <v>158.2987213134766</v>
       </c>
       <c r="IX2" t="n">
-        <v>298.362548828125</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>298.5507202148438</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>299.0482177734375</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>301.3555908203125</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>304.4440002441406</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>309.0496215820312</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>312.734130859375</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>320.6829223632812</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>326.91455078125</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>334.7522277832031</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>341.9085388183594</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>346.6048583984375</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>351.0675659179688</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>357.211669921875</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>363.7654418945312</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>367.7967834472656</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>371.7610473632812</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>375.7841491699219</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>377.7514343261719</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>379.5690307617188</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>381.0428161621094</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>382.662109375</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>384.2083129882812</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>385.012451171875</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>385.4741821289062</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>385.7206420898438</v>
-      </c>
-      <c r="JX2" t="n">
-        <v>385.9936828613281</v>
-      </c>
-      <c r="JY2" t="n">
-        <v>386.0401000976562</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>386.1855773925781</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>386.1605224609375</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>386.1367797851562</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>386.0987548828125</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>385.2667846679688</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>384.7549133300781</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>384.7364501953125</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>384.5832824707031</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>384.3434448242188</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>384.0257568359375</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>383.6287231445312</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>383.3661499023438</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>383.1029968261719</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>383.0528564453125</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>383.1151733398438</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>383.193359375</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>383.68603515625</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>384.9546813964844</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>385.8676147460938</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>386.4526672363281</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>386.6748352050781</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>386.8394775390625</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>387.1825866699219</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>387.24462890625</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>387.5015869140625</v>
-      </c>
-      <c r="KY2" t="n">
-        <v>387.8153991699219</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>388.2743530273438</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>389.5005798339844</v>
-      </c>
-      <c r="LB2" t="n">
-        <v>390.6920166015625</v>
-      </c>
-      <c r="LC2" t="n">
-        <v>391.064697265625</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>392.30078125</v>
-      </c>
-      <c r="LE2" t="n">
-        <v>393.4204406738281</v>
-      </c>
-      <c r="LF2" t="n">
-        <v>394.4990539550781</v>
-      </c>
-      <c r="LG2" t="n">
-        <v>395.9283447265625</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>397.6453247070312</v>
-      </c>
-      <c r="LI2" t="n">
-        <v>401.5397644042969</v>
-      </c>
-      <c r="LJ2" t="n">
-        <v>403.4205322265625</v>
-      </c>
-      <c r="LK2" t="n">
-        <v>405.877197265625</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>408.0615234375</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>406.9812316894531</v>
-      </c>
-      <c r="LN2" t="n">
-        <v>408.45361328125</v>
-      </c>
-      <c r="LO2" t="n">
-        <v>407.7840881347656</v>
-      </c>
-      <c r="LP2" t="n">
-        <v>412.6400451660156</v>
-      </c>
-      <c r="LQ2" t="n">
-        <v>416.0562744140625</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>417.7908020019531</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>419.4293823242188</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>423.9493408203125</v>
-      </c>
-      <c r="LU2" t="n">
-        <v>423.7999877929688</v>
-      </c>
-      <c r="LV2" t="n">
-        <v>422.9768676757812</v>
-      </c>
-      <c r="LW2" t="n">
-        <v>411.9369201660156</v>
-      </c>
-      <c r="LX2" t="n">
-        <v>405.6421203613281</v>
-      </c>
-      <c r="LY2" t="n">
-        <v>393.6398620605469</v>
-      </c>
-      <c r="LZ2" t="n">
-        <v>383.016845703125</v>
-      </c>
-      <c r="MA2" t="n">
-        <v>357.09375</v>
-      </c>
-      <c r="MB2" t="n">
-        <v>335.7324829101562</v>
-      </c>
-      <c r="MC2" t="n">
-        <v>317.5265808105469</v>
-      </c>
-      <c r="MD2" t="n">
-        <v>294.6690979003906</v>
-      </c>
-      <c r="ME2" t="n">
-        <v>275.734130859375</v>
-      </c>
-      <c r="MF2" t="n">
-        <v>264.8985290527344</v>
-      </c>
-      <c r="MG2" t="n">
-        <v>261.3684692382812</v>
-      </c>
-      <c r="MH2" t="n">
-        <v>261.2856140136719</v>
-      </c>
-      <c r="MI2" t="n">
-        <v>265.9720458984375</v>
-      </c>
-      <c r="MJ2" t="n">
-        <v>276.1330871582031</v>
-      </c>
-      <c r="MK2" t="n">
-        <v>289.1268920898438</v>
-      </c>
-      <c r="ML2" t="n">
-        <v>303.1277160644531</v>
-      </c>
-      <c r="MM2" t="n">
-        <v>314.7255554199219</v>
-      </c>
-      <c r="MN2" t="n">
-        <v>322.986083984375</v>
-      </c>
-      <c r="MO2" t="n">
-        <v>327.7869262695312</v>
-      </c>
-      <c r="MP2" t="n">
-        <v>330.04248046875</v>
-      </c>
-      <c r="MQ2" t="n">
-        <v>330.4741821289062</v>
-      </c>
-      <c r="MR2" t="n">
-        <v>323.9077758789062</v>
-      </c>
-      <c r="MS2" t="n">
-        <v>317.6264038085938</v>
-      </c>
-      <c r="MT2" t="n">
-        <v>305.8760681152344</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>314.7727966308594</v>
-      </c>
-      <c r="MV2" t="n">
-        <v>301.6565246582031</v>
-      </c>
-      <c r="MW2" t="n">
-        <v>282.0534057617188</v>
-      </c>
-      <c r="MX2" t="n">
-        <v>277.8780517578125</v>
-      </c>
-      <c r="MY2" t="n">
-        <v>272.9063110351562</v>
-      </c>
-      <c r="MZ2" t="n">
-        <v>269.6856994628906</v>
-      </c>
-      <c r="NA2" t="n">
-        <v>263.2101135253906</v>
-      </c>
-      <c r="NB2" t="n">
-        <v>263.0846252441406</v>
-      </c>
-      <c r="NC2" t="n">
-        <v>263.9120483398438</v>
-      </c>
-      <c r="ND2" t="n">
-        <v>265.7249145507812</v>
-      </c>
-      <c r="NE2" t="n">
-        <v>272.1659240722656</v>
-      </c>
-      <c r="NF2" t="n">
-        <v>279.0957946777344</v>
-      </c>
-      <c r="NG2" t="n">
-        <v>285.1251525878906</v>
-      </c>
-      <c r="NH2" t="n">
-        <v>288.0828857421875</v>
-      </c>
-      <c r="NI2" t="n">
-        <v>289.5184936523438</v>
-      </c>
-      <c r="NJ2" t="n">
-        <v>289.7688598632812</v>
-      </c>
-      <c r="NK2" t="n">
-        <v>289.9174499511719</v>
-      </c>
-      <c r="NL2" t="n">
-        <v>289.7631225585938</v>
-      </c>
-      <c r="NM2" t="n">
-        <v>289.5580749511719</v>
+        <v>156.6830902099609</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>185.4189910888672</v>
+        <v>190.1154479980469</v>
       </c>
       <c r="B3" t="n">
-        <v>189.6234436035156</v>
+        <v>193.2192993164062</v>
       </c>
       <c r="C3" t="n">
-        <v>187.0162353515625</v>
+        <v>192.4981994628906</v>
       </c>
       <c r="D3" t="n">
-        <v>186.9100036621094</v>
+        <v>193.6250762939453</v>
       </c>
       <c r="E3" t="n">
-        <v>188.7848052978516</v>
+        <v>193.8334655761719</v>
       </c>
       <c r="F3" t="n">
-        <v>189.4958648681641</v>
+        <v>196.2137756347656</v>
       </c>
       <c r="G3" t="n">
-        <v>188.2778472900391</v>
+        <v>197.0281066894531</v>
       </c>
       <c r="H3" t="n">
-        <v>191.8733520507812</v>
+        <v>200.9394683837891</v>
       </c>
       <c r="I3" t="n">
-        <v>194.4323577880859</v>
+        <v>203.2775115966797</v>
       </c>
       <c r="J3" t="n">
-        <v>196.9090881347656</v>
+        <v>208.7140197753906</v>
       </c>
       <c r="K3" t="n">
-        <v>197.4113311767578</v>
+        <v>210.7196350097656</v>
       </c>
       <c r="L3" t="n">
-        <v>193.7893218994141</v>
+        <v>216.7303619384766</v>
       </c>
       <c r="M3" t="n">
-        <v>193.8808898925781</v>
+        <v>219.4493560791016</v>
       </c>
       <c r="N3" t="n">
-        <v>188.4712219238281</v>
+        <v>223.2890930175781</v>
       </c>
       <c r="O3" t="n">
-        <v>192.0850067138672</v>
+        <v>241.2539367675781</v>
       </c>
       <c r="P3" t="n">
-        <v>189.6787261962891</v>
+        <v>240.7340545654297</v>
       </c>
       <c r="Q3" t="n">
-        <v>190.1407165527344</v>
+        <v>240.962158203125</v>
       </c>
       <c r="R3" t="n">
-        <v>190.6615295410156</v>
+        <v>244.0675964355469</v>
       </c>
       <c r="S3" t="n">
-        <v>191.4338226318359</v>
+        <v>244.8258666992188</v>
       </c>
       <c r="T3" t="n">
-        <v>191.9545135498047</v>
+        <v>245.7993774414062</v>
       </c>
       <c r="U3" t="n">
-        <v>192.4747009277344</v>
+        <v>246.7447814941406</v>
       </c>
       <c r="V3" t="n">
-        <v>195.9132843017578</v>
+        <v>248.3914031982422</v>
       </c>
       <c r="W3" t="n">
-        <v>198.6081848144531</v>
+        <v>250.8983459472656</v>
       </c>
       <c r="X3" t="n">
-        <v>201.2434997558594</v>
+        <v>253.2793579101562</v>
       </c>
       <c r="Y3" t="n">
-        <v>206.8321533203125</v>
+        <v>255.503173828125</v>
       </c>
       <c r="Z3" t="n">
-        <v>210.8808288574219</v>
+        <v>256.3085021972656</v>
       </c>
       <c r="AA3" t="n">
-        <v>211.8052673339844</v>
+        <v>257.5312194824219</v>
       </c>
       <c r="AB3" t="n">
-        <v>214.4714202880859</v>
+        <v>257.9159545898438</v>
       </c>
       <c r="AC3" t="n">
-        <v>215.5455627441406</v>
+        <v>258.9075012207031</v>
       </c>
       <c r="AD3" t="n">
-        <v>217.3581848144531</v>
+        <v>260.1443176269531</v>
       </c>
       <c r="AE3" t="n">
-        <v>218.6736145019531</v>
+        <v>261.3930969238281</v>
       </c>
       <c r="AF3" t="n">
-        <v>219.4910278320312</v>
+        <v>261.5795288085938</v>
       </c>
       <c r="AG3" t="n">
-        <v>219.3777770996094</v>
+        <v>261.8320007324219</v>
       </c>
       <c r="AH3" t="n">
-        <v>219.7249755859375</v>
+        <v>262.180419921875</v>
       </c>
       <c r="AI3" t="n">
-        <v>218.6164398193359</v>
+        <v>262.1873779296875</v>
       </c>
       <c r="AJ3" t="n">
-        <v>218.34130859375</v>
+        <v>263.2493286132812</v>
       </c>
       <c r="AK3" t="n">
-        <v>218.0619201660156</v>
+        <v>264.076171875</v>
       </c>
       <c r="AL3" t="n">
-        <v>217.8848724365234</v>
+        <v>265.005859375</v>
       </c>
       <c r="AM3" t="n">
-        <v>217.7215423583984</v>
+        <v>265.732177734375</v>
       </c>
       <c r="AN3" t="n">
-        <v>218.6351928710938</v>
+        <v>266.9204406738281</v>
       </c>
       <c r="AO3" t="n">
-        <v>219.3087921142578</v>
+        <v>268.0252990722656</v>
       </c>
       <c r="AP3" t="n">
-        <v>220.0402221679688</v>
+        <v>268.829345703125</v>
       </c>
       <c r="AQ3" t="n">
-        <v>220.6598510742188</v>
+        <v>269.3663024902344</v>
       </c>
       <c r="AR3" t="n">
-        <v>221.1197814941406</v>
+        <v>269.967041015625</v>
       </c>
       <c r="AS3" t="n">
-        <v>220.7163238525391</v>
+        <v>270.3615417480469</v>
       </c>
       <c r="AT3" t="n">
-        <v>220.2248229980469</v>
+        <v>270.9881591796875</v>
       </c>
       <c r="AU3" t="n">
-        <v>220.5164642333984</v>
+        <v>271.3021240234375</v>
       </c>
       <c r="AV3" t="n">
-        <v>220.6686859130859</v>
+        <v>271.4741821289062</v>
       </c>
       <c r="AW3" t="n">
-        <v>220.4637756347656</v>
+        <v>271.6178283691406</v>
       </c>
       <c r="AX3" t="n">
-        <v>219.8851318359375</v>
+        <v>271.7972106933594</v>
       </c>
       <c r="AY3" t="n">
-        <v>219.3956146240234</v>
+        <v>271.99609375</v>
       </c>
       <c r="AZ3" t="n">
-        <v>218.9366760253906</v>
+        <v>272.1207885742188</v>
       </c>
       <c r="BA3" t="n">
-        <v>218.8124542236328</v>
+        <v>272.03955078125</v>
       </c>
       <c r="BB3" t="n">
-        <v>217.372314453125</v>
+        <v>272.0183715820312</v>
       </c>
       <c r="BC3" t="n">
-        <v>215.4975891113281</v>
+        <v>271.9962463378906</v>
       </c>
       <c r="BD3" t="n">
-        <v>214.8468322753906</v>
+        <v>271.8412170410156</v>
       </c>
       <c r="BE3" t="n">
-        <v>214.2362213134766</v>
+        <v>271.5783996582031</v>
       </c>
       <c r="BF3" t="n">
-        <v>212.9974365234375</v>
+        <v>271.0669555664062</v>
       </c>
       <c r="BG3" t="n">
-        <v>211.2291107177734</v>
+        <v>270.4897766113281</v>
       </c>
       <c r="BH3" t="n">
-        <v>209.2179565429688</v>
+        <v>270.0264587402344</v>
       </c>
       <c r="BI3" t="n">
-        <v>207.2316284179688</v>
+        <v>269.668701171875</v>
       </c>
       <c r="BJ3" t="n">
-        <v>205.8344421386719</v>
+        <v>269.2821350097656</v>
       </c>
       <c r="BK3" t="n">
-        <v>205.0100250244141</v>
+        <v>268.8627319335938</v>
       </c>
       <c r="BL3" t="n">
-        <v>205.240966796875</v>
+        <v>268.9728088378906</v>
       </c>
       <c r="BM3" t="n">
-        <v>204.6784362792969</v>
+        <v>269.110107421875</v>
       </c>
       <c r="BN3" t="n">
-        <v>204.1246032714844</v>
+        <v>269.2450256347656</v>
       </c>
       <c r="BO3" t="n">
-        <v>201.1545715332031</v>
+        <v>269.5083618164062</v>
       </c>
       <c r="BP3" t="n">
-        <v>199.8846130371094</v>
+        <v>269.6421813964844</v>
       </c>
       <c r="BQ3" t="n">
-        <v>199.4029083251953</v>
+        <v>269.79345703125</v>
       </c>
       <c r="BR3" t="n">
-        <v>198.6355133056641</v>
+        <v>269.9567260742188</v>
       </c>
       <c r="BS3" t="n">
-        <v>198.3183441162109</v>
+        <v>270.1238708496094</v>
       </c>
       <c r="BT3" t="n">
-        <v>197.5675964355469</v>
+        <v>270.269775390625</v>
       </c>
       <c r="BU3" t="n">
-        <v>197.4293212890625</v>
+        <v>270.6242980957031</v>
       </c>
       <c r="BV3" t="n">
-        <v>197.0867462158203</v>
+        <v>271.0503540039062</v>
       </c>
       <c r="BW3" t="n">
-        <v>197.1547393798828</v>
+        <v>271.1174621582031</v>
       </c>
       <c r="BX3" t="n">
-        <v>197.0875854492188</v>
+        <v>271.1847229003906</v>
       </c>
       <c r="BY3" t="n">
-        <v>196.2456359863281</v>
+        <v>271.1051025390625</v>
       </c>
       <c r="BZ3" t="n">
-        <v>196.0674896240234</v>
+        <v>271.0243835449219</v>
       </c>
       <c r="CA3" t="n">
-        <v>196.2440032958984</v>
+        <v>270.9193115234375</v>
       </c>
       <c r="CB3" t="n">
-        <v>196.1027069091797</v>
+        <v>270.82177734375</v>
       </c>
       <c r="CC3" t="n">
-        <v>196.5677490234375</v>
+        <v>270.7140502929688</v>
       </c>
       <c r="CD3" t="n">
-        <v>195.6584014892578</v>
+        <v>270.5855102539062</v>
       </c>
       <c r="CE3" t="n">
-        <v>195.6907958984375</v>
+        <v>270.4039001464844</v>
       </c>
       <c r="CF3" t="n">
-        <v>195.9335784912109</v>
+        <v>270.2098999023438</v>
       </c>
       <c r="CG3" t="n">
-        <v>195.5201416015625</v>
+        <v>270.004638671875</v>
       </c>
       <c r="CH3" t="n">
-        <v>196.5138244628906</v>
+        <v>269.7959289550781</v>
       </c>
       <c r="CI3" t="n">
-        <v>194.5951080322266</v>
+        <v>269.4169006347656</v>
       </c>
       <c r="CJ3" t="n">
-        <v>194.7482452392578</v>
+        <v>269.3451538085938</v>
       </c>
       <c r="CK3" t="n">
-        <v>194.6635437011719</v>
+        <v>269.3468017578125</v>
       </c>
       <c r="CL3" t="n">
-        <v>195.1052398681641</v>
+        <v>269.3568420410156</v>
       </c>
       <c r="CM3" t="n">
-        <v>195.0545349121094</v>
+        <v>269.3320617675781</v>
       </c>
       <c r="CN3" t="n">
-        <v>194.2543640136719</v>
+        <v>269.3733520507812</v>
       </c>
       <c r="CO3" t="n">
-        <v>194.4481048583984</v>
+        <v>269.406982421875</v>
       </c>
       <c r="CP3" t="n">
-        <v>194.6336517333984</v>
+        <v>269.4391784667969</v>
       </c>
       <c r="CQ3" t="n">
-        <v>194.3313598632812</v>
+        <v>269.4920043945312</v>
       </c>
       <c r="CR3" t="n">
-        <v>193.9227447509766</v>
+        <v>269.4954833984375</v>
       </c>
       <c r="CS3" t="n">
-        <v>193.2817993164062</v>
+        <v>269.5013122558594</v>
       </c>
       <c r="CT3" t="n">
-        <v>192.946044921875</v>
+        <v>269.5112609863281</v>
       </c>
       <c r="CU3" t="n">
-        <v>192.8031463623047</v>
+        <v>269.5190124511719</v>
       </c>
       <c r="CV3" t="n">
-        <v>192.0195617675781</v>
+        <v>269.5288391113281</v>
       </c>
       <c r="CW3" t="n">
-        <v>192.3839874267578</v>
+        <v>269.5386047363281</v>
       </c>
       <c r="CX3" t="n">
-        <v>191.9401397705078</v>
+        <v>269.5453186035156</v>
       </c>
       <c r="CY3" t="n">
-        <v>190.6193542480469</v>
+        <v>269.5569152832031</v>
       </c>
       <c r="CZ3" t="n">
-        <v>188.4882659912109</v>
+        <v>269.5602722167969</v>
       </c>
       <c r="DA3" t="n">
-        <v>188.5311126708984</v>
+        <v>269.5661315917969</v>
       </c>
       <c r="DB3" t="n">
-        <v>188.1377105712891</v>
+        <v>269.5736694335938</v>
       </c>
       <c r="DC3" t="n">
-        <v>188.0555725097656</v>
+        <v>269.5637512207031</v>
       </c>
       <c r="DD3" t="n">
-        <v>188.5256042480469</v>
+        <v>269.5359191894531</v>
       </c>
       <c r="DE3" t="n">
-        <v>188.6702575683594</v>
+        <v>269.5564880371094</v>
       </c>
       <c r="DF3" t="n">
-        <v>189.3279876708984</v>
+        <v>270.4392395019531</v>
       </c>
       <c r="DG3" t="n">
-        <v>189.1880493164062</v>
+        <v>271.0899353027344</v>
       </c>
       <c r="DH3" t="n">
-        <v>190.4356079101562</v>
+        <v>272.395751953125</v>
       </c>
       <c r="DI3" t="n">
-        <v>190.8549652099609</v>
+        <v>272.6238098144531</v>
       </c>
       <c r="DJ3" t="n">
-        <v>191.3810272216797</v>
+        <v>272.6782531738281</v>
       </c>
       <c r="DK3" t="n">
-        <v>192.2796478271484</v>
+        <v>272.4362182617188</v>
       </c>
       <c r="DL3" t="n">
-        <v>192.6197509765625</v>
+        <v>272.268798828125</v>
       </c>
       <c r="DM3" t="n">
-        <v>193.0314483642578</v>
+        <v>272.2652587890625</v>
       </c>
       <c r="DN3" t="n">
-        <v>193.4947052001953</v>
+        <v>272.1856384277344</v>
       </c>
       <c r="DO3" t="n">
-        <v>194.1680908203125</v>
+        <v>272.0799255371094</v>
       </c>
       <c r="DP3" t="n">
-        <v>194.7924652099609</v>
+        <v>272.0526428222656</v>
       </c>
       <c r="DQ3" t="n">
-        <v>195.6297454833984</v>
+        <v>272.01025390625</v>
       </c>
       <c r="DR3" t="n">
-        <v>196.1014862060547</v>
+        <v>271.9889221191406</v>
       </c>
       <c r="DS3" t="n">
-        <v>196.5155334472656</v>
+        <v>271.9678344726562</v>
       </c>
       <c r="DT3" t="n">
-        <v>197.9729461669922</v>
+        <v>271.9132385253906</v>
       </c>
       <c r="DU3" t="n">
-        <v>200.1017456054688</v>
+        <v>271.89208984375</v>
       </c>
       <c r="DV3" t="n">
-        <v>201.8211059570312</v>
+        <v>271.8595275878906</v>
       </c>
       <c r="DW3" t="n">
-        <v>203.033203125</v>
+        <v>271.8365783691406</v>
       </c>
       <c r="DX3" t="n">
-        <v>202.2171173095703</v>
+        <v>271.8945922851562</v>
       </c>
       <c r="DY3" t="n">
-        <v>203.5059814453125</v>
+        <v>272.08544921875</v>
       </c>
       <c r="DZ3" t="n">
-        <v>206.1030120849609</v>
+        <v>272.2305908203125</v>
       </c>
       <c r="EA3" t="n">
-        <v>207.7569885253906</v>
+        <v>272.2492980957031</v>
       </c>
       <c r="EB3" t="n">
-        <v>210.9248352050781</v>
+        <v>272.28662109375</v>
       </c>
       <c r="EC3" t="n">
-        <v>212.2212677001953</v>
+        <v>272.289794921875</v>
       </c>
       <c r="ED3" t="n">
-        <v>215.6688995361328</v>
+        <v>272.0397033691406</v>
       </c>
       <c r="EE3" t="n">
-        <v>218.643310546875</v>
+        <v>271.4530334472656</v>
       </c>
       <c r="EF3" t="n">
-        <v>224.7669067382812</v>
+        <v>270.6847229003906</v>
       </c>
       <c r="EG3" t="n">
-        <v>226.516845703125</v>
+        <v>270.7339782714844</v>
       </c>
       <c r="EH3" t="n">
-        <v>227.2164611816406</v>
+        <v>271.6082458496094</v>
       </c>
       <c r="EI3" t="n">
-        <v>229.3562622070312</v>
+        <v>271.8289794921875</v>
       </c>
       <c r="EJ3" t="n">
-        <v>228.61328125</v>
+        <v>271.9327087402344</v>
       </c>
       <c r="EK3" t="n">
-        <v>226.9114074707031</v>
+        <v>272.3161315917969</v>
       </c>
       <c r="EL3" t="n">
-        <v>226.7781219482422</v>
+        <v>272.6320190429688</v>
       </c>
       <c r="EM3" t="n">
-        <v>226.1351318359375</v>
+        <v>272.78662109375</v>
       </c>
       <c r="EN3" t="n">
-        <v>226.482666015625</v>
+        <v>272.8182983398438</v>
       </c>
       <c r="EO3" t="n">
-        <v>227.1790008544922</v>
+        <v>272.8486633300781</v>
       </c>
       <c r="EP3" t="n">
-        <v>228.1978607177734</v>
+        <v>272.8316650390625</v>
       </c>
       <c r="EQ3" t="n">
-        <v>231.7916412353516</v>
+        <v>272.6544799804688</v>
       </c>
       <c r="ER3" t="n">
-        <v>232.0304412841797</v>
+        <v>272.2025451660156</v>
       </c>
       <c r="ES3" t="n">
-        <v>234.7913665771484</v>
+        <v>271.787109375</v>
       </c>
       <c r="ET3" t="n">
-        <v>238.6689453125</v>
+        <v>270.8353576660156</v>
       </c>
       <c r="EU3" t="n">
-        <v>240.0840606689453</v>
+        <v>270.4928588867188</v>
       </c>
       <c r="EV3" t="n">
-        <v>239.4670257568359</v>
+        <v>270.0224304199219</v>
       </c>
       <c r="EW3" t="n">
-        <v>240.3343048095703</v>
+        <v>269.7250671386719</v>
       </c>
       <c r="EX3" t="n">
-        <v>242.8916625976562</v>
+        <v>268.7369689941406</v>
       </c>
       <c r="EY3" t="n">
-        <v>242.7183990478516</v>
+        <v>268.2747497558594</v>
       </c>
       <c r="EZ3" t="n">
-        <v>242.5665130615234</v>
+        <v>266.9444580078125</v>
       </c>
       <c r="FA3" t="n">
-        <v>244.4284362792969</v>
+        <v>266.5739440917969</v>
       </c>
       <c r="FB3" t="n">
-        <v>247.1864624023438</v>
+        <v>265.7847595214844</v>
       </c>
       <c r="FC3" t="n">
-        <v>248.0537567138672</v>
+        <v>264.5581665039062</v>
       </c>
       <c r="FD3" t="n">
-        <v>249.3363494873047</v>
+        <v>263.8267822265625</v>
       </c>
       <c r="FE3" t="n">
-        <v>249.5549621582031</v>
+        <v>263.4523315429688</v>
       </c>
       <c r="FF3" t="n">
-        <v>250.5488433837891</v>
+        <v>260.6159973144531</v>
       </c>
       <c r="FG3" t="n">
-        <v>253.5259094238281</v>
+        <v>258.4366455078125</v>
       </c>
       <c r="FH3" t="n">
-        <v>254.8506469726562</v>
+        <v>255.8982543945312</v>
       </c>
       <c r="FI3" t="n">
-        <v>258.7283630371094</v>
+        <v>255.4215698242188</v>
       </c>
       <c r="FJ3" t="n">
-        <v>260.6496887207031</v>
+        <v>253.4762420654297</v>
       </c>
       <c r="FK3" t="n">
-        <v>264.8236389160156</v>
+        <v>252.2934417724609</v>
       </c>
       <c r="FL3" t="n">
-        <v>265.0981750488281</v>
+        <v>252.0352630615234</v>
       </c>
       <c r="FM3" t="n">
-        <v>264.6876831054688</v>
+        <v>249.70361328125</v>
       </c>
       <c r="FN3" t="n">
-        <v>263.7059631347656</v>
+        <v>248.7649230957031</v>
       </c>
       <c r="FO3" t="n">
-        <v>263.4328002929688</v>
+        <v>246.2121429443359</v>
       </c>
       <c r="FP3" t="n">
-        <v>263.4780883789062</v>
+        <v>245.9039459228516</v>
       </c>
       <c r="FQ3" t="n">
-        <v>263.5700988769531</v>
+        <v>245.5995330810547</v>
       </c>
       <c r="FR3" t="n">
-        <v>264.6589965820312</v>
+        <v>243.9953002929688</v>
       </c>
       <c r="FS3" t="n">
-        <v>264.4879760742188</v>
+        <v>243.7439117431641</v>
       </c>
       <c r="FT3" t="n">
-        <v>264.5090026855469</v>
+        <v>242.6284790039062</v>
       </c>
       <c r="FU3" t="n">
-        <v>264.6435852050781</v>
+        <v>241.8565673828125</v>
       </c>
       <c r="FV3" t="n">
-        <v>268.0917358398438</v>
+        <v>240.5762023925781</v>
       </c>
       <c r="FW3" t="n">
-        <v>270.4234313964844</v>
+        <v>234.4331512451172</v>
       </c>
       <c r="FX3" t="n">
-        <v>271.8706665039062</v>
+        <v>231.5092163085938</v>
       </c>
       <c r="FY3" t="n">
-        <v>273.6398010253906</v>
+        <v>229.1690216064453</v>
       </c>
       <c r="FZ3" t="n">
-        <v>273.275634765625</v>
+        <v>226.4858245849609</v>
       </c>
       <c r="GA3" t="n">
-        <v>273.8749389648438</v>
+        <v>224.2501220703125</v>
       </c>
       <c r="GB3" t="n">
-        <v>272.8716125488281</v>
+        <v>224.5107727050781</v>
       </c>
       <c r="GC3" t="n">
-        <v>272.1960144042969</v>
+        <v>223.9976196289062</v>
       </c>
       <c r="GD3" t="n">
-        <v>271.3368530273438</v>
+        <v>222.7772827148438</v>
       </c>
       <c r="GE3" t="n">
-        <v>271.4301452636719</v>
+        <v>220.7073364257812</v>
       </c>
       <c r="GF3" t="n">
-        <v>270.2935791015625</v>
+        <v>218.9023742675781</v>
       </c>
       <c r="GG3" t="n">
-        <v>267.5524597167969</v>
+        <v>217.8186950683594</v>
       </c>
       <c r="GH3" t="n">
-        <v>265.8002319335938</v>
+        <v>216.5784301757812</v>
       </c>
       <c r="GI3" t="n">
-        <v>265.7396240234375</v>
+        <v>215.0526275634766</v>
       </c>
       <c r="GJ3" t="n">
-        <v>265.3406982421875</v>
+        <v>213.8478698730469</v>
       </c>
       <c r="GK3" t="n">
-        <v>264.793701171875</v>
+        <v>211.7924194335938</v>
       </c>
       <c r="GL3" t="n">
-        <v>263.6260375976562</v>
+        <v>209.9465789794922</v>
       </c>
       <c r="GM3" t="n">
-        <v>263.1658020019531</v>
+        <v>205.3623962402344</v>
       </c>
       <c r="GN3" t="n">
-        <v>262.6651306152344</v>
+        <v>202.7247772216797</v>
       </c>
       <c r="GO3" t="n">
-        <v>263.31103515625</v>
+        <v>192.2494049072266</v>
       </c>
       <c r="GP3" t="n">
-        <v>263.7314147949219</v>
+        <v>184.5519866943359</v>
       </c>
       <c r="GQ3" t="n">
-        <v>265.3547668457031</v>
+        <v>181.771240234375</v>
       </c>
       <c r="GR3" t="n">
-        <v>265.2640686035156</v>
+        <v>175.1488189697266</v>
       </c>
       <c r="GS3" t="n">
-        <v>263.3228454589844</v>
+        <v>172.1118621826172</v>
       </c>
       <c r="GT3" t="n">
-        <v>263.8654479980469</v>
+        <v>168.8697967529297</v>
       </c>
       <c r="GU3" t="n">
-        <v>261.4741821289062</v>
+        <v>161.0768127441406</v>
       </c>
       <c r="GV3" t="n">
-        <v>262.4851379394531</v>
+        <v>150.2698059082031</v>
       </c>
       <c r="GW3" t="n">
-        <v>262.3636474609375</v>
+        <v>141.4734497070312</v>
       </c>
       <c r="GX3" t="n">
-        <v>262.5978088378906</v>
+        <v>138.5218963623047</v>
       </c>
       <c r="GY3" t="n">
-        <v>262.9267272949219</v>
+        <v>136.3844299316406</v>
       </c>
       <c r="GZ3" t="n">
-        <v>262.7261047363281</v>
+        <v>135.1216583251953</v>
       </c>
       <c r="HA3" t="n">
-        <v>261.8115539550781</v>
+        <v>139.4911346435547</v>
       </c>
       <c r="HB3" t="n">
-        <v>260.331787109375</v>
+        <v>145.786865234375</v>
       </c>
       <c r="HC3" t="n">
-        <v>259.6726989746094</v>
+        <v>154.5311584472656</v>
       </c>
       <c r="HD3" t="n">
-        <v>259.4529113769531</v>
+        <v>162.8837127685547</v>
       </c>
       <c r="HE3" t="n">
-        <v>259.0525817871094</v>
+        <v>168.4368743896484</v>
       </c>
       <c r="HF3" t="n">
-        <v>258.6585998535156</v>
+        <v>172.927734375</v>
       </c>
       <c r="HG3" t="n">
-        <v>257.7211608886719</v>
+        <v>186.2114715576172</v>
       </c>
       <c r="HH3" t="n">
-        <v>257.9068908691406</v>
+        <v>211.2819976806641</v>
       </c>
       <c r="HI3" t="n">
-        <v>258.8965454101562</v>
+        <v>227.6969146728516</v>
       </c>
       <c r="HJ3" t="n">
-        <v>259.6111450195312</v>
+        <v>241.0299377441406</v>
       </c>
       <c r="HK3" t="n">
-        <v>260.04541015625</v>
+        <v>241.5901489257812</v>
       </c>
       <c r="HL3" t="n">
-        <v>263.0184631347656</v>
+        <v>239.7521362304688</v>
       </c>
       <c r="HM3" t="n">
-        <v>264.7242126464844</v>
+        <v>239.0251007080078</v>
       </c>
       <c r="HN3" t="n">
-        <v>266.3068237304688</v>
+        <v>231.8170928955078</v>
       </c>
       <c r="HO3" t="n">
-        <v>265.18701171875</v>
+        <v>228.9707794189453</v>
       </c>
       <c r="HP3" t="n">
-        <v>265.2449951171875</v>
+        <v>228.4770050048828</v>
       </c>
       <c r="HQ3" t="n">
-        <v>264.1127624511719</v>
+        <v>222.5279083251953</v>
       </c>
       <c r="HR3" t="n">
-        <v>262.9853820800781</v>
+        <v>223.3633728027344</v>
       </c>
       <c r="HS3" t="n">
-        <v>262.2825012207031</v>
+        <v>245.7332000732422</v>
       </c>
       <c r="HT3" t="n">
-        <v>262.4043884277344</v>
+        <v>266.7668151855469</v>
       </c>
       <c r="HU3" t="n">
-        <v>261.87451171875</v>
+        <v>282.8578491210938</v>
       </c>
       <c r="HV3" t="n">
-        <v>260.6131286621094</v>
+        <v>292.7824096679688</v>
       </c>
       <c r="HW3" t="n">
-        <v>259.5150756835938</v>
+        <v>305.4801940917969</v>
       </c>
       <c r="HX3" t="n">
-        <v>259.8670959472656</v>
+        <v>314.4122009277344</v>
       </c>
       <c r="HY3" t="n">
-        <v>259.7181701660156</v>
+        <v>314.9863891601562</v>
       </c>
       <c r="HZ3" t="n">
-        <v>259.2101745605469</v>
+        <v>312.1596984863281</v>
       </c>
       <c r="IA3" t="n">
-        <v>258.8151550292969</v>
+        <v>312.4710693359375</v>
       </c>
       <c r="IB3" t="n">
-        <v>258.6591186523438</v>
+        <v>314.2040405273438</v>
       </c>
       <c r="IC3" t="n">
-        <v>258.3585205078125</v>
+        <v>314.7762145996094</v>
       </c>
       <c r="ID3" t="n">
-        <v>257.8089294433594</v>
+        <v>314.4624633789062</v>
       </c>
       <c r="IE3" t="n">
-        <v>258.5436401367188</v>
+        <v>317.2796325683594</v>
       </c>
       <c r="IF3" t="n">
-        <v>258.1829223632812</v>
+        <v>316.672119140625</v>
       </c>
       <c r="IG3" t="n">
-        <v>258.5338439941406</v>
+        <v>316.8561401367188</v>
       </c>
       <c r="IH3" t="n">
-        <v>259.0102844238281</v>
+        <v>317.4155883789062</v>
       </c>
       <c r="II3" t="n">
-        <v>259.783447265625</v>
+        <v>318.0178833007812</v>
       </c>
       <c r="IJ3" t="n">
-        <v>260.6863708496094</v>
+        <v>320.1770629882812</v>
       </c>
       <c r="IK3" t="n">
-        <v>260.9427490234375</v>
+        <v>320.4164428710938</v>
       </c>
       <c r="IL3" t="n">
-        <v>261.3040466308594</v>
+        <v>320.0216979980469</v>
       </c>
       <c r="IM3" t="n">
-        <v>262.7529602050781</v>
+        <v>319.7864074707031</v>
       </c>
       <c r="IN3" t="n">
-        <v>263.233154296875</v>
+        <v>306.5523986816406</v>
       </c>
       <c r="IO3" t="n">
-        <v>263.8762817382812</v>
+        <v>309.5228271484375</v>
       </c>
       <c r="IP3" t="n">
-        <v>263.0393676757812</v>
+        <v>310.6590576171875</v>
       </c>
       <c r="IQ3" t="n">
-        <v>261.8416442871094</v>
+        <v>311.84130859375</v>
       </c>
       <c r="IR3" t="n">
-        <v>262.4329223632812</v>
+        <v>312.0729675292969</v>
       </c>
       <c r="IS3" t="n">
-        <v>262.8739013671875</v>
+        <v>315.4887390136719</v>
       </c>
       <c r="IT3" t="n">
-        <v>262.8409423828125</v>
+        <v>311.4254760742188</v>
       </c>
       <c r="IU3" t="n">
-        <v>264.1476745605469</v>
+        <v>309.596923828125</v>
       </c>
       <c r="IV3" t="n">
-        <v>266.0641479492188</v>
+        <v>307.1113891601562</v>
       </c>
       <c r="IW3" t="n">
-        <v>267.2122802734375</v>
+        <v>299.2047729492188</v>
       </c>
       <c r="IX3" t="n">
-        <v>267.0434875488281</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>267.2491149902344</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>267.637451171875</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>267.6788635253906</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>268.1740112304688</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>266.9569396972656</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>268.4276123046875</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>269.4974060058594</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>269.4150390625</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>267.1838684082031</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>266.6514282226562</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>266.6616516113281</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>264.8456115722656</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>263.8423461914062</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>264.4955444335938</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>264.3962097167969</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>263.4835510253906</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>263.2016906738281</v>
-      </c>
-      <c r="JP3" t="n">
-        <v>262.8143005371094</v>
-      </c>
-      <c r="JQ3" t="n">
-        <v>263.2835388183594</v>
-      </c>
-      <c r="JR3" t="n">
-        <v>263.0702514648438</v>
-      </c>
-      <c r="JS3" t="n">
-        <v>263.0841979980469</v>
-      </c>
-      <c r="JT3" t="n">
-        <v>263.3895874023438</v>
-      </c>
-      <c r="JU3" t="n">
-        <v>263.1076049804688</v>
-      </c>
-      <c r="JV3" t="n">
-        <v>262.7560424804688</v>
-      </c>
-      <c r="JW3" t="n">
-        <v>262.4693603515625</v>
-      </c>
-      <c r="JX3" t="n">
-        <v>262.2535095214844</v>
-      </c>
-      <c r="JY3" t="n">
-        <v>262.4364929199219</v>
-      </c>
-      <c r="JZ3" t="n">
-        <v>262.7093505859375</v>
-      </c>
-      <c r="KA3" t="n">
-        <v>262.7822265625</v>
-      </c>
-      <c r="KB3" t="n">
-        <v>262.8391723632812</v>
-      </c>
-      <c r="KC3" t="n">
-        <v>262.863525390625</v>
-      </c>
-      <c r="KD3" t="n">
-        <v>261.1947937011719</v>
-      </c>
-      <c r="KE3" t="n">
-        <v>259.9325256347656</v>
-      </c>
-      <c r="KF3" t="n">
-        <v>259.72021484375</v>
-      </c>
-      <c r="KG3" t="n">
-        <v>259.3916320800781</v>
-      </c>
-      <c r="KH3" t="n">
-        <v>259.1436462402344</v>
-      </c>
-      <c r="KI3" t="n">
-        <v>259.067138671875</v>
-      </c>
-      <c r="KJ3" t="n">
-        <v>259.2717590332031</v>
-      </c>
-      <c r="KK3" t="n">
-        <v>259.3826599121094</v>
-      </c>
-      <c r="KL3" t="n">
-        <v>259.482177734375</v>
-      </c>
-      <c r="KM3" t="n">
-        <v>259.4955444335938</v>
-      </c>
-      <c r="KN3" t="n">
-        <v>259.5085754394531</v>
-      </c>
-      <c r="KO3" t="n">
-        <v>258.3005065917969</v>
-      </c>
-      <c r="KP3" t="n">
-        <v>257.5818481445312</v>
-      </c>
-      <c r="KQ3" t="n">
-        <v>257.181884765625</v>
-      </c>
-      <c r="KR3" t="n">
-        <v>256.932373046875</v>
-      </c>
-      <c r="KS3" t="n">
-        <v>256.8536376953125</v>
-      </c>
-      <c r="KT3" t="n">
-        <v>256.942626953125</v>
-      </c>
-      <c r="KU3" t="n">
-        <v>257.27978515625</v>
-      </c>
-      <c r="KV3" t="n">
-        <v>257.3532409667969</v>
-      </c>
-      <c r="KW3" t="n">
-        <v>257.2282409667969</v>
-      </c>
-      <c r="KX3" t="n">
-        <v>257.2157897949219</v>
-      </c>
-      <c r="KY3" t="n">
-        <v>257.4189453125</v>
-      </c>
-      <c r="KZ3" t="n">
-        <v>257.7080383300781</v>
-      </c>
-      <c r="LA3" t="n">
-        <v>257.4979858398438</v>
-      </c>
-      <c r="LB3" t="n">
-        <v>257.5376892089844</v>
-      </c>
-      <c r="LC3" t="n">
-        <v>257.6876831054688</v>
-      </c>
-      <c r="LD3" t="n">
-        <v>258.1212158203125</v>
-      </c>
-      <c r="LE3" t="n">
-        <v>258.5928955078125</v>
-      </c>
-      <c r="LF3" t="n">
-        <v>259.0286865234375</v>
-      </c>
-      <c r="LG3" t="n">
-        <v>259.2594604492188</v>
-      </c>
-      <c r="LH3" t="n">
-        <v>258.0392150878906</v>
-      </c>
-      <c r="LI3" t="n">
-        <v>254.6177673339844</v>
-      </c>
-      <c r="LJ3" t="n">
-        <v>249.5919799804688</v>
-      </c>
-      <c r="LK3" t="n">
-        <v>242.8251495361328</v>
-      </c>
-      <c r="LL3" t="n">
-        <v>241.0440979003906</v>
-      </c>
-      <c r="LM3" t="n">
-        <v>237.3763122558594</v>
-      </c>
-      <c r="LN3" t="n">
-        <v>231.4940795898438</v>
-      </c>
-      <c r="LO3" t="n">
-        <v>225.6814117431641</v>
-      </c>
-      <c r="LP3" t="n">
-        <v>222.5986480712891</v>
-      </c>
-      <c r="LQ3" t="n">
-        <v>220.041259765625</v>
-      </c>
-      <c r="LR3" t="n">
-        <v>218.2594451904297</v>
-      </c>
-      <c r="LS3" t="n">
-        <v>215.4662475585938</v>
-      </c>
-      <c r="LT3" t="n">
-        <v>205.1065979003906</v>
-      </c>
-      <c r="LU3" t="n">
-        <v>195.7683868408203</v>
-      </c>
-      <c r="LV3" t="n">
-        <v>182.7375030517578</v>
-      </c>
-      <c r="LW3" t="n">
-        <v>163.4616088867188</v>
-      </c>
-      <c r="LX3" t="n">
-        <v>159.7730560302734</v>
-      </c>
-      <c r="LY3" t="n">
-        <v>155.1349945068359</v>
-      </c>
-      <c r="LZ3" t="n">
-        <v>148.3472900390625</v>
-      </c>
-      <c r="MA3" t="n">
-        <v>145.1165618896484</v>
-      </c>
-      <c r="MB3" t="n">
-        <v>151.2417144775391</v>
-      </c>
-      <c r="MC3" t="n">
-        <v>152.0736999511719</v>
-      </c>
-      <c r="MD3" t="n">
-        <v>149.7848358154297</v>
-      </c>
-      <c r="ME3" t="n">
-        <v>148.4529418945312</v>
-      </c>
-      <c r="MF3" t="n">
-        <v>155.0907745361328</v>
-      </c>
-      <c r="MG3" t="n">
-        <v>178.2140350341797</v>
-      </c>
-      <c r="MH3" t="n">
-        <v>193.7651672363281</v>
-      </c>
-      <c r="MI3" t="n">
-        <v>216.0815124511719</v>
-      </c>
-      <c r="MJ3" t="n">
-        <v>253.7131652832031</v>
-      </c>
-      <c r="MK3" t="n">
-        <v>293.0626220703125</v>
-      </c>
-      <c r="ML3" t="n">
-        <v>310.2742004394531</v>
-      </c>
-      <c r="MM3" t="n">
-        <v>327.1020812988281</v>
-      </c>
-      <c r="MN3" t="n">
-        <v>329.0488586425781</v>
-      </c>
-      <c r="MO3" t="n">
-        <v>329.3098449707031</v>
-      </c>
-      <c r="MP3" t="n">
-        <v>328.0470886230469</v>
-      </c>
-      <c r="MQ3" t="n">
-        <v>329.155517578125</v>
-      </c>
-      <c r="MR3" t="n">
-        <v>333.7830505371094</v>
-      </c>
-      <c r="MS3" t="n">
-        <v>337.749267578125</v>
-      </c>
-      <c r="MT3" t="n">
-        <v>333.1645202636719</v>
-      </c>
-      <c r="MU3" t="n">
-        <v>338.6070251464844</v>
-      </c>
-      <c r="MV3" t="n">
-        <v>327.7737731933594</v>
-      </c>
-      <c r="MW3" t="n">
-        <v>325.4873352050781</v>
-      </c>
-      <c r="MX3" t="n">
-        <v>315.1410522460938</v>
-      </c>
-      <c r="MY3" t="n">
-        <v>310.793701171875</v>
-      </c>
-      <c r="MZ3" t="n">
-        <v>301.1841430664062</v>
-      </c>
-      <c r="NA3" t="n">
-        <v>288.9776611328125</v>
-      </c>
-      <c r="NB3" t="n">
-        <v>284.3862915039062</v>
-      </c>
-      <c r="NC3" t="n">
-        <v>282.3207702636719</v>
-      </c>
-      <c r="ND3" t="n">
-        <v>283.8395690917969</v>
-      </c>
-      <c r="NE3" t="n">
-        <v>287.6185302734375</v>
-      </c>
-      <c r="NF3" t="n">
-        <v>292.286865234375</v>
-      </c>
-      <c r="NG3" t="n">
-        <v>296.2384643554688</v>
-      </c>
-      <c r="NH3" t="n">
-        <v>297.9957275390625</v>
-      </c>
-      <c r="NI3" t="n">
-        <v>301.3410034179688</v>
-      </c>
-      <c r="NJ3" t="n">
-        <v>302.4869079589844</v>
-      </c>
-      <c r="NK3" t="n">
-        <v>302.4718933105469</v>
-      </c>
-      <c r="NL3" t="n">
-        <v>301.7130432128906</v>
-      </c>
-      <c r="NM3" t="n">
-        <v>301.1567687988281</v>
+        <v>293.6697082519531</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1034.8603515625</v>
+        <v>921.9677124023438</v>
       </c>
       <c r="B4" t="n">
-        <v>1025.5029296875</v>
+        <v>955.5379028320312</v>
       </c>
       <c r="C4" t="n">
-        <v>1025.505249023438</v>
+        <v>964.7603149414062</v>
       </c>
       <c r="D4" t="n">
-        <v>1025.87353515625</v>
+        <v>987.843994140625</v>
       </c>
       <c r="E4" t="n">
-        <v>1026.779907226562</v>
+        <v>996.2933349609375</v>
       </c>
       <c r="F4" t="n">
-        <v>1034.44775390625</v>
+        <v>1014.216064453125</v>
       </c>
       <c r="G4" t="n">
-        <v>1051.679931640625</v>
+        <v>1026.3251953125</v>
       </c>
       <c r="H4" t="n">
-        <v>1075.47021484375</v>
+        <v>1067.703002929688</v>
       </c>
       <c r="I4" t="n">
-        <v>1086.094360351562</v>
+        <v>1093.209716796875</v>
       </c>
       <c r="J4" t="n">
-        <v>1107.188354492188</v>
+        <v>1124.807495117188</v>
       </c>
       <c r="K4" t="n">
-        <v>1132.168334960938</v>
+        <v>1151.772338867188</v>
       </c>
       <c r="L4" t="n">
-        <v>1143.59228515625</v>
+        <v>1186.585205078125</v>
       </c>
       <c r="M4" t="n">
-        <v>1226.079467773438</v>
+        <v>1224.176391601562</v>
       </c>
       <c r="N4" t="n">
-        <v>1230.08447265625</v>
+        <v>1268.61962890625</v>
       </c>
       <c r="O4" t="n">
-        <v>1280.950805664062</v>
+        <v>1560.405517578125</v>
       </c>
       <c r="P4" t="n">
-        <v>1282.839721679688</v>
+        <v>1583.482543945312</v>
       </c>
       <c r="Q4" t="n">
-        <v>1283.5615234375</v>
+        <v>1589.388671875</v>
       </c>
       <c r="R4" t="n">
-        <v>1292.208129882812</v>
+        <v>1608.917358398438</v>
       </c>
       <c r="S4" t="n">
-        <v>1304.935668945312</v>
+        <v>1616.887817382812</v>
       </c>
       <c r="T4" t="n">
-        <v>1326.490112304688</v>
+        <v>1646.66015625</v>
       </c>
       <c r="U4" t="n">
-        <v>1338.179565429688</v>
+        <v>1659.604125976562</v>
       </c>
       <c r="V4" t="n">
-        <v>1359.220458984375</v>
+        <v>1675.441040039062</v>
       </c>
       <c r="W4" t="n">
-        <v>1370.45166015625</v>
+        <v>1700.597290039062</v>
       </c>
       <c r="X4" t="n">
-        <v>1385.255981445312</v>
+        <v>1712.527709960938</v>
       </c>
       <c r="Y4" t="n">
-        <v>1390.366943359375</v>
+        <v>1733.084838867188</v>
       </c>
       <c r="Z4" t="n">
-        <v>1400.212524414062</v>
+        <v>1746.42431640625</v>
       </c>
       <c r="AA4" t="n">
-        <v>1417.162353515625</v>
+        <v>1771.635498046875</v>
       </c>
       <c r="AB4" t="n">
-        <v>1422.878051757812</v>
+        <v>1805.955688476562</v>
       </c>
       <c r="AC4" t="n">
-        <v>1434.73681640625</v>
+        <v>1824.652954101562</v>
       </c>
       <c r="AD4" t="n">
-        <v>1444.2216796875</v>
+        <v>1852.432983398438</v>
       </c>
       <c r="AE4" t="n">
-        <v>1453.655151367188</v>
+        <v>1864.480346679688</v>
       </c>
       <c r="AF4" t="n">
-        <v>1466.645263671875</v>
+        <v>1890.682373046875</v>
       </c>
       <c r="AG4" t="n">
-        <v>1467.911987304688</v>
+        <v>1899.423095703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1471.05810546875</v>
+        <v>1939.034545898438</v>
       </c>
       <c r="AI4" t="n">
-        <v>1477.648071289062</v>
+        <v>1942.420654296875</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1490.984375</v>
+        <v>1969.608276367188</v>
       </c>
       <c r="AK4" t="n">
-        <v>1492.84521484375</v>
+        <v>1978.67919921875</v>
       </c>
       <c r="AL4" t="n">
-        <v>1492.017333984375</v>
+        <v>1991.57568359375</v>
       </c>
       <c r="AM4" t="n">
-        <v>1492.084350585938</v>
+        <v>1999.640625</v>
       </c>
       <c r="AN4" t="n">
-        <v>1491.833984375</v>
+        <v>2013.839111328125</v>
       </c>
       <c r="AO4" t="n">
-        <v>1491.558715820312</v>
+        <v>2021.975708007812</v>
       </c>
       <c r="AP4" t="n">
-        <v>1491.138793945312</v>
+        <v>2031.205200195312</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1490.5791015625</v>
+        <v>2034.4208984375</v>
       </c>
       <c r="AR4" t="n">
-        <v>1489.868896484375</v>
+        <v>2035.220336914062</v>
       </c>
       <c r="AS4" t="n">
-        <v>1483.973510742188</v>
+        <v>2038.22802734375</v>
       </c>
       <c r="AT4" t="n">
-        <v>1475.876220703125</v>
+        <v>2045.352172851562</v>
       </c>
       <c r="AU4" t="n">
-        <v>1469.205688476562</v>
+        <v>2053.411376953125</v>
       </c>
       <c r="AV4" t="n">
-        <v>1466.577758789062</v>
+        <v>2054.849365234375</v>
       </c>
       <c r="AW4" t="n">
-        <v>1464.5556640625</v>
+        <v>2056.4150390625</v>
       </c>
       <c r="AX4" t="n">
-        <v>1458.99951171875</v>
+        <v>2058.7177734375</v>
       </c>
       <c r="AY4" t="n">
-        <v>1451.011840820312</v>
+        <v>2063.103759765625</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1444.838623046875</v>
+        <v>2071.886962890625</v>
       </c>
       <c r="BA4" t="n">
-        <v>1431.005737304688</v>
+        <v>2084.480712890625</v>
       </c>
       <c r="BB4" t="n">
-        <v>1428.289428710938</v>
+        <v>2087.9111328125</v>
       </c>
       <c r="BC4" t="n">
-        <v>1419.991821289062</v>
+        <v>2085.561767578125</v>
       </c>
       <c r="BD4" t="n">
-        <v>1414.642700195312</v>
+        <v>2089.860595703125</v>
       </c>
       <c r="BE4" t="n">
-        <v>1403.399169921875</v>
+        <v>2095.32666015625</v>
       </c>
       <c r="BF4" t="n">
-        <v>1395.951171875</v>
+        <v>2098.51025390625</v>
       </c>
       <c r="BG4" t="n">
-        <v>1385.573364257812</v>
+        <v>2102.5390625</v>
       </c>
       <c r="BH4" t="n">
-        <v>1378.362182617188</v>
+        <v>2102.379150390625</v>
       </c>
       <c r="BI4" t="n">
-        <v>1371.171020507812</v>
+        <v>2102.171142578125</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1362.178100585938</v>
+        <v>2102.72021484375</v>
       </c>
       <c r="BK4" t="n">
-        <v>1353.187255859375</v>
+        <v>2103.19287109375</v>
       </c>
       <c r="BL4" t="n">
-        <v>1343.586303710938</v>
+        <v>2103.0673828125</v>
       </c>
       <c r="BM4" t="n">
-        <v>1332.863891601562</v>
+        <v>2102.993408203125</v>
       </c>
       <c r="BN4" t="n">
-        <v>1318.182250976562</v>
+        <v>2102.97607421875</v>
       </c>
       <c r="BO4" t="n">
-        <v>1308.117431640625</v>
+        <v>2102.8916015625</v>
       </c>
       <c r="BP4" t="n">
-        <v>1302.7548828125</v>
+        <v>2102.86376953125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1297.447021484375</v>
+        <v>2102.79931640625</v>
       </c>
       <c r="BR4" t="n">
-        <v>1292.117065429688</v>
+        <v>2102.729736328125</v>
       </c>
       <c r="BS4" t="n">
-        <v>1288.887939453125</v>
+        <v>2102.66162109375</v>
       </c>
       <c r="BT4" t="n">
-        <v>1282.835571289062</v>
+        <v>2102.580078125</v>
       </c>
       <c r="BU4" t="n">
-        <v>1279.21142578125</v>
+        <v>2102.209228515625</v>
       </c>
       <c r="BV4" t="n">
-        <v>1277.6142578125</v>
+        <v>2101.685546875</v>
       </c>
       <c r="BW4" t="n">
-        <v>1275.518432617188</v>
+        <v>2101.590087890625</v>
       </c>
       <c r="BX4" t="n">
-        <v>1273.797241210938</v>
+        <v>2101.433349609375</v>
       </c>
       <c r="BY4" t="n">
-        <v>1270.95654296875</v>
+        <v>2101.49365234375</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1268.894165039062</v>
+        <v>2102.358642578125</v>
       </c>
       <c r="CA4" t="n">
-        <v>1264.422973632812</v>
+        <v>2103.1484375</v>
       </c>
       <c r="CB4" t="n">
-        <v>1260.166015625</v>
+        <v>2103.82080078125</v>
       </c>
       <c r="CC4" t="n">
-        <v>1259.072021484375</v>
+        <v>2104.712890625</v>
       </c>
       <c r="CD4" t="n">
-        <v>1255.51904296875</v>
+        <v>2105.42236328125</v>
       </c>
       <c r="CE4" t="n">
-        <v>1249.949096679688</v>
+        <v>2106.371826171875</v>
       </c>
       <c r="CF4" t="n">
-        <v>1248.13037109375</v>
+        <v>2107.20751953125</v>
       </c>
       <c r="CG4" t="n">
-        <v>1243.686645507812</v>
+        <v>2107.0673828125</v>
       </c>
       <c r="CH4" t="n">
-        <v>1238.78564453125</v>
+        <v>2107.145751953125</v>
       </c>
       <c r="CI4" t="n">
-        <v>1237.901123046875</v>
+        <v>2107.16748046875</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1237.371826171875</v>
+        <v>2107.091552734375</v>
       </c>
       <c r="CK4" t="n">
-        <v>1236.904907226562</v>
+        <v>2105.297119140625</v>
       </c>
       <c r="CL4" t="n">
-        <v>1236.867797851562</v>
+        <v>2102.50634765625</v>
       </c>
       <c r="CM4" t="n">
-        <v>1236.385009765625</v>
+        <v>2100.64111328125</v>
       </c>
       <c r="CN4" t="n">
-        <v>1236.142700195312</v>
+        <v>2098.135498046875</v>
       </c>
       <c r="CO4" t="n">
-        <v>1236.427368164062</v>
+        <v>2095.3232421875</v>
       </c>
       <c r="CP4" t="n">
-        <v>1236.781494140625</v>
+        <v>2091.989501953125</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1236.868530273438</v>
+        <v>2092.379150390625</v>
       </c>
       <c r="CR4" t="n">
-        <v>1236.888916015625</v>
+        <v>2093.06005859375</v>
       </c>
       <c r="CS4" t="n">
-        <v>1236.9873046875</v>
+        <v>2093.765625</v>
       </c>
       <c r="CT4" t="n">
-        <v>1237.233154296875</v>
+        <v>2094.4521484375</v>
       </c>
       <c r="CU4" t="n">
-        <v>1237.427612304688</v>
+        <v>2095.0341796875</v>
       </c>
       <c r="CV4" t="n">
-        <v>1239.181884765625</v>
+        <v>2095.0224609375</v>
       </c>
       <c r="CW4" t="n">
-        <v>1240.66552734375</v>
+        <v>2095.0029296875</v>
       </c>
       <c r="CX4" t="n">
-        <v>1242.6435546875</v>
+        <v>2095.007080078125</v>
       </c>
       <c r="CY4" t="n">
-        <v>1243.357421875</v>
+        <v>2094.533935546875</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1245.1474609375</v>
+        <v>2094.359619140625</v>
       </c>
       <c r="DA4" t="n">
-        <v>1245.668212890625</v>
+        <v>2094.3642578125</v>
       </c>
       <c r="DB4" t="n">
-        <v>1247.34326171875</v>
+        <v>2094.293701171875</v>
       </c>
       <c r="DC4" t="n">
-        <v>1248.54443359375</v>
+        <v>2094.307373046875</v>
       </c>
       <c r="DD4" t="n">
-        <v>1250.985717773438</v>
+        <v>2094.31591796875</v>
       </c>
       <c r="DE4" t="n">
-        <v>1253.218505859375</v>
+        <v>2092.090087890625</v>
       </c>
       <c r="DF4" t="n">
-        <v>1254.442016601562</v>
+        <v>2080.529052734375</v>
       </c>
       <c r="DG4" t="n">
-        <v>1255.307739257812</v>
+        <v>2080.5908203125</v>
       </c>
       <c r="DH4" t="n">
-        <v>1256.354614257812</v>
+        <v>2080.384521484375</v>
       </c>
       <c r="DI4" t="n">
-        <v>1257.024658203125</v>
+        <v>2079.674560546875</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1261.765747070312</v>
+        <v>2079.65576171875</v>
       </c>
       <c r="DK4" t="n">
-        <v>1263.980224609375</v>
+        <v>2079.78466796875</v>
       </c>
       <c r="DL4" t="n">
-        <v>1264.720458984375</v>
+        <v>2080.157958984375</v>
       </c>
       <c r="DM4" t="n">
-        <v>1265.284301757812</v>
+        <v>2080.485595703125</v>
       </c>
       <c r="DN4" t="n">
-        <v>1265.771362304688</v>
+        <v>2086.346923828125</v>
       </c>
       <c r="DO4" t="n">
-        <v>1266.2841796875</v>
+        <v>2092.001220703125</v>
       </c>
       <c r="DP4" t="n">
-        <v>1267.322265625</v>
+        <v>2092.02880859375</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1267.106201171875</v>
+        <v>2091.66064453125</v>
       </c>
       <c r="DR4" t="n">
-        <v>1266.695190429688</v>
+        <v>2091.6962890625</v>
       </c>
       <c r="DS4" t="n">
-        <v>1267.0361328125</v>
+        <v>2091.688232421875</v>
       </c>
       <c r="DT4" t="n">
-        <v>1269.493896484375</v>
+        <v>2091.693603515625</v>
       </c>
       <c r="DU4" t="n">
-        <v>1276.317626953125</v>
+        <v>2091.719482421875</v>
       </c>
       <c r="DV4" t="n">
-        <v>1279.8505859375</v>
+        <v>2091.923095703125</v>
       </c>
       <c r="DW4" t="n">
-        <v>1297.123291015625</v>
+        <v>2092.1259765625</v>
       </c>
       <c r="DX4" t="n">
-        <v>1305.521362304688</v>
+        <v>2092.31201171875</v>
       </c>
       <c r="DY4" t="n">
-        <v>1313.155151367188</v>
+        <v>2092.252197265625</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1329.305786132812</v>
+        <v>2092.135986328125</v>
       </c>
       <c r="EA4" t="n">
-        <v>1334.596557617188</v>
+        <v>2092.138427734375</v>
       </c>
       <c r="EB4" t="n">
-        <v>1355.666259765625</v>
+        <v>2092.1123046875</v>
       </c>
       <c r="EC4" t="n">
-        <v>1363.1923828125</v>
+        <v>2092.11279296875</v>
       </c>
       <c r="ED4" t="n">
-        <v>1369.410400390625</v>
+        <v>2079.689453125</v>
       </c>
       <c r="EE4" t="n">
-        <v>1391.674926757812</v>
+        <v>2080.7294921875</v>
       </c>
       <c r="EF4" t="n">
-        <v>1418.923095703125</v>
+        <v>2081.680908203125</v>
       </c>
       <c r="EG4" t="n">
-        <v>1443.093627929688</v>
+        <v>2081.327880859375</v>
       </c>
       <c r="EH4" t="n">
-        <v>1456.728271484375</v>
+        <v>2080.22802734375</v>
       </c>
       <c r="EI4" t="n">
-        <v>1468.64697265625</v>
+        <v>2079.837158203125</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1494.7001953125</v>
+        <v>2079.64404296875</v>
       </c>
       <c r="EK4" t="n">
-        <v>1519.582641601562</v>
+        <v>2079.0537109375</v>
       </c>
       <c r="EL4" t="n">
-        <v>1524.90771484375</v>
+        <v>2073.36376953125</v>
       </c>
       <c r="EM4" t="n">
-        <v>1549.82861328125</v>
+        <v>2069.0869140625</v>
       </c>
       <c r="EN4" t="n">
-        <v>1559.377563476562</v>
+        <v>2069.653076171875</v>
       </c>
       <c r="EO4" t="n">
-        <v>1575.435546875</v>
+        <v>2069.227294921875</v>
       </c>
       <c r="EP4" t="n">
-        <v>1588.764038085938</v>
+        <v>2069.265380859375</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1616.248413085938</v>
+        <v>2069.385986328125</v>
       </c>
       <c r="ER4" t="n">
-        <v>1629.2958984375</v>
+        <v>2069.585693359375</v>
       </c>
       <c r="ES4" t="n">
-        <v>1651.86181640625</v>
+        <v>2069.45947265625</v>
       </c>
       <c r="ET4" t="n">
-        <v>1672.5166015625</v>
+        <v>2069.2802734375</v>
       </c>
       <c r="EU4" t="n">
-        <v>1691.368774414062</v>
+        <v>2055.214111328125</v>
       </c>
       <c r="EV4" t="n">
-        <v>1700.0107421875</v>
+        <v>2038.72216796875</v>
       </c>
       <c r="EW4" t="n">
-        <v>1746.563232421875</v>
+        <v>2038.831176757812</v>
       </c>
       <c r="EX4" t="n">
-        <v>1793.493286132812</v>
+        <v>2026.90673828125</v>
       </c>
       <c r="EY4" t="n">
-        <v>1823.219604492188</v>
+        <v>2024.7236328125</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1840.53076171875</v>
+        <v>2010.941040039062</v>
       </c>
       <c r="FA4" t="n">
-        <v>1873.258544921875</v>
+        <v>1992.644287109375</v>
       </c>
       <c r="FB4" t="n">
-        <v>1895.709106445312</v>
+        <v>1989.440551757812</v>
       </c>
       <c r="FC4" t="n">
-        <v>1953.947509765625</v>
+        <v>1960.1552734375</v>
       </c>
       <c r="FD4" t="n">
-        <v>1986.77685546875</v>
+        <v>1925.884399414062</v>
       </c>
       <c r="FE4" t="n">
-        <v>2003.83984375</v>
+        <v>1894.427978515625</v>
       </c>
       <c r="FF4" t="n">
-        <v>2019.098510742188</v>
+        <v>1855.27734375</v>
       </c>
       <c r="FG4" t="n">
-        <v>2062.550048828125</v>
+        <v>1850.2314453125</v>
       </c>
       <c r="FH4" t="n">
-        <v>2089.727783203125</v>
+        <v>1832.267211914062</v>
       </c>
       <c r="FI4" t="n">
-        <v>2134.73046875</v>
+        <v>1815.814086914062</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2172.23486328125</v>
+        <v>1782.9130859375</v>
       </c>
       <c r="FK4" t="n">
-        <v>2200.81787109375</v>
+        <v>1764.19091796875</v>
       </c>
       <c r="FL4" t="n">
-        <v>2223.432861328125</v>
+        <v>1738.504028320312</v>
       </c>
       <c r="FM4" t="n">
-        <v>2250.5908203125</v>
+        <v>1716.624145507812</v>
       </c>
       <c r="FN4" t="n">
-        <v>2278.173583984375</v>
+        <v>1712.767333984375</v>
       </c>
       <c r="FO4" t="n">
-        <v>2284.466552734375</v>
+        <v>1680.365844726562</v>
       </c>
       <c r="FP4" t="n">
-        <v>2301.80419921875</v>
+        <v>1646.218383789062</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2340.201416015625</v>
+        <v>1629.76611328125</v>
       </c>
       <c r="FR4" t="n">
-        <v>2362.22900390625</v>
+        <v>1610.854370117188</v>
       </c>
       <c r="FS4" t="n">
-        <v>2384.24072265625</v>
+        <v>1588.736694335938</v>
       </c>
       <c r="FT4" t="n">
-        <v>2411.178955078125</v>
+        <v>1552.214233398438</v>
       </c>
       <c r="FU4" t="n">
-        <v>2412.48095703125</v>
+        <v>1520.121948242188</v>
       </c>
       <c r="FV4" t="n">
-        <v>2429.855712890625</v>
+        <v>1488.5712890625</v>
       </c>
       <c r="FW4" t="n">
-        <v>2425.9697265625</v>
+        <v>1430.871337890625</v>
       </c>
       <c r="FX4" t="n">
-        <v>2428.3603515625</v>
+        <v>1419.610961914062</v>
       </c>
       <c r="FY4" t="n">
-        <v>2426.54638671875</v>
+        <v>1380.465942382812</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2430.853515625</v>
+        <v>1360.185302734375</v>
       </c>
       <c r="GA4" t="n">
-        <v>2431.90478515625</v>
+        <v>1326.05908203125</v>
       </c>
       <c r="GB4" t="n">
-        <v>2433.841552734375</v>
+        <v>1314.783935546875</v>
       </c>
       <c r="GC4" t="n">
-        <v>2437.29296875</v>
+        <v>1286.818969726562</v>
       </c>
       <c r="GD4" t="n">
-        <v>2453.66455078125</v>
+        <v>1274.528076171875</v>
       </c>
       <c r="GE4" t="n">
-        <v>2454.04541015625</v>
+        <v>1251.833374023438</v>
       </c>
       <c r="GF4" t="n">
-        <v>2451.9267578125</v>
+        <v>1231.486450195312</v>
       </c>
       <c r="GG4" t="n">
-        <v>2448.89013671875</v>
+        <v>1229.117065429688</v>
       </c>
       <c r="GH4" t="n">
-        <v>2431.59619140625</v>
+        <v>1206.025512695312</v>
       </c>
       <c r="GI4" t="n">
-        <v>2419.42578125</v>
+        <v>1180.6025390625</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2418.24462890625</v>
+        <v>1171.789794921875</v>
       </c>
       <c r="GK4" t="n">
-        <v>2416.9169921875</v>
+        <v>1143.881469726562</v>
       </c>
       <c r="GL4" t="n">
-        <v>2416.820068359375</v>
+        <v>1117.51025390625</v>
       </c>
       <c r="GM4" t="n">
-        <v>2415.90771484375</v>
+        <v>1083.506225585938</v>
       </c>
       <c r="GN4" t="n">
-        <v>2414.783935546875</v>
+        <v>1072.579956054688</v>
       </c>
       <c r="GO4" t="n">
-        <v>2413.6142578125</v>
+        <v>1033.71533203125</v>
       </c>
       <c r="GP4" t="n">
-        <v>2405.46875</v>
+        <v>991.6360473632812</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2395.849365234375</v>
+        <v>973.4864501953125</v>
       </c>
       <c r="GR4" t="n">
-        <v>2395.4287109375</v>
+        <v>936.2910766601562</v>
       </c>
       <c r="GS4" t="n">
-        <v>2389.75244140625</v>
+        <v>918.858642578125</v>
       </c>
       <c r="GT4" t="n">
-        <v>2376.6044921875</v>
+        <v>901.7610473632812</v>
       </c>
       <c r="GU4" t="n">
-        <v>2377.8271484375</v>
+        <v>868.0750122070312</v>
       </c>
       <c r="GV4" t="n">
-        <v>2362.53125</v>
+        <v>838.8554077148438</v>
       </c>
       <c r="GW4" t="n">
-        <v>2363.070556640625</v>
+        <v>808.5033569335938</v>
       </c>
       <c r="GX4" t="n">
-        <v>2362.4033203125</v>
+        <v>777.03076171875</v>
       </c>
       <c r="GY4" t="n">
-        <v>2362.402099609375</v>
+        <v>745.9764404296875</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2360.85791015625</v>
+        <v>714.3810424804688</v>
       </c>
       <c r="HA4" t="n">
-        <v>2346.736328125</v>
+        <v>666.3739624023438</v>
       </c>
       <c r="HB4" t="n">
-        <v>2343.68212890625</v>
+        <v>646.4735717773438</v>
       </c>
       <c r="HC4" t="n">
-        <v>2336.24951171875</v>
+        <v>638.0084228515625</v>
       </c>
       <c r="HD4" t="n">
-        <v>2345.229736328125</v>
+        <v>627.8394165039062</v>
       </c>
       <c r="HE4" t="n">
-        <v>2344.327880859375</v>
+        <v>621.5305786132812</v>
       </c>
       <c r="HF4" t="n">
-        <v>2336.405029296875</v>
+        <v>619.9440307617188</v>
       </c>
       <c r="HG4" t="n">
-        <v>2334.189453125</v>
+        <v>617.9450073242188</v>
       </c>
       <c r="HH4" t="n">
-        <v>2333.333740234375</v>
+        <v>620.88330078125</v>
       </c>
       <c r="HI4" t="n">
-        <v>2331.366455078125</v>
+        <v>655.0641479492188</v>
       </c>
       <c r="HJ4" t="n">
-        <v>2331.58203125</v>
+        <v>678.136474609375</v>
       </c>
       <c r="HK4" t="n">
-        <v>2331.394287109375</v>
+        <v>692.14013671875</v>
       </c>
       <c r="HL4" t="n">
-        <v>2315.294189453125</v>
+        <v>695.3359375</v>
       </c>
       <c r="HM4" t="n">
-        <v>2304.9912109375</v>
+        <v>695.7459106445312</v>
       </c>
       <c r="HN4" t="n">
-        <v>2307.562255859375</v>
+        <v>679.2346801757812</v>
       </c>
       <c r="HO4" t="n">
-        <v>2302.74951171875</v>
+        <v>599.7232055664062</v>
       </c>
       <c r="HP4" t="n">
-        <v>2291.35888671875</v>
+        <v>584.49755859375</v>
       </c>
       <c r="HQ4" t="n">
-        <v>2291.43017578125</v>
+        <v>570.7554321289062</v>
       </c>
       <c r="HR4" t="n">
-        <v>2279.032470703125</v>
+        <v>560.515380859375</v>
       </c>
       <c r="HS4" t="n">
-        <v>2272.148193359375</v>
+        <v>558.2839965820312</v>
       </c>
       <c r="HT4" t="n">
-        <v>2259.71826171875</v>
+        <v>560.5238037109375</v>
       </c>
       <c r="HU4" t="n">
-        <v>2251.0927734375</v>
+        <v>571.3411865234375</v>
       </c>
       <c r="HV4" t="n">
-        <v>2236.861083984375</v>
+        <v>601.0472412109375</v>
       </c>
       <c r="HW4" t="n">
-        <v>2235.921142578125</v>
+        <v>627.8139038085938</v>
       </c>
       <c r="HX4" t="n">
-        <v>2222.399658203125</v>
+        <v>671.386962890625</v>
       </c>
       <c r="HY4" t="n">
-        <v>2216.1845703125</v>
+        <v>721.6149291992188</v>
       </c>
       <c r="HZ4" t="n">
-        <v>2217.834716796875</v>
+        <v>779.2147216796875</v>
       </c>
       <c r="IA4" t="n">
-        <v>2216.170654296875</v>
+        <v>808.7159423828125</v>
       </c>
       <c r="IB4" t="n">
-        <v>2215.5478515625</v>
+        <v>847.9888305664062</v>
       </c>
       <c r="IC4" t="n">
-        <v>2213.985595703125</v>
+        <v>878.7528076171875</v>
       </c>
       <c r="ID4" t="n">
-        <v>2213.165771484375</v>
+        <v>906.208251953125</v>
       </c>
       <c r="IE4" t="n">
-        <v>2213.243896484375</v>
+        <v>919.912353515625</v>
       </c>
       <c r="IF4" t="n">
-        <v>2215.624755859375</v>
+        <v>949.3909301757812</v>
       </c>
       <c r="IG4" t="n">
-        <v>2217.597412109375</v>
+        <v>945.1201171875</v>
       </c>
       <c r="IH4" t="n">
-        <v>2219.09228515625</v>
+        <v>938.7931518554688</v>
       </c>
       <c r="II4" t="n">
-        <v>2227.097900390625</v>
+        <v>926.1621704101562</v>
       </c>
       <c r="IJ4" t="n">
-        <v>2232.1533203125</v>
+        <v>900.7002563476562</v>
       </c>
       <c r="IK4" t="n">
-        <v>2240.453125</v>
+        <v>874.1033325195312</v>
       </c>
       <c r="IL4" t="n">
-        <v>2242.96484375</v>
+        <v>853.6416015625</v>
       </c>
       <c r="IM4" t="n">
-        <v>2250.984130859375</v>
+        <v>829.9085083007812</v>
       </c>
       <c r="IN4" t="n">
-        <v>2260.55859375</v>
+        <v>806.792724609375</v>
       </c>
       <c r="IO4" t="n">
-        <v>2260.1630859375</v>
+        <v>757.3035888671875</v>
       </c>
       <c r="IP4" t="n">
-        <v>2264.595458984375</v>
+        <v>736.5291748046875</v>
       </c>
       <c r="IQ4" t="n">
-        <v>2295.412109375</v>
+        <v>701.3413696289062</v>
       </c>
       <c r="IR4" t="n">
-        <v>2300.98876953125</v>
+        <v>697.00634765625</v>
       </c>
       <c r="IS4" t="n">
-        <v>2301.59619140625</v>
+        <v>684.1992797851562</v>
       </c>
       <c r="IT4" t="n">
-        <v>2334.736328125</v>
+        <v>673.290771484375</v>
       </c>
       <c r="IU4" t="n">
-        <v>2351.11669921875</v>
+        <v>667.915771484375</v>
       </c>
       <c r="IV4" t="n">
-        <v>2347.63671875</v>
+        <v>665.4808349609375</v>
       </c>
       <c r="IW4" t="n">
-        <v>2351.52294921875</v>
+        <v>662.4645385742188</v>
       </c>
       <c r="IX4" t="n">
-        <v>2357.6611328125</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>2355.652099609375</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>2355.88720703125</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>2362.6005859375</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>2352.944580078125</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>2352.469482421875</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>2339.423583984375</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>2335.99560546875</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>2327.99755859375</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>2318.44970703125</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>2303.791748046875</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>2299.66259765625</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>2296.908935546875</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>2294.64306640625</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>2267.50048828125</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>2281.9267578125</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>2279.306396484375</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>2256.8232421875</v>
-      </c>
-      <c r="JP4" t="n">
-        <v>2249.410400390625</v>
-      </c>
-      <c r="JQ4" t="n">
-        <v>2248.57373046875</v>
-      </c>
-      <c r="JR4" t="n">
-        <v>2246.4208984375</v>
-      </c>
-      <c r="JS4" t="n">
-        <v>2239.42333984375</v>
-      </c>
-      <c r="JT4" t="n">
-        <v>2237.038330078125</v>
-      </c>
-      <c r="JU4" t="n">
-        <v>2236.532958984375</v>
-      </c>
-      <c r="JV4" t="n">
-        <v>2236.255615234375</v>
-      </c>
-      <c r="JW4" t="n">
-        <v>2236.03564453125</v>
-      </c>
-      <c r="JX4" t="n">
-        <v>2235.752685546875</v>
-      </c>
-      <c r="JY4" t="n">
-        <v>2230.77294921875</v>
-      </c>
-      <c r="JZ4" t="n">
-        <v>2220.28271484375</v>
-      </c>
-      <c r="KA4" t="n">
-        <v>2220.708984375</v>
-      </c>
-      <c r="KB4" t="n">
-        <v>2221.770263671875</v>
-      </c>
-      <c r="KC4" t="n">
-        <v>2222.771484375</v>
-      </c>
-      <c r="KD4" t="n">
-        <v>2226.908447265625</v>
-      </c>
-      <c r="KE4" t="n">
-        <v>2232.146484375</v>
-      </c>
-      <c r="KF4" t="n">
-        <v>2231.806640625</v>
-      </c>
-      <c r="KG4" t="n">
-        <v>2232.35009765625</v>
-      </c>
-      <c r="KH4" t="n">
-        <v>2238.490966796875</v>
-      </c>
-      <c r="KI4" t="n">
-        <v>2243.787109375</v>
-      </c>
-      <c r="KJ4" t="n">
-        <v>2243.865478515625</v>
-      </c>
-      <c r="KK4" t="n">
-        <v>2244.028076171875</v>
-      </c>
-      <c r="KL4" t="n">
-        <v>2244.55712890625</v>
-      </c>
-      <c r="KM4" t="n">
-        <v>2245.180908203125</v>
-      </c>
-      <c r="KN4" t="n">
-        <v>2246.1982421875</v>
-      </c>
-      <c r="KO4" t="n">
-        <v>2258.263671875</v>
-      </c>
-      <c r="KP4" t="n">
-        <v>2257.994384765625</v>
-      </c>
-      <c r="KQ4" t="n">
-        <v>2256.788330078125</v>
-      </c>
-      <c r="KR4" t="n">
-        <v>2255.85888671875</v>
-      </c>
-      <c r="KS4" t="n">
-        <v>2255.137451171875</v>
-      </c>
-      <c r="KT4" t="n">
-        <v>2251.077392578125</v>
-      </c>
-      <c r="KU4" t="n">
-        <v>2249.31884765625</v>
-      </c>
-      <c r="KV4" t="n">
-        <v>2249.38134765625</v>
-      </c>
-      <c r="KW4" t="n">
-        <v>2249.0810546875</v>
-      </c>
-      <c r="KX4" t="n">
-        <v>2249.025634765625</v>
-      </c>
-      <c r="KY4" t="n">
-        <v>2247.73779296875</v>
-      </c>
-      <c r="KZ4" t="n">
-        <v>2243.91357421875</v>
-      </c>
-      <c r="LA4" t="n">
-        <v>2233.058837890625</v>
-      </c>
-      <c r="LB4" t="n">
-        <v>2211.705322265625</v>
-      </c>
-      <c r="LC4" t="n">
-        <v>2200.633056640625</v>
-      </c>
-      <c r="LD4" t="n">
-        <v>2164.051513671875</v>
-      </c>
-      <c r="LE4" t="n">
-        <v>2115.093505859375</v>
-      </c>
-      <c r="LF4" t="n">
-        <v>2052.419677734375</v>
-      </c>
-      <c r="LG4" t="n">
-        <v>2007.89111328125</v>
-      </c>
-      <c r="LH4" t="n">
-        <v>1963.8779296875</v>
-      </c>
-      <c r="LI4" t="n">
-        <v>1865.77734375</v>
-      </c>
-      <c r="LJ4" t="n">
-        <v>1774.577880859375</v>
-      </c>
-      <c r="LK4" t="n">
-        <v>1697.583984375</v>
-      </c>
-      <c r="LL4" t="n">
-        <v>1652.602905273438</v>
-      </c>
-      <c r="LM4" t="n">
-        <v>1622.329833984375</v>
-      </c>
-      <c r="LN4" t="n">
-        <v>1573.144775390625</v>
-      </c>
-      <c r="LO4" t="n">
-        <v>1533.39794921875</v>
-      </c>
-      <c r="LP4" t="n">
-        <v>1467.111450195312</v>
-      </c>
-      <c r="LQ4" t="n">
-        <v>1377.188354492188</v>
-      </c>
-      <c r="LR4" t="n">
-        <v>1313.4365234375</v>
-      </c>
-      <c r="LS4" t="n">
-        <v>1250.942504882812</v>
-      </c>
-      <c r="LT4" t="n">
-        <v>1143.57177734375</v>
-      </c>
-      <c r="LU4" t="n">
-        <v>1084.576171875</v>
-      </c>
-      <c r="LV4" t="n">
-        <v>1036.605224609375</v>
-      </c>
-      <c r="LW4" t="n">
-        <v>989.78271484375</v>
-      </c>
-      <c r="LX4" t="n">
-        <v>959.61572265625</v>
-      </c>
-      <c r="LY4" t="n">
-        <v>917.5341796875</v>
-      </c>
-      <c r="LZ4" t="n">
-        <v>892.537841796875</v>
-      </c>
-      <c r="MA4" t="n">
-        <v>865.9955444335938</v>
-      </c>
-      <c r="MB4" t="n">
-        <v>846.7354736328125</v>
-      </c>
-      <c r="MC4" t="n">
-        <v>836.8984375</v>
-      </c>
-      <c r="MD4" t="n">
-        <v>849.3300170898438</v>
-      </c>
-      <c r="ME4" t="n">
-        <v>860.8197631835938</v>
-      </c>
-      <c r="MF4" t="n">
-        <v>861.8966064453125</v>
-      </c>
-      <c r="MG4" t="n">
-        <v>857.865234375</v>
-      </c>
-      <c r="MH4" t="n">
-        <v>856.6859130859375</v>
-      </c>
-      <c r="MI4" t="n">
-        <v>855.9857177734375</v>
-      </c>
-      <c r="MJ4" t="n">
-        <v>865.6691284179688</v>
-      </c>
-      <c r="MK4" t="n">
-        <v>887.4983520507812</v>
-      </c>
-      <c r="ML4" t="n">
-        <v>918.5081787109375</v>
-      </c>
-      <c r="MM4" t="n">
-        <v>969.714111328125</v>
-      </c>
-      <c r="MN4" t="n">
-        <v>994.9892578125</v>
-      </c>
-      <c r="MO4" t="n">
-        <v>1006.231323242188</v>
-      </c>
-      <c r="MP4" t="n">
-        <v>1014.015747070312</v>
-      </c>
-      <c r="MQ4" t="n">
-        <v>1010.248840332031</v>
-      </c>
-      <c r="MR4" t="n">
-        <v>959.509033203125</v>
-      </c>
-      <c r="MS4" t="n">
-        <v>924.1112670898438</v>
-      </c>
-      <c r="MT4" t="n">
-        <v>869.309326171875</v>
-      </c>
-      <c r="MU4" t="n">
-        <v>845.68798828125</v>
-      </c>
-      <c r="MV4" t="n">
-        <v>820.7267456054688</v>
-      </c>
-      <c r="MW4" t="n">
-        <v>690.1561889648438</v>
-      </c>
-      <c r="MX4" t="n">
-        <v>810.6121215820312</v>
-      </c>
-      <c r="MY4" t="n">
-        <v>786.3433227539062</v>
-      </c>
-      <c r="MZ4" t="n">
-        <v>767.1361694335938</v>
-      </c>
-      <c r="NA4" t="n">
-        <v>749.9866333007812</v>
-      </c>
-      <c r="NB4" t="n">
-        <v>748.7648315429688</v>
-      </c>
-      <c r="NC4" t="n">
-        <v>751.1873168945312</v>
-      </c>
-      <c r="ND4" t="n">
-        <v>757.7021484375</v>
-      </c>
-      <c r="NE4" t="n">
-        <v>764.093505859375</v>
-      </c>
-      <c r="NF4" t="n">
-        <v>774.1610107421875</v>
-      </c>
-      <c r="NG4" t="n">
-        <v>787.3812255859375</v>
-      </c>
-      <c r="NH4" t="n">
-        <v>802.5364990234375</v>
-      </c>
-      <c r="NI4" t="n">
-        <v>806.2507934570312</v>
-      </c>
-      <c r="NJ4" t="n">
-        <v>806.2904663085938</v>
-      </c>
-      <c r="NK4" t="n">
-        <v>806.23974609375</v>
-      </c>
-      <c r="NL4" t="n">
-        <v>804.7216186523438</v>
-      </c>
-      <c r="NM4" t="n">
-        <v>796.8969116210938</v>
+        <v>661.7772216796875</v>
       </c>
     </row>
   </sheetData>
